--- a/report/CornTempRes.xlsx
+++ b/report/CornTempRes.xlsx
@@ -8,8 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="detail" sheetId="1" r:id="rId1"/>
-    <sheet name="summarize" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="soydetail" sheetId="5" r:id="rId2"/>
+    <sheet name="summarize" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="h14p">OFFSET(detail!$H$3, COUNT(detail!$A:$A),0,-4,1)</definedName>
@@ -32,13 +33,13 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="4" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="57">
   <si>
     <t>拍卖周</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,6 +233,21 @@
   </si>
   <si>
     <t>第23周</t>
+  </si>
+  <si>
+    <t>第24周</t>
+  </si>
+  <si>
+    <t>vol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -475,7 +491,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -576,6 +592,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -660,7 +680,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -670,7 +690,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN">
+              <a:rPr lang="zh-CN" b="1">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -680,7 +700,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -694,7 +713,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -801,7 +820,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -813,16 +831,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43335</c:v>
+                  <c:v>43342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43342</c:v>
+                  <c:v>43349</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43349</c:v>
+                  <c:v>43356</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43356</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -834,16 +852,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.96109999999999995</c:v>
+                  <c:v>0.84230000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84230000000000005</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.95540000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95540000000000003</c:v>
+                  <c:v>0.9829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -936,7 +954,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -948,16 +965,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43335</c:v>
+                  <c:v>43342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43342</c:v>
+                  <c:v>43349</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43349</c:v>
+                  <c:v>43356</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43356</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -969,16 +986,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.47970000000000002</c:v>
+                  <c:v>0.68189999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.68189999999999995</c:v>
+                  <c:v>0.79510000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.79510000000000003</c:v>
+                  <c:v>0.75060000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75060000000000004</c:v>
+                  <c:v>0.77280000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -993,8 +1010,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-649020016"/>
-        <c:axId val="-649021104"/>
+        <c:axId val="778050896"/>
+        <c:axId val="778048176"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1103,7 +1120,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1115,16 +1131,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43335</c:v>
+                  <c:v>43342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43342</c:v>
+                  <c:v>43349</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43349</c:v>
+                  <c:v>43356</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43356</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1136,16 +1152,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1486</c:v>
+                  <c:v>1508</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1508</c:v>
+                  <c:v>1558</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1558</c:v>
+                  <c:v>1548</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1548</c:v>
+                  <c:v>1525</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1256,7 +1272,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1268,16 +1283,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43335</c:v>
+                  <c:v>43342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43342</c:v>
+                  <c:v>43349</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43349</c:v>
+                  <c:v>43356</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43356</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1289,16 +1304,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1533</c:v>
+                  <c:v>1547</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1547</c:v>
+                  <c:v>1554</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1554</c:v>
+                  <c:v>1545</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1545</c:v>
+                  <c:v>1538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1315,11 +1330,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-649015120"/>
-        <c:axId val="-649020560"/>
+        <c:axId val="778054704"/>
+        <c:axId val="778042736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-649015120"/>
+        <c:axId val="778054704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1359,7 +1374,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-649020560"/>
+        <c:crossAx val="778042736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1367,7 +1382,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-649020560"/>
+        <c:axId val="778042736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1415,12 +1430,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-649015120"/>
+        <c:crossAx val="778054704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-649021104"/>
+        <c:axId val="778048176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1454,12 +1469,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-649020016"/>
+        <c:crossAx val="778050896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-649020016"/>
+        <c:axId val="778050896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1469,7 +1484,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-649021104"/>
+        <c:crossAx val="778048176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1485,7 +1500,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1570,7 +1584,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -1580,7 +1594,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN">
+              <a:rPr lang="zh-CN" b="1">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -1590,7 +1604,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1604,7 +1617,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1711,7 +1724,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1723,16 +1735,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43335</c:v>
+                  <c:v>43342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43342</c:v>
+                  <c:v>43349</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43349</c:v>
+                  <c:v>43356</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43356</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1743,6 +1755,9 @@
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1837,7 +1852,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1849,16 +1863,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43335</c:v>
+                  <c:v>43342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43342</c:v>
+                  <c:v>43349</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43349</c:v>
+                  <c:v>43356</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43356</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1870,16 +1884,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.85029999999999994</c:v>
+                  <c:v>0.99529999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99529999999999996</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.99099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99099999999999999</c:v>
+                  <c:v>0.98480000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1894,8 +1908,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-649017840"/>
-        <c:axId val="-649022736"/>
+        <c:axId val="778050352"/>
+        <c:axId val="778049264"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2004,7 +2018,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2016,16 +2029,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43335</c:v>
+                  <c:v>43342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43342</c:v>
+                  <c:v>43349</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43349</c:v>
+                  <c:v>43356</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43356</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2036,8 +2049,11 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="2">
+                  <c:v>1650</c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>1650</c:v>
+                  <c:v>1646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2148,7 +2164,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2160,16 +2175,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43335</c:v>
+                  <c:v>43342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43342</c:v>
+                  <c:v>43349</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43349</c:v>
+                  <c:v>43356</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43356</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2181,16 +2196,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1605</c:v>
+                  <c:v>1608</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1608</c:v>
+                  <c:v>1626</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1626</c:v>
+                  <c:v>1635</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1635</c:v>
+                  <c:v>1631</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2207,11 +2222,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-649018384"/>
-        <c:axId val="-649010768"/>
+        <c:axId val="778047088"/>
+        <c:axId val="778043280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-649018384"/>
+        <c:axId val="778047088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2251,7 +2266,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-649010768"/>
+        <c:crossAx val="778043280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2259,7 +2274,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-649010768"/>
+        <c:axId val="778043280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2307,12 +2322,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-649018384"/>
+        <c:crossAx val="778047088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-649022736"/>
+        <c:axId val="778049264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2346,12 +2361,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-649017840"/>
+        <c:crossAx val="778050352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-649017840"/>
+        <c:axId val="778050352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2361,7 +2376,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-649022736"/>
+        <c:crossAx val="778049264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2378,7 +2393,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2463,7 +2477,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -2473,7 +2487,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN">
+              <a:rPr lang="zh-CN" b="1">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -2483,7 +2497,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2497,7 +2510,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2604,7 +2617,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2616,16 +2628,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43335</c:v>
+                  <c:v>43342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43342</c:v>
+                  <c:v>43349</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43349</c:v>
+                  <c:v>43356</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43356</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2636,14 +2648,17 @@
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.1449</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1449</c:v>
+                  <c:v>9.7500000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.7500000000000003E-2</c:v>
+                  <c:v>0.58150000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.58150000000000002</c:v>
+                  <c:v>0.52729999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2736,7 +2751,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2748,16 +2762,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43335</c:v>
+                  <c:v>43342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43342</c:v>
+                  <c:v>43349</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43349</c:v>
+                  <c:v>43356</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43356</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2769,16 +2783,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.49430000000000002</c:v>
+                  <c:v>0.44350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44350000000000001</c:v>
+                  <c:v>0.54239999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.54239999999999999</c:v>
+                  <c:v>0.53559999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.53559999999999997</c:v>
+                  <c:v>0.55320000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2793,8 +2807,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-649017296"/>
-        <c:axId val="-649016208"/>
+        <c:axId val="778044368"/>
+        <c:axId val="778055248"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2903,7 +2917,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2915,16 +2928,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43335</c:v>
+                  <c:v>43342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43342</c:v>
+                  <c:v>43349</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43349</c:v>
+                  <c:v>43356</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43356</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2935,14 +2948,17 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1591</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>1591</c:v>
+                  <c:v>1514</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1514</c:v>
+                  <c:v>1562</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1562</c:v>
+                  <c:v>1589</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3053,7 +3069,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3065,16 +3080,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43335</c:v>
+                  <c:v>43342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43342</c:v>
+                  <c:v>43349</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43349</c:v>
+                  <c:v>43356</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43356</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3086,16 +3101,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1538</c:v>
+                  <c:v>1545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1545</c:v>
+                  <c:v>1580</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1580</c:v>
+                  <c:v>1583</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1583</c:v>
+                  <c:v>1569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3112,11 +3127,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-649012944"/>
-        <c:axId val="-649009136"/>
+        <c:axId val="778042192"/>
+        <c:axId val="778054160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-649012944"/>
+        <c:axId val="778042192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3156,7 +3171,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-649009136"/>
+        <c:crossAx val="778054160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -3164,7 +3179,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-649009136"/>
+        <c:axId val="778054160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3212,12 +3227,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-649012944"/>
+        <c:crossAx val="778042192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-649016208"/>
+        <c:axId val="778055248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3251,12 +3266,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-649017296"/>
+        <c:crossAx val="778044368"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-649017296"/>
+        <c:axId val="778044368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3266,7 +3281,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-649016208"/>
+        <c:crossAx val="778055248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3282,7 +3297,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3367,7 +3381,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -3377,7 +3391,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN">
+              <a:rPr lang="zh-CN" b="1">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -3387,7 +3401,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3401,7 +3414,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -3508,7 +3521,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3520,16 +3532,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43335</c:v>
+                  <c:v>43342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43342</c:v>
+                  <c:v>43349</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43349</c:v>
+                  <c:v>43356</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43356</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3541,16 +3553,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.21410000000000001</c:v>
+                  <c:v>0.3276</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3276</c:v>
+                  <c:v>0.31219999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.31219999999999998</c:v>
+                  <c:v>0.2034</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2034</c:v>
+                  <c:v>0.2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3643,7 +3655,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3655,16 +3666,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43335</c:v>
+                  <c:v>43342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43342</c:v>
+                  <c:v>43349</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43349</c:v>
+                  <c:v>43356</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43356</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3676,16 +3687,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.19059999999999999</c:v>
+                  <c:v>0.28360000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28360000000000002</c:v>
+                  <c:v>0.3357</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3357</c:v>
+                  <c:v>0.27800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27800000000000002</c:v>
+                  <c:v>0.1918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3700,8 +3711,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-733556176"/>
-        <c:axId val="-649022192"/>
+        <c:axId val="343056800"/>
+        <c:axId val="343056256"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3810,7 +3821,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3822,16 +3832,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43335</c:v>
+                  <c:v>43342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43342</c:v>
+                  <c:v>43349</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43349</c:v>
+                  <c:v>43356</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43356</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3843,16 +3853,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1436</c:v>
+                  <c:v>1425</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1447</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1425</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1447</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3963,7 +3973,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3975,16 +3984,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43335</c:v>
+                  <c:v>43342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43342</c:v>
+                  <c:v>43349</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43349</c:v>
+                  <c:v>43356</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43356</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3996,16 +4005,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1441</c:v>
+                  <c:v>1434</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1434</c:v>
+                  <c:v>1455</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1455</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1450</c:v>
+                  <c:v>1466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4022,11 +4031,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-649014032"/>
-        <c:axId val="-649011312"/>
+        <c:axId val="343054624"/>
+        <c:axId val="343055712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-649014032"/>
+        <c:axId val="343054624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4066,7 +4075,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-649011312"/>
+        <c:crossAx val="343055712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -4074,7 +4083,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-649011312"/>
+        <c:axId val="343055712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4122,12 +4131,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-649014032"/>
+        <c:crossAx val="343054624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-649022192"/>
+        <c:axId val="343056256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4161,12 +4170,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-733556176"/>
+        <c:crossAx val="343056800"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-733556176"/>
+        <c:axId val="343056800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4176,7 +4185,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-649022192"/>
+        <c:crossAx val="343056256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -4193,7 +4202,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6520,9 +6528,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>342450</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>24450</xdr:rowOff>
+      <xdr:colOff>332489</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>129001</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -6532,9 +6540,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="3067050" y="4295775"/>
-          <a:ext cx="7209975" cy="5063175"/>
+          <a:ext cx="7200014" cy="4310476"/>
           <a:chOff x="3095625" y="4295775"/>
-          <a:chExt cx="7209975" cy="5063175"/>
+          <a:chExt cx="7209989" cy="5052012"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:graphicFrame macro="">
@@ -6562,8 +6570,8 @@
           </xdr:cNvGraphicFramePr>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="3095625" y="6838950"/>
-          <a:ext cx="3600000" cy="2520000"/>
+          <a:off x="3095625" y="6827786"/>
+          <a:ext cx="3600000" cy="2520001"/>
         </xdr:xfrm>
         <a:graphic>
           <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6579,7 +6587,7 @@
           </xdr:cNvGraphicFramePr>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="6696075" y="6838950"/>
+          <a:off x="6705614" y="6827787"/>
           <a:ext cx="3600000" cy="2520000"/>
         </xdr:xfrm>
         <a:graphic>
@@ -6939,7 +6947,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J8:L13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -7294,10 +7302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB14"/>
+  <dimension ref="A1:BB15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7351,144 +7359,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="40"/>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49">
+      <c r="E1" s="50"/>
+      <c r="F1" s="51">
         <v>2014</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="44">
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="46">
         <v>2015</v>
       </c>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="44"/>
-      <c r="BA1" s="44"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="46"/>
+      <c r="AO1" s="46"/>
+      <c r="AP1" s="46"/>
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="46"/>
+      <c r="AU1" s="46"/>
+      <c r="AV1" s="46"/>
+      <c r="AW1" s="46"/>
+      <c r="AX1" s="46"/>
+      <c r="AY1" s="46"/>
+      <c r="AZ1" s="46"/>
+      <c r="BA1" s="46"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="A2" s="46"/>
-      <c r="B2" s="45"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="40"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="50" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="51" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="52" t="s">
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="53" t="s">
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="50" t="s">
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="51" t="s">
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="52" t="s">
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AQ2" s="52"/>
-      <c r="AR2" s="52"/>
-      <c r="AS2" s="52"/>
-      <c r="AT2" s="52"/>
-      <c r="AU2" s="52"/>
-      <c r="AV2" s="53" t="s">
+      <c r="AQ2" s="54"/>
+      <c r="AR2" s="54"/>
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54"/>
+      <c r="AU2" s="54"/>
+      <c r="AV2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="AW2" s="53"/>
-      <c r="AX2" s="53"/>
-      <c r="AY2" s="53"/>
-      <c r="AZ2" s="53"/>
-      <c r="BA2" s="53"/>
+      <c r="AW2" s="55"/>
+      <c r="AX2" s="55"/>
+      <c r="AY2" s="55"/>
+      <c r="AZ2" s="55"/>
+      <c r="BA2" s="55"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="A3" s="46"/>
-      <c r="B3" s="45"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="40" t="s">
         <v>50</v>
       </c>
@@ -9229,15 +9237,15 @@
         <v>51</v>
       </c>
       <c r="C13" s="40">
-        <f t="shared" ref="C13:C14" si="37">J13+P13+V13+AB13+AH13+AN13+AT13+AZ13</f>
+        <f t="shared" ref="C13:C15" si="37">J13+P13+V13+AB13+AH13+AN13+AT13+AZ13</f>
         <v>74728966</v>
       </c>
       <c r="D13" s="8">
-        <f t="shared" ref="D13:D14" si="38">+K13+Q13+W13+AC13</f>
+        <f t="shared" ref="D13:D15" si="38">+K13+Q13+W13+AC13</f>
         <v>7117193</v>
       </c>
       <c r="E13" s="8">
-        <f t="shared" ref="E13:E14" si="39">AI13+AO13+AU13+BA13</f>
+        <f t="shared" ref="E13:E15" si="39">AI13+AO13+AU13+BA13</f>
         <v>92953341</v>
       </c>
       <c r="F13" s="7">
@@ -9253,11 +9261,11 @@
         <v>0.31219999999999998</v>
       </c>
       <c r="J13" s="5">
-        <f t="shared" ref="J13:J14" si="40">J12+G13</f>
+        <f t="shared" ref="J13:J15" si="40">J12+G13</f>
         <v>25258648</v>
       </c>
       <c r="K13" s="6">
-        <f t="shared" ref="K13:K14" si="41">F13-J13</f>
+        <f t="shared" ref="K13:K15" si="41">F13-J13</f>
         <v>6132452</v>
       </c>
       <c r="L13" s="7">
@@ -9273,22 +9281,22 @@
         <v>1</v>
       </c>
       <c r="P13" s="5">
-        <f t="shared" ref="P13:P14" si="42">P12+M13</f>
+        <f t="shared" ref="P13:P15" si="42">P12+M13</f>
         <v>11759406</v>
       </c>
       <c r="Q13" s="6">
-        <f t="shared" ref="Q13:Q14" si="43">L13-P13</f>
+        <f t="shared" ref="Q13:Q15" si="43">L13-P13</f>
         <v>622594</v>
       </c>
       <c r="R13" s="7">
         <v>3318700</v>
       </c>
       <c r="V13" s="5">
-        <f t="shared" ref="V13:V14" si="44">V12+S13</f>
+        <f t="shared" ref="V13:V15" si="44">V12+S13</f>
         <v>3242241</v>
       </c>
       <c r="W13" s="6">
-        <f t="shared" ref="W13:W14" si="45">R13-V13</f>
+        <f t="shared" ref="W13:W15" si="45">R13-V13</f>
         <v>76459</v>
       </c>
       <c r="X13" s="7">
@@ -9304,11 +9312,11 @@
         <v>9.7500000000000003E-2</v>
       </c>
       <c r="AB13" s="5">
-        <f t="shared" ref="AB13:AB14" si="46">AB12+Y13</f>
+        <f t="shared" ref="AB13:AB15" si="46">AB12+Y13</f>
         <v>4992012</v>
       </c>
       <c r="AC13" s="9">
-        <f t="shared" ref="AC13:AC14" si="47">X13-AB13</f>
+        <f t="shared" ref="AC13:AC15" si="47">X13-AB13</f>
         <v>285688</v>
       </c>
       <c r="AD13" s="10">
@@ -9324,11 +9332,11 @@
         <v>0.3357</v>
       </c>
       <c r="AH13" s="8">
-        <f t="shared" ref="AH13:AH14" si="48">AH12+AE13</f>
+        <f t="shared" ref="AH13:AH15" si="48">AH12+AE13</f>
         <v>5722268</v>
       </c>
       <c r="AI13" s="6">
-        <f t="shared" ref="AI13:AI14" si="49">AD13-AH13</f>
+        <f t="shared" ref="AI13:AI15" si="49">AD13-AH13</f>
         <v>39897732</v>
       </c>
       <c r="AJ13" s="7">
@@ -9344,11 +9352,11 @@
         <v>0.79510000000000003</v>
       </c>
       <c r="AN13" s="8">
-        <f t="shared" ref="AN13:AN14" si="50">AN12+AK13</f>
+        <f t="shared" ref="AN13:AN15" si="50">AN12+AK13</f>
         <v>14453286</v>
       </c>
       <c r="AO13" s="6">
-        <f t="shared" ref="AO13:AO14" si="51">AJ13-AN13</f>
+        <f t="shared" ref="AO13:AO15" si="51">AJ13-AN13</f>
         <v>30056714</v>
       </c>
       <c r="AP13" s="7">
@@ -9364,11 +9372,11 @@
         <v>1</v>
       </c>
       <c r="AT13" s="5">
-        <f t="shared" ref="AT13:AT14" si="52">AT12+AQ13</f>
+        <f t="shared" ref="AT13:AT15" si="52">AT12+AQ13</f>
         <v>3921243</v>
       </c>
       <c r="AU13" s="6">
-        <f t="shared" ref="AU13:AU14" si="53">AP13-AT13</f>
+        <f t="shared" ref="AU13:AU15" si="53">AP13-AT13</f>
         <v>7318757</v>
       </c>
       <c r="AV13" s="7">
@@ -9384,11 +9392,11 @@
         <v>0.54239999999999999</v>
       </c>
       <c r="AZ13" s="5">
-        <f t="shared" ref="AZ13:AZ14" si="54">AZ12+AW13</f>
+        <f t="shared" ref="AZ13:AZ15" si="54">AZ12+AW13</f>
         <v>5379862</v>
       </c>
       <c r="BA13" s="6">
-        <f t="shared" ref="BA13:BA14" si="55">AV13-AZ13</f>
+        <f t="shared" ref="BA13:BA15" si="55">AV13-AZ13</f>
         <v>15680138</v>
       </c>
     </row>
@@ -9570,6 +9578,186 @@
       <c r="BA14" s="6">
         <f t="shared" si="55"/>
         <v>15185803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>43363</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="40">
+        <f t="shared" si="37"/>
+        <v>82430436</v>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" si="38"/>
+        <v>6161211</v>
+      </c>
+      <c r="E15" s="8">
+        <f t="shared" si="39"/>
+        <v>86207853</v>
+      </c>
+      <c r="F15" s="7">
+        <v>31391100</v>
+      </c>
+      <c r="G15">
+        <v>234748</v>
+      </c>
+      <c r="H15">
+        <v>1447</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0.2019</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="40"/>
+        <v>25723328</v>
+      </c>
+      <c r="K15" s="6">
+        <f t="shared" si="41"/>
+        <v>5667772</v>
+      </c>
+      <c r="L15" s="7">
+        <v>12382000</v>
+      </c>
+      <c r="M15" s="4">
+        <v>202371</v>
+      </c>
+      <c r="N15" s="4">
+        <v>1525</v>
+      </c>
+      <c r="O15" s="12">
+        <v>0.9829</v>
+      </c>
+      <c r="P15" s="5">
+        <f t="shared" si="42"/>
+        <v>12064267</v>
+      </c>
+      <c r="Q15" s="6">
+        <f t="shared" si="43"/>
+        <v>317733</v>
+      </c>
+      <c r="R15" s="7">
+        <v>3318700</v>
+      </c>
+      <c r="S15">
+        <v>48369</v>
+      </c>
+      <c r="T15">
+        <v>1646</v>
+      </c>
+      <c r="U15" s="12">
+        <v>1</v>
+      </c>
+      <c r="V15" s="5">
+        <f t="shared" si="44"/>
+        <v>3300610</v>
+      </c>
+      <c r="W15" s="6">
+        <f t="shared" si="45"/>
+        <v>18090</v>
+      </c>
+      <c r="X15" s="7">
+        <v>5277700</v>
+      </c>
+      <c r="Y15">
+        <v>90271</v>
+      </c>
+      <c r="Z15">
+        <v>1589</v>
+      </c>
+      <c r="AA15" s="12">
+        <v>0.52729999999999999</v>
+      </c>
+      <c r="AB15" s="5">
+        <f t="shared" si="46"/>
+        <v>5120084</v>
+      </c>
+      <c r="AC15" s="9">
+        <f t="shared" si="47"/>
+        <v>157616</v>
+      </c>
+      <c r="AD15" s="10">
+        <v>45620000</v>
+      </c>
+      <c r="AE15">
+        <v>538681</v>
+      </c>
+      <c r="AF15">
+        <v>1466</v>
+      </c>
+      <c r="AG15" s="12">
+        <v>0.1918</v>
+      </c>
+      <c r="AH15" s="8">
+        <f t="shared" si="48"/>
+        <v>7057066</v>
+      </c>
+      <c r="AI15" s="6">
+        <f t="shared" si="49"/>
+        <v>38562934</v>
+      </c>
+      <c r="AJ15" s="7">
+        <v>44510000</v>
+      </c>
+      <c r="AK15" s="4">
+        <v>1763444</v>
+      </c>
+      <c r="AL15" s="4">
+        <v>1538</v>
+      </c>
+      <c r="AM15" s="12">
+        <v>0.77280000000000004</v>
+      </c>
+      <c r="AN15" s="8">
+        <f t="shared" si="50"/>
+        <v>18002784</v>
+      </c>
+      <c r="AO15" s="6">
+        <f t="shared" si="51"/>
+        <v>26507216</v>
+      </c>
+      <c r="AP15" s="7">
+        <v>11240000</v>
+      </c>
+      <c r="AQ15" s="4">
+        <v>441324</v>
+      </c>
+      <c r="AR15" s="4">
+        <v>1631</v>
+      </c>
+      <c r="AS15" s="12">
+        <v>0.98480000000000001</v>
+      </c>
+      <c r="AT15" s="5">
+        <f t="shared" si="52"/>
+        <v>4834091</v>
+      </c>
+      <c r="AU15" s="6">
+        <f t="shared" si="53"/>
+        <v>6405909</v>
+      </c>
+      <c r="AV15" s="7">
+        <v>21060000</v>
+      </c>
+      <c r="AW15" s="4">
+        <v>454009</v>
+      </c>
+      <c r="AX15" s="4">
+        <v>1569</v>
+      </c>
+      <c r="AY15" s="12">
+        <v>0.55320000000000003</v>
+      </c>
+      <c r="AZ15" s="5">
+        <f t="shared" si="54"/>
+        <v>6328206</v>
+      </c>
+      <c r="BA15" s="6">
+        <f t="shared" si="55"/>
+        <v>14731794</v>
       </c>
     </row>
   </sheetData>
@@ -9596,10 +9784,254 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F10:M22"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>43265</v>
+      </c>
+      <c r="B2">
+        <v>19.232400000000002</v>
+      </c>
+      <c r="C2">
+        <v>3042.55</v>
+      </c>
+      <c r="D2" s="45">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>43271</v>
+      </c>
+      <c r="B3">
+        <v>7.7782</v>
+      </c>
+      <c r="C3">
+        <v>2995</v>
+      </c>
+      <c r="D3" s="45">
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>43278</v>
+      </c>
+      <c r="B4">
+        <v>10.6859</v>
+      </c>
+      <c r="C4">
+        <v>3007.66</v>
+      </c>
+      <c r="D4" s="45">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>43285</v>
+      </c>
+      <c r="B5">
+        <v>28.355899999999998</v>
+      </c>
+      <c r="C5">
+        <v>3028</v>
+      </c>
+      <c r="D5" s="45">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>43292</v>
+      </c>
+      <c r="B6">
+        <v>17.177800000000001</v>
+      </c>
+      <c r="C6">
+        <v>2995</v>
+      </c>
+      <c r="D6" s="45">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>43299</v>
+      </c>
+      <c r="B7">
+        <v>14.0068</v>
+      </c>
+      <c r="C7">
+        <v>2993</v>
+      </c>
+      <c r="D7" s="45">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>43306</v>
+      </c>
+      <c r="B8">
+        <v>5.9078999999999997</v>
+      </c>
+      <c r="C8">
+        <v>2997</v>
+      </c>
+      <c r="D8" s="45">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>43313</v>
+      </c>
+      <c r="B9">
+        <v>2.3292000000000002</v>
+      </c>
+      <c r="C9">
+        <v>2997</v>
+      </c>
+      <c r="D9" s="45">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>43320</v>
+      </c>
+      <c r="B10">
+        <v>3.7427999999999999</v>
+      </c>
+      <c r="C10">
+        <v>2983</v>
+      </c>
+      <c r="D10" s="45">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>43327</v>
+      </c>
+      <c r="B11">
+        <v>12.727</v>
+      </c>
+      <c r="C11">
+        <v>3012</v>
+      </c>
+      <c r="D11" s="45">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>43334</v>
+      </c>
+      <c r="B12">
+        <v>7.4665999999999997</v>
+      </c>
+      <c r="C12">
+        <v>3020</v>
+      </c>
+      <c r="D12" s="45">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>43341</v>
+      </c>
+      <c r="B13">
+        <v>4.0266000000000002</v>
+      </c>
+      <c r="C13">
+        <v>3002</v>
+      </c>
+      <c r="D13" s="45">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>43348</v>
+      </c>
+      <c r="B14">
+        <v>4.7778</v>
+      </c>
+      <c r="C14">
+        <v>3003</v>
+      </c>
+      <c r="D14" s="45">
+        <v>0.24210000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>43355</v>
+      </c>
+      <c r="B15">
+        <v>5.9740000000000002</v>
+      </c>
+      <c r="C15">
+        <v>3080</v>
+      </c>
+      <c r="D15" s="45">
+        <v>0.60150000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>43360</v>
+      </c>
+      <c r="B16">
+        <v>9.2988</v>
+      </c>
+      <c r="C16">
+        <v>3060</v>
+      </c>
+      <c r="D16" s="45">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D16">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E10:M22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9614,15 +10046,15 @@
     <col min="13" max="13" width="13.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="6:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="6:13" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="5:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F11" s="14">
         <f>INDEX(detail!A4:A99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>43356</v>
+        <v>43363</v>
       </c>
       <c r="G11" s="15" t="str">
         <f>INDEX(detail!B4:B99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>第23周</v>
+        <v>第24周</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>17</v>
@@ -9643,8 +10075,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="6:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F12" s="58">
+    <row r="12" spans="5:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E12">
+        <f>I12+I17</f>
+        <v>773429</v>
+      </c>
+      <c r="F12" s="60">
         <v>2014</v>
       </c>
       <c r="G12" s="18" t="s">
@@ -9656,27 +10092,31 @@
       </c>
       <c r="I12" s="18">
         <f>INDEX(detail!G4:G99999,COUNTA(detail!$B4:$B99999))</f>
-        <v>229932</v>
+        <v>234748</v>
       </c>
       <c r="J12" s="18">
         <f>INDEX(detail!H4:H99999,COUNTA(detail!$B4:$B99999))</f>
-        <v>1425</v>
+        <v>1447</v>
       </c>
       <c r="K12" s="20">
         <f>INDEX(detail!I4:I99999,COUNTA(detail!$B4:$B99999))</f>
-        <v>0.2034</v>
+        <v>0.2019</v>
       </c>
       <c r="L12" s="19">
         <f>INDEX(detail!J4:J99999,COUNTA(detail!$B4:$B99999))/10000</f>
-        <v>2548.8580000000002</v>
+        <v>2572.3328000000001</v>
       </c>
       <c r="M12" s="21">
         <f>INDEX(detail!K4:K99999,COUNTA(detail!$B4:$B99999))/10000</f>
-        <v>590.25199999999995</v>
+        <v>566.77719999999999</v>
       </c>
     </row>
-    <row r="13" spans="6:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F13" s="58"/>
+    <row r="13" spans="5:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E13">
+        <f>I13+I18</f>
+        <v>1965815</v>
+      </c>
+      <c r="F13" s="60"/>
       <c r="G13" s="18" t="s">
         <v>2</v>
       </c>
@@ -9686,27 +10126,31 @@
       </c>
       <c r="I13" s="18">
         <f>INDEX(detail!M4:M99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>102490</v>
+        <v>202371</v>
       </c>
       <c r="J13" s="18">
         <f>INDEX(detail!N4:N99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1548</v>
+        <v>1525</v>
       </c>
       <c r="K13" s="20">
         <f>INDEX(detail!O4:O99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>0.95540000000000003</v>
+        <v>0.9829</v>
       </c>
       <c r="L13" s="19">
         <f>INDEX(detail!P4:P99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>1186.1895999999999</v>
+        <v>1206.4267</v>
       </c>
       <c r="M13" s="21">
         <f>INDEX(detail!Q4:Q99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>52.010399999999997</v>
+        <v>31.773299999999999</v>
       </c>
     </row>
-    <row r="14" spans="6:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F14" s="58"/>
+    <row r="14" spans="5:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E14">
+        <f>I14+I19</f>
+        <v>489693</v>
+      </c>
+      <c r="F14" s="60"/>
       <c r="G14" s="18" t="s">
         <v>3</v>
       </c>
@@ -9716,11 +10160,11 @@
       </c>
       <c r="I14" s="18">
         <f>INDEX(detail!S4:S99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>10000</v>
+        <v>48369</v>
       </c>
       <c r="J14" s="18">
         <f>INDEX(detail!T4:T99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1650</v>
+        <v>1646</v>
       </c>
       <c r="K14" s="20">
         <f>INDEX(detail!U4:U99999,COUNTA(detail!$B$4:$B$99999))</f>
@@ -9728,15 +10172,19 @@
       </c>
       <c r="L14" s="19">
         <f>INDEX(detail!V4:V99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>325.22410000000002</v>
+        <v>330.06099999999998</v>
       </c>
       <c r="M14" s="21">
         <f>INDEX(detail!W4:W99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>6.6459000000000001</v>
+        <v>1.8089999999999999</v>
       </c>
     </row>
-    <row r="15" spans="6:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F15" s="58"/>
+    <row r="15" spans="5:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E15">
+        <f>I15+I20</f>
+        <v>544280</v>
+      </c>
+      <c r="F15" s="60"/>
       <c r="G15" s="18" t="s">
         <v>16</v>
       </c>
@@ -9746,51 +10194,51 @@
       </c>
       <c r="I15" s="18">
         <f>INDEX(detail!Y4:Y99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>37801</v>
+        <v>90271</v>
       </c>
       <c r="J15" s="18">
         <f>INDEX(detail!Z4:Z99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1562</v>
+        <v>1589</v>
       </c>
       <c r="K15" s="20">
         <f>INDEX(detail!AA4:AA99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>0.58150000000000002</v>
+        <v>0.52729999999999999</v>
       </c>
       <c r="L15" s="19">
         <f>INDEX(detail!AB4:AB99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>502.98129999999998</v>
+        <v>512.00840000000005</v>
       </c>
       <c r="M15" s="21">
         <f>INDEX(detail!AC4:AC99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>24.788699999999999</v>
+        <v>15.7616</v>
       </c>
     </row>
-    <row r="16" spans="6:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F16" s="54" t="s">
+    <row r="16" spans="5:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F16" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="55"/>
+      <c r="G16" s="57"/>
       <c r="H16" s="22">
         <f>SUM(H12:H15)</f>
         <v>5236.9500000000007</v>
       </c>
       <c r="I16" s="23">
         <f t="shared" ref="I16:M16" si="0">SUM(I12:I15)</f>
-        <v>380223</v>
+        <v>575759</v>
       </c>
       <c r="J16" s="23"/>
       <c r="K16" s="24"/>
       <c r="L16" s="22">
         <f t="shared" si="0"/>
-        <v>4563.2529999999997</v>
+        <v>4620.8288999999995</v>
       </c>
       <c r="M16" s="25">
         <f t="shared" si="0"/>
-        <v>673.69699999999989</v>
+        <v>616.12109999999996</v>
       </c>
     </row>
     <row r="17" spans="6:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F17" s="58">
+      <c r="F17" s="60">
         <v>2015</v>
       </c>
       <c r="G17" s="18" t="s">
@@ -9802,27 +10250,27 @@
       </c>
       <c r="I17" s="18">
         <f>INDEX(detail!AE4:AE99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>796117</v>
+        <v>538681</v>
       </c>
       <c r="J17" s="18">
         <f>INDEX(detail!AF4:AF99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1450</v>
+        <v>1466</v>
       </c>
       <c r="K17" s="20">
         <f>INDEX(detail!AG4:AG99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>0.27800000000000002</v>
+        <v>0.1918</v>
       </c>
       <c r="L17" s="19">
         <f>INDEX(detail!AH4:AH99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>651.83849999999995</v>
+        <v>705.70659999999998</v>
       </c>
       <c r="M17" s="21">
         <f>INDEX(detail!AI4:AI99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>3910.1615000000002</v>
+        <v>3856.2934</v>
       </c>
     </row>
     <row r="18" spans="6:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F18" s="58"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="18" t="s">
         <v>2</v>
       </c>
@@ -9832,27 +10280,27 @@
       </c>
       <c r="I18" s="18">
         <f>INDEX(detail!AK4:AK99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1786054</v>
+        <v>1763444</v>
       </c>
       <c r="J18" s="18">
         <f>INDEX(detail!AL4:AL99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1545</v>
+        <v>1538</v>
       </c>
       <c r="K18" s="20">
         <f>INDEX(detail!AM4:AM99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>0.75060000000000004</v>
+        <v>0.77280000000000004</v>
       </c>
       <c r="L18" s="19">
         <f>INDEX(detail!AN4:AN99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>1623.934</v>
+        <v>1800.2783999999999</v>
       </c>
       <c r="M18" s="21">
         <f>INDEX(detail!AO4:AO99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>2827.0659999999998</v>
+        <v>2650.7215999999999</v>
       </c>
     </row>
     <row r="19" spans="6:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F19" s="58"/>
+      <c r="F19" s="60"/>
       <c r="G19" s="18" t="s">
         <v>3</v>
       </c>
@@ -9862,27 +10310,27 @@
       </c>
       <c r="I19" s="18">
         <f>INDEX(detail!AQ4:AQ99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>471524</v>
+        <v>441324</v>
       </c>
       <c r="J19" s="18">
         <f>INDEX(detail!AR4:AR99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="K19" s="20">
         <f>INDEX(detail!AS4:AS99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>0.99099999999999999</v>
+        <v>0.98480000000000001</v>
       </c>
       <c r="L19" s="19">
         <f>INDEX(detail!AT4:AT99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>439.27670000000001</v>
+        <v>483.40910000000002</v>
       </c>
       <c r="M19" s="21">
         <f>INDEX(detail!AU4:AU99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>684.72329999999999</v>
+        <v>640.59090000000003</v>
       </c>
     </row>
     <row r="20" spans="6:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F20" s="58"/>
+      <c r="F20" s="60"/>
       <c r="G20" s="18" t="s">
         <v>16</v>
       </c>
@@ -9892,71 +10340,71 @@
       </c>
       <c r="I20" s="18">
         <f>INDEX(detail!AW4:AW99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>494335</v>
+        <v>454009</v>
       </c>
       <c r="J20" s="18">
         <f>INDEX(detail!AX4:AX99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1583</v>
+        <v>1569</v>
       </c>
       <c r="K20" s="20">
         <f>INDEX(detail!AY4:AY99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>0.53559999999999997</v>
+        <v>0.55320000000000003</v>
       </c>
       <c r="L20" s="19">
         <f>INDEX(detail!AZ4:AZ99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>587.41970000000003</v>
+        <v>632.82060000000001</v>
       </c>
       <c r="M20" s="21">
         <f>INDEX(detail!BA4:BA99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>1518.5803000000001</v>
+        <v>1473.1794</v>
       </c>
     </row>
     <row r="21" spans="6:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F21" s="54" t="s">
+      <c r="F21" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="55"/>
+      <c r="G21" s="57"/>
       <c r="H21" s="22">
         <f>SUM(H17:H20)</f>
         <v>12243</v>
       </c>
       <c r="I21" s="23">
         <f t="shared" ref="I21:M21" si="1">SUM(I17:I20)</f>
-        <v>3548030</v>
+        <v>3197458</v>
       </c>
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
       <c r="L21" s="22">
         <f t="shared" si="1"/>
-        <v>3302.4688999999998</v>
+        <v>3622.2146999999995</v>
       </c>
       <c r="M21" s="25">
         <f t="shared" si="1"/>
-        <v>8940.5311000000002</v>
+        <v>8620.7852999999996</v>
       </c>
     </row>
     <row r="22" spans="6:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="56" t="s">
+      <c r="F22" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="57"/>
+      <c r="G22" s="59"/>
       <c r="H22" s="26">
         <f>H16+H21</f>
         <v>17479.95</v>
       </c>
       <c r="I22" s="27">
         <f t="shared" ref="I22:M22" si="2">I16+I21</f>
-        <v>3928253</v>
+        <v>3773217</v>
       </c>
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
       <c r="L22" s="26">
         <f t="shared" si="2"/>
-        <v>7865.7218999999996</v>
+        <v>8243.0435999999991</v>
       </c>
       <c r="M22" s="28">
         <f t="shared" si="2"/>
-        <v>9614.2281000000003</v>
+        <v>9236.9063999999998</v>
       </c>
     </row>
   </sheetData>
@@ -9974,7 +10422,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>

--- a/report/CornTempRes.xlsx
+++ b/report/CornTempRes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="detail" sheetId="1" r:id="rId1"/>
@@ -33,13 +33,13 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="58">
   <si>
     <t>拍卖周</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,6 +248,9 @@
   <si>
     <t>ratio</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第25周</t>
   </si>
 </sst>
 </file>
@@ -491,7 +494,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -596,6 +599,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -700,6 +706,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -820,6 +827,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -831,16 +839,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43342</c:v>
+                  <c:v>43349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43349</c:v>
+                  <c:v>43356</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43356</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43363</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -852,16 +860,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.84230000000000005</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.95540000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95540000000000003</c:v>
+                  <c:v>0.9829</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9829</c:v>
+                  <c:v>0.99119999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -954,6 +962,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -965,16 +974,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43342</c:v>
+                  <c:v>43349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43349</c:v>
+                  <c:v>43356</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43356</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43363</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -986,16 +995,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.68189999999999995</c:v>
+                  <c:v>0.79510000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.79510000000000003</c:v>
+                  <c:v>0.75060000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75060000000000004</c:v>
+                  <c:v>0.77280000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77280000000000004</c:v>
+                  <c:v>0.71709999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1010,8 +1019,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="778050896"/>
-        <c:axId val="778048176"/>
+        <c:axId val="-1031249776"/>
+        <c:axId val="-1031254672"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1120,6 +1129,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1131,16 +1141,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43342</c:v>
+                  <c:v>43349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43349</c:v>
+                  <c:v>43356</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43356</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43363</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1152,16 +1162,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1508</c:v>
+                  <c:v>1558</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1558</c:v>
+                  <c:v>1548</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1548</c:v>
+                  <c:v>1525</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1525</c:v>
+                  <c:v>1538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1272,6 +1282,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1283,16 +1294,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43342</c:v>
+                  <c:v>43349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43349</c:v>
+                  <c:v>43356</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43356</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43363</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1304,16 +1315,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1547</c:v>
+                  <c:v>1554</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1554</c:v>
+                  <c:v>1545</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1545</c:v>
+                  <c:v>1538</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1538</c:v>
+                  <c:v>1528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1330,11 +1341,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="778054704"/>
-        <c:axId val="778042736"/>
+        <c:axId val="-1031248144"/>
+        <c:axId val="-1031250320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="778054704"/>
+        <c:axId val="-1031248144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1374,7 +1385,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="778042736"/>
+        <c:crossAx val="-1031250320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1382,7 +1393,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="778042736"/>
+        <c:axId val="-1031250320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1430,12 +1441,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="778054704"/>
+        <c:crossAx val="-1031248144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="778048176"/>
+        <c:axId val="-1031254672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1469,12 +1480,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="778050896"/>
+        <c:crossAx val="-1031249776"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="778050896"/>
+        <c:axId val="-1031249776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1484,7 +1495,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="778048176"/>
+        <c:crossAx val="-1031254672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1500,6 +1511,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1604,6 +1616,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1724,6 +1737,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1735,16 +1749,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43342</c:v>
+                  <c:v>43349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43349</c:v>
+                  <c:v>43356</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43356</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43363</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1755,10 +1769,10 @@
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1852,6 +1866,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1863,16 +1878,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43342</c:v>
+                  <c:v>43349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43349</c:v>
+                  <c:v>43356</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43356</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43363</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1884,16 +1899,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.99529999999999996</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.99099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99099999999999999</c:v>
+                  <c:v>0.98480000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98480000000000001</c:v>
+                  <c:v>0.99550000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1908,8 +1923,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="778050352"/>
-        <c:axId val="778049264"/>
+        <c:axId val="-1031251408"/>
+        <c:axId val="-1031253040"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2018,6 +2033,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2029,16 +2045,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43342</c:v>
+                  <c:v>43349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43349</c:v>
+                  <c:v>43356</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43356</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43363</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2049,10 +2065,10 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>1650</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>1650</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>1646</c:v>
                 </c:pt>
               </c:numCache>
@@ -2164,6 +2180,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2175,16 +2192,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43342</c:v>
+                  <c:v>43349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43349</c:v>
+                  <c:v>43356</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43356</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43363</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2196,16 +2213,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1608</c:v>
+                  <c:v>1626</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1626</c:v>
+                  <c:v>1635</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1635</c:v>
+                  <c:v>1631</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1631</c:v>
+                  <c:v>1602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2222,11 +2239,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="778047088"/>
-        <c:axId val="778043280"/>
+        <c:axId val="-1031239440"/>
+        <c:axId val="-1031254128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="778047088"/>
+        <c:axId val="-1031239440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2266,7 +2283,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="778043280"/>
+        <c:crossAx val="-1031254128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2274,7 +2291,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="778043280"/>
+        <c:axId val="-1031254128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2322,12 +2339,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="778047088"/>
+        <c:crossAx val="-1031239440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="778049264"/>
+        <c:axId val="-1031253040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2361,12 +2378,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="778050352"/>
+        <c:crossAx val="-1031251408"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="778050352"/>
+        <c:axId val="-1031251408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2376,7 +2393,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="778049264"/>
+        <c:crossAx val="-1031253040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2393,6 +2410,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2497,6 +2515,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2617,6 +2636,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2628,16 +2648,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43342</c:v>
+                  <c:v>43349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43349</c:v>
+                  <c:v>43356</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43356</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43363</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2649,16 +2669,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.1449</c:v>
+                  <c:v>9.7500000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.7500000000000003E-2</c:v>
+                  <c:v>0.58150000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.58150000000000002</c:v>
+                  <c:v>0.52729999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52729999999999999</c:v>
+                  <c:v>0.1673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2751,6 +2771,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2762,16 +2783,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43342</c:v>
+                  <c:v>43349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43349</c:v>
+                  <c:v>43356</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43356</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43363</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2783,16 +2804,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.44350000000000001</c:v>
+                  <c:v>0.54239999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.54239999999999999</c:v>
+                  <c:v>0.53559999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.53559999999999997</c:v>
+                  <c:v>0.55320000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55320000000000003</c:v>
+                  <c:v>0.60070000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2807,8 +2828,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="778044368"/>
-        <c:axId val="778055248"/>
+        <c:axId val="-1031244880"/>
+        <c:axId val="-1031245968"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2917,6 +2938,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2928,16 +2950,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43342</c:v>
+                  <c:v>43349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43349</c:v>
+                  <c:v>43356</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43356</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43363</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2949,16 +2971,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1591</c:v>
+                  <c:v>1514</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1514</c:v>
+                  <c:v>1562</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1562</c:v>
+                  <c:v>1589</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1589</c:v>
+                  <c:v>1350</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3069,6 +3091,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3080,16 +3103,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43342</c:v>
+                  <c:v>43349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43349</c:v>
+                  <c:v>43356</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43356</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43363</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3101,16 +3124,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1545</c:v>
+                  <c:v>1580</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1580</c:v>
+                  <c:v>1583</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1583</c:v>
+                  <c:v>1569</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1569</c:v>
+                  <c:v>1575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3127,11 +3150,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="778042192"/>
-        <c:axId val="778054160"/>
+        <c:axId val="-1031247600"/>
+        <c:axId val="-1031247056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="778042192"/>
+        <c:axId val="-1031247600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3171,7 +3194,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="778054160"/>
+        <c:crossAx val="-1031247056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -3179,7 +3202,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="778054160"/>
+        <c:axId val="-1031247056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3227,12 +3250,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="778042192"/>
+        <c:crossAx val="-1031247600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="778055248"/>
+        <c:axId val="-1031245968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3266,12 +3289,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="778044368"/>
+        <c:crossAx val="-1031244880"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="778044368"/>
+        <c:axId val="-1031244880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3281,7 +3304,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="778055248"/>
+        <c:crossAx val="-1031245968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3297,6 +3320,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3401,6 +3425,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3521,6 +3546,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3532,16 +3558,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43342</c:v>
+                  <c:v>43349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43349</c:v>
+                  <c:v>43356</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43356</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43363</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3553,16 +3579,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.3276</c:v>
+                  <c:v>0.31219999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31219999999999998</c:v>
+                  <c:v>0.2034</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2034</c:v>
+                  <c:v>0.2019</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2019</c:v>
+                  <c:v>9.4299999999999995E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3655,6 +3681,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3666,16 +3693,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43342</c:v>
+                  <c:v>43349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43349</c:v>
+                  <c:v>43356</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43356</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43363</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3687,16 +3714,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.28360000000000002</c:v>
+                  <c:v>0.3357</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3357</c:v>
+                  <c:v>0.27800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27800000000000002</c:v>
+                  <c:v>0.1918</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1918</c:v>
+                  <c:v>0.159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3711,8 +3738,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="343056800"/>
-        <c:axId val="343056256"/>
+        <c:axId val="-963717648"/>
+        <c:axId val="-1135213024"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3821,6 +3848,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3832,16 +3860,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43342</c:v>
+                  <c:v>43349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43349</c:v>
+                  <c:v>43356</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43356</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43363</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3853,16 +3881,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1447</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1425</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1447</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1425</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>1447</c:v>
+                  <c:v>1405</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3973,6 +4001,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3984,16 +4013,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43342</c:v>
+                  <c:v>43349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43349</c:v>
+                  <c:v>43356</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43356</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43363</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4005,16 +4034,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1434</c:v>
+                  <c:v>1455</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1455</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1450</c:v>
+                  <c:v>1466</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1466</c:v>
+                  <c:v>1454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4031,11 +4060,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="343054624"/>
-        <c:axId val="343055712"/>
+        <c:axId val="-1031243792"/>
+        <c:axId val="-1031243248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="343054624"/>
+        <c:axId val="-1031243792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4075,7 +4104,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343055712"/>
+        <c:crossAx val="-1031243248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -4083,7 +4112,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="343055712"/>
+        <c:axId val="-1031243248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4131,12 +4160,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343054624"/>
+        <c:crossAx val="-1031243792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="343056256"/>
+        <c:axId val="-1135213024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4170,12 +4199,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343056800"/>
+        <c:crossAx val="-963717648"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="343056800"/>
+        <c:axId val="-963717648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4185,7 +4214,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="343056256"/>
+        <c:crossAx val="-1135213024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -4202,6 +4231,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6947,7 +6977,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J8:L13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -7302,10 +7332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB15"/>
+  <dimension ref="A1:BB17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AX19" sqref="AX19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7359,144 +7389,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="40"/>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="51">
+      <c r="E1" s="51"/>
+      <c r="F1" s="52">
         <v>2014</v>
       </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="46">
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="47">
         <v>2015</v>
       </c>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="46"/>
-      <c r="AP1" s="46"/>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="46"/>
-      <c r="AU1" s="46"/>
-      <c r="AV1" s="46"/>
-      <c r="AW1" s="46"/>
-      <c r="AX1" s="46"/>
-      <c r="AY1" s="46"/>
-      <c r="AZ1" s="46"/>
-      <c r="BA1" s="46"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="47"/>
+      <c r="AQ1" s="47"/>
+      <c r="AR1" s="47"/>
+      <c r="AS1" s="47"/>
+      <c r="AT1" s="47"/>
+      <c r="AU1" s="47"/>
+      <c r="AV1" s="47"/>
+      <c r="AW1" s="47"/>
+      <c r="AX1" s="47"/>
+      <c r="AY1" s="47"/>
+      <c r="AZ1" s="47"/>
+      <c r="BA1" s="47"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="A2" s="48"/>
-      <c r="B2" s="47"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="40"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="52" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="53" t="s">
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="54" t="s">
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="55" t="s">
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="52" t="s">
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="53" t="s">
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="53"/>
-      <c r="AP2" s="54" t="s">
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="54"/>
+      <c r="AP2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="AQ2" s="54"/>
-      <c r="AR2" s="54"/>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="54"/>
-      <c r="AU2" s="54"/>
-      <c r="AV2" s="55" t="s">
+      <c r="AQ2" s="55"/>
+      <c r="AR2" s="55"/>
+      <c r="AS2" s="55"/>
+      <c r="AT2" s="55"/>
+      <c r="AU2" s="55"/>
+      <c r="AV2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="AW2" s="55"/>
-      <c r="AX2" s="55"/>
-      <c r="AY2" s="55"/>
-      <c r="AZ2" s="55"/>
-      <c r="BA2" s="55"/>
+      <c r="AW2" s="56"/>
+      <c r="AX2" s="56"/>
+      <c r="AY2" s="56"/>
+      <c r="AZ2" s="56"/>
+      <c r="BA2" s="56"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="A3" s="48"/>
-      <c r="B3" s="47"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="40" t="s">
         <v>50</v>
       </c>
@@ -9759,6 +9789,181 @@
         <f t="shared" si="55"/>
         <v>14731794</v>
       </c>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>43370</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="40">
+        <f t="shared" ref="C16:C17" si="56">J16+P16+V16+AB16+AH16+AN16+AT16+AZ16</f>
+        <v>85909713</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" ref="D16:D17" si="57">+K16+Q16+W16+AC16</f>
+        <v>5831767</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" ref="E16:E17" si="58">AI16+AO16+AU16+BA16</f>
+        <v>83058020</v>
+      </c>
+      <c r="F16" s="7">
+        <v>31391100</v>
+      </c>
+      <c r="G16">
+        <v>87010</v>
+      </c>
+      <c r="H16">
+        <v>1405</v>
+      </c>
+      <c r="I16" s="12">
+        <v>9.4299999999999995E-2</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" ref="J16" si="59">J15+G16</f>
+        <v>25810338</v>
+      </c>
+      <c r="K16" s="6">
+        <f t="shared" ref="K16" si="60">F16-J16</f>
+        <v>5580762</v>
+      </c>
+      <c r="L16" s="7">
+        <v>12382000</v>
+      </c>
+      <c r="M16" s="4">
+        <v>236861</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1538</v>
+      </c>
+      <c r="O16" s="12">
+        <v>0.99119999999999997</v>
+      </c>
+      <c r="P16" s="5">
+        <f t="shared" ref="P16" si="61">P15+M16</f>
+        <v>12301128</v>
+      </c>
+      <c r="Q16" s="6">
+        <f t="shared" ref="Q16" si="62">L16-P16</f>
+        <v>80872</v>
+      </c>
+      <c r="R16" s="7">
+        <v>3318700</v>
+      </c>
+      <c r="V16" s="5">
+        <f t="shared" ref="V16" si="63">V15+S16</f>
+        <v>3300610</v>
+      </c>
+      <c r="W16" s="6">
+        <f t="shared" ref="W16" si="64">R16-V16</f>
+        <v>18090</v>
+      </c>
+      <c r="X16" s="7">
+        <v>5277700</v>
+      </c>
+      <c r="Y16">
+        <v>5573</v>
+      </c>
+      <c r="Z16">
+        <v>1350</v>
+      </c>
+      <c r="AA16" s="12">
+        <v>0.1673</v>
+      </c>
+      <c r="AB16" s="5">
+        <f t="shared" ref="AB16" si="65">AB15+Y16</f>
+        <v>5125657</v>
+      </c>
+      <c r="AC16" s="9">
+        <f t="shared" ref="AC16" si="66">X16-AB16</f>
+        <v>152043</v>
+      </c>
+      <c r="AD16" s="10">
+        <v>45620000</v>
+      </c>
+      <c r="AE16">
+        <v>488459</v>
+      </c>
+      <c r="AF16">
+        <v>1454</v>
+      </c>
+      <c r="AG16" s="12">
+        <v>0.159</v>
+      </c>
+      <c r="AH16" s="8">
+        <f t="shared" ref="AH16" si="67">AH15+AE16</f>
+        <v>7545525</v>
+      </c>
+      <c r="AI16" s="6">
+        <f t="shared" ref="AI16" si="68">AD16-AH16</f>
+        <v>38074475</v>
+      </c>
+      <c r="AJ16" s="7">
+        <v>44510000</v>
+      </c>
+      <c r="AK16" s="4">
+        <v>1605145</v>
+      </c>
+      <c r="AL16" s="4">
+        <v>1528</v>
+      </c>
+      <c r="AM16" s="12">
+        <v>0.71709999999999996</v>
+      </c>
+      <c r="AN16" s="8">
+        <f t="shared" ref="AN16" si="69">AN15+AK16</f>
+        <v>19607929</v>
+      </c>
+      <c r="AO16" s="6">
+        <f t="shared" ref="AO16" si="70">AJ16-AN16</f>
+        <v>24902071</v>
+      </c>
+      <c r="AP16" s="7">
+        <v>11240000</v>
+      </c>
+      <c r="AQ16" s="4">
+        <v>481394</v>
+      </c>
+      <c r="AR16" s="4">
+        <v>1602</v>
+      </c>
+      <c r="AS16" s="12">
+        <v>0.99550000000000005</v>
+      </c>
+      <c r="AT16" s="5">
+        <f t="shared" ref="AT16" si="71">AT15+AQ16</f>
+        <v>5315485</v>
+      </c>
+      <c r="AU16" s="6">
+        <f t="shared" ref="AU16" si="72">AP16-AT16</f>
+        <v>5924515</v>
+      </c>
+      <c r="AV16" s="7">
+        <v>21060000</v>
+      </c>
+      <c r="AW16" s="4">
+        <v>574835</v>
+      </c>
+      <c r="AX16" s="4">
+        <v>1575</v>
+      </c>
+      <c r="AY16" s="12">
+        <v>0.60070000000000001</v>
+      </c>
+      <c r="AZ16" s="5">
+        <f t="shared" ref="AZ16" si="73">AZ15+AW16</f>
+        <v>6903041</v>
+      </c>
+      <c r="BA16" s="6">
+        <f t="shared" ref="BA16" si="74">AV16-AZ16</f>
+        <v>14156959</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17" s="46"/>
+      <c r="C17" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -9786,7 +9991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -10030,7 +10235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E10:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -10050,11 +10255,11 @@
     <row r="11" spans="5:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F11" s="14">
         <f>INDEX(detail!A4:A99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>43363</v>
+        <v>43370</v>
       </c>
       <c r="G11" s="15" t="str">
         <f>INDEX(detail!B4:B99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>第24周</v>
+        <v>第25周</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>17</v>
@@ -10078,9 +10283,9 @@
     <row r="12" spans="5:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E12">
         <f>I12+I17</f>
-        <v>773429</v>
-      </c>
-      <c r="F12" s="60">
+        <v>575469</v>
+      </c>
+      <c r="F12" s="61">
         <v>2014</v>
       </c>
       <c r="G12" s="18" t="s">
@@ -10092,31 +10297,31 @@
       </c>
       <c r="I12" s="18">
         <f>INDEX(detail!G4:G99999,COUNTA(detail!$B4:$B99999))</f>
-        <v>234748</v>
+        <v>87010</v>
       </c>
       <c r="J12" s="18">
         <f>INDEX(detail!H4:H99999,COUNTA(detail!$B4:$B99999))</f>
-        <v>1447</v>
+        <v>1405</v>
       </c>
       <c r="K12" s="20">
         <f>INDEX(detail!I4:I99999,COUNTA(detail!$B4:$B99999))</f>
-        <v>0.2019</v>
+        <v>9.4299999999999995E-2</v>
       </c>
       <c r="L12" s="19">
         <f>INDEX(detail!J4:J99999,COUNTA(detail!$B4:$B99999))/10000</f>
-        <v>2572.3328000000001</v>
+        <v>2581.0338000000002</v>
       </c>
       <c r="M12" s="21">
         <f>INDEX(detail!K4:K99999,COUNTA(detail!$B4:$B99999))/10000</f>
-        <v>566.77719999999999</v>
+        <v>558.07619999999997</v>
       </c>
     </row>
     <row r="13" spans="5:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E13">
         <f>I13+I18</f>
-        <v>1965815</v>
-      </c>
-      <c r="F13" s="60"/>
+        <v>1842006</v>
+      </c>
+      <c r="F13" s="61"/>
       <c r="G13" s="18" t="s">
         <v>2</v>
       </c>
@@ -10126,31 +10331,31 @@
       </c>
       <c r="I13" s="18">
         <f>INDEX(detail!M4:M99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>202371</v>
+        <v>236861</v>
       </c>
       <c r="J13" s="18">
         <f>INDEX(detail!N4:N99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1525</v>
+        <v>1538</v>
       </c>
       <c r="K13" s="20">
         <f>INDEX(detail!O4:O99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>0.9829</v>
+        <v>0.99119999999999997</v>
       </c>
       <c r="L13" s="19">
         <f>INDEX(detail!P4:P99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>1206.4267</v>
+        <v>1230.1128000000001</v>
       </c>
       <c r="M13" s="21">
         <f>INDEX(detail!Q4:Q99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>31.773299999999999</v>
+        <v>8.0871999999999993</v>
       </c>
     </row>
     <row r="14" spans="5:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E14">
         <f>I14+I19</f>
-        <v>489693</v>
-      </c>
-      <c r="F14" s="60"/>
+        <v>481394</v>
+      </c>
+      <c r="F14" s="61"/>
       <c r="G14" s="18" t="s">
         <v>3</v>
       </c>
@@ -10160,15 +10365,15 @@
       </c>
       <c r="I14" s="18">
         <f>INDEX(detail!S4:S99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>48369</v>
+        <v>0</v>
       </c>
       <c r="J14" s="18">
         <f>INDEX(detail!T4:T99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1646</v>
+        <v>0</v>
       </c>
       <c r="K14" s="20">
         <f>INDEX(detail!U4:U99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="19">
         <f>INDEX(detail!V4:V99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
@@ -10182,9 +10387,9 @@
     <row r="15" spans="5:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E15">
         <f>I15+I20</f>
-        <v>544280</v>
-      </c>
-      <c r="F15" s="60"/>
+        <v>580408</v>
+      </c>
+      <c r="F15" s="61"/>
       <c r="G15" s="18" t="s">
         <v>16</v>
       </c>
@@ -10194,51 +10399,51 @@
       </c>
       <c r="I15" s="18">
         <f>INDEX(detail!Y4:Y99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>90271</v>
+        <v>5573</v>
       </c>
       <c r="J15" s="18">
         <f>INDEX(detail!Z4:Z99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1589</v>
+        <v>1350</v>
       </c>
       <c r="K15" s="20">
         <f>INDEX(detail!AA4:AA99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>0.52729999999999999</v>
+        <v>0.1673</v>
       </c>
       <c r="L15" s="19">
         <f>INDEX(detail!AB4:AB99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>512.00840000000005</v>
+        <v>512.56569999999999</v>
       </c>
       <c r="M15" s="21">
         <f>INDEX(detail!AC4:AC99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>15.7616</v>
+        <v>15.2043</v>
       </c>
     </row>
     <row r="16" spans="5:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F16" s="56" t="s">
+      <c r="F16" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="57"/>
+      <c r="G16" s="58"/>
       <c r="H16" s="22">
         <f>SUM(H12:H15)</f>
         <v>5236.9500000000007</v>
       </c>
       <c r="I16" s="23">
         <f t="shared" ref="I16:M16" si="0">SUM(I12:I15)</f>
-        <v>575759</v>
+        <v>329444</v>
       </c>
       <c r="J16" s="23"/>
       <c r="K16" s="24"/>
       <c r="L16" s="22">
         <f t="shared" si="0"/>
-        <v>4620.8288999999995</v>
+        <v>4653.7732999999998</v>
       </c>
       <c r="M16" s="25">
         <f t="shared" si="0"/>
-        <v>616.12109999999996</v>
+        <v>583.17669999999998</v>
       </c>
     </row>
     <row r="17" spans="6:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F17" s="60">
+      <c r="F17" s="61">
         <v>2015</v>
       </c>
       <c r="G17" s="18" t="s">
@@ -10250,27 +10455,27 @@
       </c>
       <c r="I17" s="18">
         <f>INDEX(detail!AE4:AE99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>538681</v>
+        <v>488459</v>
       </c>
       <c r="J17" s="18">
         <f>INDEX(detail!AF4:AF99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1466</v>
+        <v>1454</v>
       </c>
       <c r="K17" s="20">
         <f>INDEX(detail!AG4:AG99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>0.1918</v>
+        <v>0.159</v>
       </c>
       <c r="L17" s="19">
         <f>INDEX(detail!AH4:AH99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>705.70659999999998</v>
+        <v>754.55250000000001</v>
       </c>
       <c r="M17" s="21">
         <f>INDEX(detail!AI4:AI99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>3856.2934</v>
+        <v>3807.4475000000002</v>
       </c>
     </row>
     <row r="18" spans="6:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F18" s="60"/>
+      <c r="F18" s="61"/>
       <c r="G18" s="18" t="s">
         <v>2</v>
       </c>
@@ -10280,27 +10485,27 @@
       </c>
       <c r="I18" s="18">
         <f>INDEX(detail!AK4:AK99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1763444</v>
+        <v>1605145</v>
       </c>
       <c r="J18" s="18">
         <f>INDEX(detail!AL4:AL99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1538</v>
+        <v>1528</v>
       </c>
       <c r="K18" s="20">
         <f>INDEX(detail!AM4:AM99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>0.77280000000000004</v>
+        <v>0.71709999999999996</v>
       </c>
       <c r="L18" s="19">
         <f>INDEX(detail!AN4:AN99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>1800.2783999999999</v>
+        <v>1960.7928999999999</v>
       </c>
       <c r="M18" s="21">
         <f>INDEX(detail!AO4:AO99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>2650.7215999999999</v>
+        <v>2490.2071000000001</v>
       </c>
     </row>
     <row r="19" spans="6:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F19" s="60"/>
+      <c r="F19" s="61"/>
       <c r="G19" s="18" t="s">
         <v>3</v>
       </c>
@@ -10310,27 +10515,27 @@
       </c>
       <c r="I19" s="18">
         <f>INDEX(detail!AQ4:AQ99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>441324</v>
+        <v>481394</v>
       </c>
       <c r="J19" s="18">
         <f>INDEX(detail!AR4:AR99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1631</v>
+        <v>1602</v>
       </c>
       <c r="K19" s="20">
         <f>INDEX(detail!AS4:AS99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>0.98480000000000001</v>
+        <v>0.99550000000000005</v>
       </c>
       <c r="L19" s="19">
         <f>INDEX(detail!AT4:AT99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>483.40910000000002</v>
+        <v>531.54849999999999</v>
       </c>
       <c r="M19" s="21">
         <f>INDEX(detail!AU4:AU99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>640.59090000000003</v>
+        <v>592.45150000000001</v>
       </c>
     </row>
     <row r="20" spans="6:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F20" s="60"/>
+      <c r="F20" s="61"/>
       <c r="G20" s="18" t="s">
         <v>16</v>
       </c>
@@ -10340,71 +10545,71 @@
       </c>
       <c r="I20" s="18">
         <f>INDEX(detail!AW4:AW99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>454009</v>
+        <v>574835</v>
       </c>
       <c r="J20" s="18">
         <f>INDEX(detail!AX4:AX99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1569</v>
+        <v>1575</v>
       </c>
       <c r="K20" s="20">
         <f>INDEX(detail!AY4:AY99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>0.55320000000000003</v>
+        <v>0.60070000000000001</v>
       </c>
       <c r="L20" s="19">
         <f>INDEX(detail!AZ4:AZ99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>632.82060000000001</v>
+        <v>690.30409999999995</v>
       </c>
       <c r="M20" s="21">
         <f>INDEX(detail!BA4:BA99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>1473.1794</v>
+        <v>1415.6958999999999</v>
       </c>
     </row>
     <row r="21" spans="6:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F21" s="56" t="s">
+      <c r="F21" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="57"/>
+      <c r="G21" s="58"/>
       <c r="H21" s="22">
         <f>SUM(H17:H20)</f>
         <v>12243</v>
       </c>
       <c r="I21" s="23">
         <f t="shared" ref="I21:M21" si="1">SUM(I17:I20)</f>
-        <v>3197458</v>
+        <v>3149833</v>
       </c>
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
       <c r="L21" s="22">
         <f t="shared" si="1"/>
-        <v>3622.2146999999995</v>
+        <v>3937.1979999999999</v>
       </c>
       <c r="M21" s="25">
         <f t="shared" si="1"/>
-        <v>8620.7852999999996</v>
+        <v>8305.8019999999997</v>
       </c>
     </row>
     <row r="22" spans="6:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="58" t="s">
+      <c r="F22" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="59"/>
+      <c r="G22" s="60"/>
       <c r="H22" s="26">
         <f>H16+H21</f>
         <v>17479.95</v>
       </c>
       <c r="I22" s="27">
         <f t="shared" ref="I22:M22" si="2">I16+I21</f>
-        <v>3773217</v>
+        <v>3479277</v>
       </c>
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
       <c r="L22" s="26">
         <f t="shared" si="2"/>
-        <v>8243.0435999999991</v>
+        <v>8590.9712999999992</v>
       </c>
       <c r="M22" s="28">
         <f t="shared" si="2"/>
-        <v>9236.9063999999998</v>
+        <v>8888.9786999999997</v>
       </c>
     </row>
   </sheetData>

--- a/report/CornTempRes.xlsx
+++ b/report/CornTempRes.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="60">
   <si>
     <t>拍卖周</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,6 +251,12 @@
   </si>
   <si>
     <t>第25周</t>
+  </si>
+  <si>
+    <t>第26周</t>
+  </si>
+  <si>
+    <t>第27周</t>
   </si>
 </sst>
 </file>
@@ -494,7 +500,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -599,6 +605,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -787,51 +799,6 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>[0]!ts</c:f>
@@ -839,16 +806,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43349</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43356</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43363</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43370</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -860,16 +827,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.9829</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95540000000000003</c:v>
+                  <c:v>0.99119999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9829</c:v>
+                  <c:v>0.99990000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99119999999999997</c:v>
+                  <c:v>0.99990000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -922,51 +889,6 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>[0]!ts</c:f>
@@ -974,16 +896,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43349</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43356</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43363</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43370</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -995,16 +917,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.79510000000000003</c:v>
+                  <c:v>0.77280000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.75060000000000004</c:v>
+                  <c:v>0.71709999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77280000000000004</c:v>
+                  <c:v>0.74060000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.71709999999999996</c:v>
+                  <c:v>0.81259999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1019,8 +941,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1031249776"/>
-        <c:axId val="-1031254672"/>
+        <c:axId val="144270496"/>
+        <c:axId val="144269952"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1141,16 +1063,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43349</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43356</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43363</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43370</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1162,16 +1084,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1558</c:v>
+                  <c:v>1525</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1548</c:v>
+                  <c:v>1538</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1525</c:v>
+                  <c:v>1521</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1538</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1294,16 +1216,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43349</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43356</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43363</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43370</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1315,16 +1237,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1554</c:v>
+                  <c:v>1538</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1545</c:v>
+                  <c:v>1528</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1538</c:v>
+                  <c:v>1521</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1528</c:v>
+                  <c:v>1542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1341,11 +1263,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1031248144"/>
-        <c:axId val="-1031250320"/>
+        <c:axId val="144273216"/>
+        <c:axId val="144273760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1031248144"/>
+        <c:axId val="144273216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1385,7 +1307,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1031250320"/>
+        <c:crossAx val="144273760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1393,7 +1315,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1031250320"/>
+        <c:axId val="144273760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1441,12 +1363,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1031248144"/>
+        <c:crossAx val="144273216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1031254672"/>
+        <c:axId val="144269952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1480,12 +1402,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1031249776"/>
+        <c:crossAx val="144270496"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-1031249776"/>
+        <c:axId val="144270496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1495,7 +1417,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1031254672"/>
+        <c:crossAx val="144269952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1697,51 +1619,6 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>[0]!ts</c:f>
@@ -1749,16 +1626,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43349</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43356</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43363</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43370</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1769,10 +1646,13 @@
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="1">
+                <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1826,51 +1706,6 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>[0]!ts</c:f>
@@ -1878,16 +1713,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43349</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43356</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43363</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43370</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1899,16 +1734,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>0.98480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99550000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.99099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.98480000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.99550000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1923,8 +1758,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1031251408"/>
-        <c:axId val="-1031253040"/>
+        <c:axId val="144261248"/>
+        <c:axId val="144260704"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2045,16 +1880,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43349</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43356</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43363</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43370</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2065,11 +1900,14 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="1">
-                  <c:v>1650</c:v>
+                <c:pt idx="0">
+                  <c:v>1646</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1646</c:v>
+                  <c:v>1566</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2192,16 +2030,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43349</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43356</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43363</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43370</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2213,16 +2051,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1626</c:v>
+                  <c:v>1631</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1635</c:v>
+                  <c:v>1602</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1631</c:v>
+                  <c:v>1598</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1602</c:v>
+                  <c:v>1617</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2239,11 +2077,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1031239440"/>
-        <c:axId val="-1031254128"/>
+        <c:axId val="144274848"/>
+        <c:axId val="144275936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1031239440"/>
+        <c:axId val="144274848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2283,7 +2121,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1031254128"/>
+        <c:crossAx val="144275936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2291,7 +2129,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1031254128"/>
+        <c:axId val="144275936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2339,12 +2177,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1031239440"/>
+        <c:crossAx val="144274848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1031253040"/>
+        <c:axId val="144260704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2378,12 +2216,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1031251408"/>
+        <c:crossAx val="144261248"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1031251408"/>
+        <c:axId val="144261248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2393,7 +2231,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1031253040"/>
+        <c:crossAx val="144260704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2596,51 +2434,6 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>[0]!ts</c:f>
@@ -2648,16 +2441,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43349</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43356</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43363</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43370</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2669,16 +2462,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.7500000000000003E-2</c:v>
+                  <c:v>0.52729999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.58150000000000002</c:v>
+                  <c:v>0.1673</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.52729999999999999</c:v>
+                  <c:v>0.6744</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1673</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2731,51 +2524,6 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>[0]!ts</c:f>
@@ -2783,16 +2531,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43349</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43356</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43363</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43370</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2804,16 +2552,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.54239999999999999</c:v>
+                  <c:v>0.55320000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.53559999999999997</c:v>
+                  <c:v>0.60070000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.55320000000000003</c:v>
+                  <c:v>0.59940000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.60070000000000001</c:v>
+                  <c:v>0.68279999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2828,8 +2576,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1031244880"/>
-        <c:axId val="-1031245968"/>
+        <c:axId val="144268320"/>
+        <c:axId val="144267776"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2950,16 +2698,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43349</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43356</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43363</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43370</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2971,16 +2719,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1514</c:v>
+                  <c:v>1589</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1562</c:v>
+                  <c:v>1350</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1589</c:v>
+                  <c:v>1507</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1350</c:v>
+                  <c:v>1422</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3103,16 +2851,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43349</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43356</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43363</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43370</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3124,16 +2872,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1580</c:v>
+                  <c:v>1569</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1583</c:v>
+                  <c:v>1575</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1569</c:v>
+                  <c:v>1560</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1575</c:v>
+                  <c:v>1564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3150,11 +2898,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1031247600"/>
-        <c:axId val="-1031247056"/>
+        <c:axId val="144262880"/>
+        <c:axId val="144263968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1031247600"/>
+        <c:axId val="144262880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3194,7 +2942,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1031247056"/>
+        <c:crossAx val="144263968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -3202,7 +2950,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1031247056"/>
+        <c:axId val="144263968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3250,12 +2998,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1031247600"/>
+        <c:crossAx val="144262880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1031245968"/>
+        <c:axId val="144267776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3289,12 +3037,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1031244880"/>
+        <c:crossAx val="144268320"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-1031244880"/>
+        <c:axId val="144268320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3304,7 +3052,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1031245968"/>
+        <c:crossAx val="144267776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3506,51 +3254,6 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>[0]!ts</c:f>
@@ -3558,16 +3261,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43349</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43356</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43363</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43370</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3579,16 +3282,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.31219999999999998</c:v>
+                  <c:v>0.2019</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2034</c:v>
+                  <c:v>9.4299999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2019</c:v>
+                  <c:v>0.17180000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.4299999999999995E-2</c:v>
+                  <c:v>0.47410000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3641,51 +3344,6 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>[0]!ts</c:f>
@@ -3693,16 +3351,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43349</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43356</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43363</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43370</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3714,16 +3372,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.3357</c:v>
+                  <c:v>0.1918</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27800000000000002</c:v>
+                  <c:v>0.159</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1918</c:v>
+                  <c:v>0.16220000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.159</c:v>
+                  <c:v>0.20760000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3738,8 +3396,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-963717648"/>
-        <c:axId val="-1135213024"/>
+        <c:axId val="325148576"/>
+        <c:axId val="325145312"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3860,16 +3518,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43349</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43356</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43363</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43370</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3884,13 +3542,13 @@
                   <c:v>1447</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1425</c:v>
+                  <c:v>1405</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1447</c:v>
+                  <c:v>1419</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1405</c:v>
+                  <c:v>1424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4013,16 +3671,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43349</c:v>
+                  <c:v>43363</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43356</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43363</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43370</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4034,16 +3692,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1455</c:v>
+                  <c:v>1466</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1450</c:v>
+                  <c:v>1454</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1466</c:v>
+                  <c:v>1449</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1454</c:v>
+                  <c:v>1461</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4060,11 +3718,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1031243792"/>
-        <c:axId val="-1031243248"/>
+        <c:axId val="325145856"/>
+        <c:axId val="325146400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1031243792"/>
+        <c:axId val="325145856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4104,7 +3762,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1031243248"/>
+        <c:crossAx val="325146400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -4112,7 +3770,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1031243248"/>
+        <c:axId val="325146400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4160,12 +3818,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1031243792"/>
+        <c:crossAx val="325145856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1135213024"/>
+        <c:axId val="325145312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4199,12 +3857,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-963717648"/>
+        <c:crossAx val="325148576"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-963717648"/>
+        <c:axId val="325148576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4214,7 +3872,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1135213024"/>
+        <c:crossAx val="325145312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -7332,15 +6990,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB17"/>
+  <dimension ref="A1:BB19"/>
   <sheetViews>
-    <sheetView topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AX19" sqref="AX19"/>
+    <sheetView topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AZ17" sqref="AZ17:BA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="41" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="8" bestFit="1" customWidth="1"/>
@@ -7389,144 +7047,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="50" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="40"/>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52">
+      <c r="E1" s="53"/>
+      <c r="F1" s="54">
         <v>2014</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="47">
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="49">
         <v>2015</v>
       </c>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="47"/>
-      <c r="AU1" s="47"/>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="47"/>
-      <c r="AX1" s="47"/>
-      <c r="AY1" s="47"/>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="47"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="49"/>
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="49"/>
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="49"/>
+      <c r="AU1" s="49"/>
+      <c r="AV1" s="49"/>
+      <c r="AW1" s="49"/>
+      <c r="AX1" s="49"/>
+      <c r="AY1" s="49"/>
+      <c r="AZ1" s="49"/>
+      <c r="BA1" s="49"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="A2" s="49"/>
-      <c r="B2" s="48"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="40"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="53" t="s">
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="54" t="s">
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="55" t="s">
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="56" t="s">
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="53" t="s">
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="54" t="s">
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="54"/>
-      <c r="AP2" s="55" t="s">
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="AQ2" s="55"/>
-      <c r="AR2" s="55"/>
-      <c r="AS2" s="55"/>
-      <c r="AT2" s="55"/>
-      <c r="AU2" s="55"/>
-      <c r="AV2" s="56" t="s">
+      <c r="AQ2" s="57"/>
+      <c r="AR2" s="57"/>
+      <c r="AS2" s="57"/>
+      <c r="AT2" s="57"/>
+      <c r="AU2" s="57"/>
+      <c r="AV2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="AW2" s="56"/>
-      <c r="AX2" s="56"/>
-      <c r="AY2" s="56"/>
-      <c r="AZ2" s="56"/>
-      <c r="BA2" s="56"/>
+      <c r="AW2" s="58"/>
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
+      <c r="BA2" s="58"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="A3" s="49"/>
-      <c r="B3" s="48"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="40" t="s">
         <v>50</v>
       </c>
@@ -7694,7 +7352,7 @@
       </c>
       <c r="D4" s="8">
         <f t="shared" ref="D4:D9" si="0">+K4+Q4+W4+AC4</f>
-        <v>12136990</v>
+        <v>12316990</v>
       </c>
       <c r="E4" s="8">
         <f t="shared" ref="E4:E9" si="1">AI4+AO4+AU4+BA4</f>
@@ -7720,7 +7378,7 @@
         <v>10559384</v>
       </c>
       <c r="L4" s="7">
-        <v>12382000</v>
+        <v>12522000</v>
       </c>
       <c r="M4" s="4">
         <v>143967</v>
@@ -7736,10 +7394,10 @@
       </c>
       <c r="Q4" s="6">
         <f t="shared" ref="Q4:Q9" si="3">L4-P4</f>
-        <v>1061432</v>
+        <v>1201432</v>
       </c>
       <c r="R4" s="7">
-        <v>3318700</v>
+        <v>3358700</v>
       </c>
       <c r="S4" s="4">
         <v>5000</v>
@@ -7755,7 +7413,7 @@
       </c>
       <c r="W4" s="6">
         <f t="shared" ref="W4:W9" si="4">R4-V4</f>
-        <v>134869</v>
+        <v>174869</v>
       </c>
       <c r="X4" s="7">
         <v>5277700</v>
@@ -7866,7 +7524,7 @@
       </c>
       <c r="D5" s="8">
         <f t="shared" si="0"/>
-        <v>11238035</v>
+        <v>11418035</v>
       </c>
       <c r="E5" s="8">
         <f t="shared" si="1"/>
@@ -7893,7 +7551,7 @@
         <v>9819754</v>
       </c>
       <c r="L5" s="7">
-        <v>12382000</v>
+        <v>12522000</v>
       </c>
       <c r="M5" s="4">
         <v>119793</v>
@@ -7910,10 +7568,10 @@
       </c>
       <c r="Q5" s="6">
         <f t="shared" si="3"/>
-        <v>941639</v>
+        <v>1081639</v>
       </c>
       <c r="R5" s="7">
-        <v>3318700</v>
+        <v>3358700</v>
       </c>
       <c r="S5" s="4">
         <v>6280</v>
@@ -7930,7 +7588,7 @@
       </c>
       <c r="W5" s="6">
         <f t="shared" si="4"/>
-        <v>128589</v>
+        <v>168589</v>
       </c>
       <c r="X5" s="7">
         <v>5277700</v>
@@ -8046,7 +7704,7 @@
       </c>
       <c r="D6" s="8">
         <f t="shared" si="0"/>
-        <v>10523120</v>
+        <v>10703120</v>
       </c>
       <c r="E6" s="8">
         <f t="shared" si="1"/>
@@ -8073,7 +7731,7 @@
         <v>9159512</v>
       </c>
       <c r="L6" s="7">
-        <v>12382000</v>
+        <v>12522000</v>
       </c>
       <c r="M6" s="4">
         <v>27000</v>
@@ -8090,10 +7748,10 @@
       </c>
       <c r="Q6" s="6">
         <f t="shared" si="3"/>
-        <v>914639</v>
+        <v>1054639</v>
       </c>
       <c r="R6" s="7">
-        <v>3318700</v>
+        <v>3358700</v>
       </c>
       <c r="S6" s="4">
         <v>17565</v>
@@ -8110,7 +7768,7 @@
       </c>
       <c r="W6" s="6">
         <f t="shared" si="4"/>
-        <v>111024</v>
+        <v>151024</v>
       </c>
       <c r="X6" s="7">
         <v>5277700</v>
@@ -8226,7 +7884,7 @@
       </c>
       <c r="D7" s="8">
         <f t="shared" si="0"/>
-        <v>9863021</v>
+        <v>10043021</v>
       </c>
       <c r="E7" s="8">
         <f t="shared" si="1"/>
@@ -8253,7 +7911,7 @@
         <v>8549850</v>
       </c>
       <c r="L7" s="7">
-        <v>12382000</v>
+        <v>12522000</v>
       </c>
       <c r="M7" s="4">
         <v>26786</v>
@@ -8270,10 +7928,10 @@
       </c>
       <c r="Q7" s="6">
         <f t="shared" si="3"/>
-        <v>887853</v>
+        <v>1027853</v>
       </c>
       <c r="R7" s="7">
-        <v>3318700</v>
+        <v>3358700</v>
       </c>
       <c r="S7" s="4">
         <v>14708</v>
@@ -8290,7 +7948,7 @@
       </c>
       <c r="W7" s="6">
         <f t="shared" si="4"/>
-        <v>96316</v>
+        <v>136316</v>
       </c>
       <c r="X7" s="7">
         <v>5277700</v>
@@ -8406,7 +8064,7 @@
       </c>
       <c r="D8" s="8">
         <f t="shared" si="0"/>
-        <v>9253211</v>
+        <v>9433211</v>
       </c>
       <c r="E8" s="8">
         <f t="shared" si="1"/>
@@ -8433,7 +8091,7 @@
         <v>7966234</v>
       </c>
       <c r="L8" s="7">
-        <v>12382000</v>
+        <v>12522000</v>
       </c>
       <c r="M8" s="4">
         <v>4001</v>
@@ -8450,10 +8108,10 @@
       </c>
       <c r="Q8" s="6">
         <f t="shared" si="3"/>
-        <v>883852</v>
+        <v>1023852</v>
       </c>
       <c r="R8" s="7">
-        <v>3318700</v>
+        <v>3358700</v>
       </c>
       <c r="S8" s="4">
         <v>10451</v>
@@ -8470,7 +8128,7 @@
       </c>
       <c r="W8" s="6">
         <f t="shared" si="4"/>
-        <v>85865</v>
+        <v>125865</v>
       </c>
       <c r="X8" s="7">
         <v>5277700</v>
@@ -8586,7 +8244,7 @@
       </c>
       <c r="D9" s="8">
         <f t="shared" si="0"/>
-        <v>8796443</v>
+        <v>8976443</v>
       </c>
       <c r="E9" s="8">
         <f t="shared" si="1"/>
@@ -8613,7 +8271,7 @@
         <v>7539006</v>
       </c>
       <c r="L9" s="7">
-        <v>12382000</v>
+        <v>12522000</v>
       </c>
       <c r="M9" s="4">
         <v>22623</v>
@@ -8630,10 +8288,10 @@
       </c>
       <c r="Q9" s="6">
         <f t="shared" si="3"/>
-        <v>861229</v>
+        <v>1001229</v>
       </c>
       <c r="R9" s="7">
-        <v>3318700</v>
+        <v>3358700</v>
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
@@ -8643,7 +8301,7 @@
       </c>
       <c r="W9" s="6">
         <f t="shared" si="4"/>
-        <v>85865</v>
+        <v>125865</v>
       </c>
       <c r="X9" s="7">
         <v>5277700</v>
@@ -8759,7 +8417,7 @@
       </c>
       <c r="D10" s="8">
         <f t="shared" ref="D10:D12" si="19">+K10+Q10+W10+AC10</f>
-        <v>8379431</v>
+        <v>8559431</v>
       </c>
       <c r="E10" s="8">
         <f t="shared" ref="E10:E12" si="20">AI10+AO10+AU10+BA10</f>
@@ -8786,7 +8444,7 @@
         <v>7177503</v>
       </c>
       <c r="L10" s="7">
-        <v>12382000</v>
+        <v>12522000</v>
       </c>
       <c r="M10" s="4">
         <v>35094</v>
@@ -8803,10 +8461,10 @@
       </c>
       <c r="Q10" s="6">
         <f t="shared" ref="Q10:Q12" si="22">L10-P10</f>
-        <v>826135</v>
+        <v>966135</v>
       </c>
       <c r="R10" s="7">
-        <v>3318700</v>
+        <v>3358700</v>
       </c>
       <c r="S10" s="4">
         <v>9406</v>
@@ -8823,7 +8481,7 @@
       </c>
       <c r="W10" s="6">
         <f t="shared" ref="W10:W12" si="23">R10-V10</f>
-        <v>76459</v>
+        <v>116459</v>
       </c>
       <c r="X10" s="7">
         <v>5277700</v>
@@ -8939,7 +8597,7 @@
       </c>
       <c r="D11" s="8">
         <f t="shared" si="19"/>
-        <v>8045366</v>
+        <v>8225366</v>
       </c>
       <c r="E11" s="8">
         <f t="shared" si="20"/>
@@ -8966,7 +8624,7 @@
         <v>6898396</v>
       </c>
       <c r="L11" s="7">
-        <v>12382000</v>
+        <v>12522000</v>
       </c>
       <c r="M11" s="4">
         <v>54958</v>
@@ -8983,10 +8641,10 @@
       </c>
       <c r="Q11" s="6">
         <f t="shared" si="22"/>
-        <v>771177</v>
+        <v>911177</v>
       </c>
       <c r="R11" s="7">
-        <v>3318700</v>
+        <v>3358700</v>
       </c>
       <c r="V11" s="5">
         <f t="shared" ref="V11:V12" si="35">V10+S11</f>
@@ -8994,7 +8652,7 @@
       </c>
       <c r="W11" s="6">
         <f t="shared" si="23"/>
-        <v>76459</v>
+        <v>116459</v>
       </c>
       <c r="X11" s="7">
         <v>5277700</v>
@@ -9101,7 +8759,7 @@
       </c>
       <c r="D12" s="8">
         <f t="shared" si="19"/>
-        <v>7579372</v>
+        <v>7759372</v>
       </c>
       <c r="E12" s="8">
         <f t="shared" si="20"/>
@@ -9128,7 +8786,7 @@
         <v>6477852</v>
       </c>
       <c r="L12" s="7">
-        <v>12382000</v>
+        <v>12522000</v>
       </c>
       <c r="M12" s="4">
         <v>40648</v>
@@ -9145,10 +8803,10 @@
       </c>
       <c r="Q12" s="6">
         <f t="shared" si="22"/>
-        <v>730529</v>
+        <v>870529</v>
       </c>
       <c r="R12" s="7">
-        <v>3318700</v>
+        <v>3358700</v>
       </c>
       <c r="V12" s="5">
         <f t="shared" si="35"/>
@@ -9156,7 +8814,7 @@
       </c>
       <c r="W12" s="6">
         <f t="shared" si="23"/>
-        <v>76459</v>
+        <v>116459</v>
       </c>
       <c r="X12" s="7">
         <v>5277700</v>
@@ -9272,7 +8930,7 @@
       </c>
       <c r="D13" s="8">
         <f t="shared" ref="D13:D15" si="38">+K13+Q13+W13+AC13</f>
-        <v>7117193</v>
+        <v>7297193</v>
       </c>
       <c r="E13" s="8">
         <f t="shared" ref="E13:E15" si="39">AI13+AO13+AU13+BA13</f>
@@ -9299,7 +8957,7 @@
         <v>6132452</v>
       </c>
       <c r="L13" s="7">
-        <v>12382000</v>
+        <v>12522000</v>
       </c>
       <c r="M13" s="4">
         <v>107935</v>
@@ -9316,10 +8974,10 @@
       </c>
       <c r="Q13" s="6">
         <f t="shared" ref="Q13:Q15" si="43">L13-P13</f>
-        <v>622594</v>
+        <v>762594</v>
       </c>
       <c r="R13" s="7">
-        <v>3318700</v>
+        <v>3358700</v>
       </c>
       <c r="V13" s="5">
         <f t="shared" ref="V13:V15" si="44">V12+S13</f>
@@ -9327,7 +8985,7 @@
       </c>
       <c r="W13" s="6">
         <f t="shared" ref="W13:W15" si="45">R13-V13</f>
-        <v>76459</v>
+        <v>116459</v>
       </c>
       <c r="X13" s="7">
         <v>5277700</v>
@@ -9443,7 +9101,7 @@
       </c>
       <c r="D14" s="8">
         <f t="shared" si="38"/>
-        <v>6736970</v>
+        <v>6916970</v>
       </c>
       <c r="E14" s="8">
         <f t="shared" si="39"/>
@@ -9470,7 +9128,7 @@
         <v>5902520</v>
       </c>
       <c r="L14" s="7">
-        <v>12382000</v>
+        <v>12522000</v>
       </c>
       <c r="M14" s="4">
         <v>102490</v>
@@ -9487,10 +9145,10 @@
       </c>
       <c r="Q14" s="6">
         <f t="shared" si="43"/>
-        <v>520104</v>
+        <v>660104</v>
       </c>
       <c r="R14" s="7">
-        <v>3318700</v>
+        <v>3358700</v>
       </c>
       <c r="S14">
         <v>10000</v>
@@ -9507,7 +9165,7 @@
       </c>
       <c r="W14" s="6">
         <f t="shared" si="45"/>
-        <v>66459</v>
+        <v>106459</v>
       </c>
       <c r="X14" s="7">
         <v>5277700</v>
@@ -9623,7 +9281,7 @@
       </c>
       <c r="D15" s="8">
         <f t="shared" si="38"/>
-        <v>6161211</v>
+        <v>6341211</v>
       </c>
       <c r="E15" s="8">
         <f t="shared" si="39"/>
@@ -9650,7 +9308,7 @@
         <v>5667772</v>
       </c>
       <c r="L15" s="7">
-        <v>12382000</v>
+        <v>12522000</v>
       </c>
       <c r="M15" s="4">
         <v>202371</v>
@@ -9667,10 +9325,10 @@
       </c>
       <c r="Q15" s="6">
         <f t="shared" si="43"/>
-        <v>317733</v>
+        <v>457733</v>
       </c>
       <c r="R15" s="7">
-        <v>3318700</v>
+        <v>3358700</v>
       </c>
       <c r="S15">
         <v>48369</v>
@@ -9687,7 +9345,7 @@
       </c>
       <c r="W15" s="6">
         <f t="shared" si="45"/>
-        <v>18090</v>
+        <v>58090</v>
       </c>
       <c r="X15" s="7">
         <v>5277700</v>
@@ -9803,7 +9461,7 @@
       </c>
       <c r="D16" s="8">
         <f t="shared" ref="D16:D17" si="57">+K16+Q16+W16+AC16</f>
-        <v>5831767</v>
+        <v>6011767</v>
       </c>
       <c r="E16" s="8">
         <f t="shared" ref="E16:E17" si="58">AI16+AO16+AU16+BA16</f>
@@ -9822,15 +9480,15 @@
         <v>9.4299999999999995E-2</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" ref="J16" si="59">J15+G16</f>
+        <f t="shared" ref="J16:J17" si="59">J15+G16</f>
         <v>25810338</v>
       </c>
       <c r="K16" s="6">
-        <f t="shared" ref="K16" si="60">F16-J16</f>
+        <f t="shared" ref="K16:K17" si="60">F16-J16</f>
         <v>5580762</v>
       </c>
       <c r="L16" s="7">
-        <v>12382000</v>
+        <v>12522000</v>
       </c>
       <c r="M16" s="4">
         <v>236861</v>
@@ -9842,23 +9500,23 @@
         <v>0.99119999999999997</v>
       </c>
       <c r="P16" s="5">
-        <f t="shared" ref="P16" si="61">P15+M16</f>
+        <f t="shared" ref="P16:P17" si="61">P15+M16</f>
         <v>12301128</v>
       </c>
       <c r="Q16" s="6">
-        <f t="shared" ref="Q16" si="62">L16-P16</f>
-        <v>80872</v>
+        <f t="shared" ref="Q16:Q17" si="62">L16-P16</f>
+        <v>220872</v>
       </c>
       <c r="R16" s="7">
-        <v>3318700</v>
+        <v>3358700</v>
       </c>
       <c r="V16" s="5">
-        <f t="shared" ref="V16" si="63">V15+S16</f>
+        <f t="shared" ref="V16:V17" si="63">V15+S16</f>
         <v>3300610</v>
       </c>
       <c r="W16" s="6">
-        <f t="shared" ref="W16" si="64">R16-V16</f>
-        <v>18090</v>
+        <f t="shared" ref="W16:W17" si="64">R16-V16</f>
+        <v>58090</v>
       </c>
       <c r="X16" s="7">
         <v>5277700</v>
@@ -9873,11 +9531,11 @@
         <v>0.1673</v>
       </c>
       <c r="AB16" s="5">
-        <f t="shared" ref="AB16" si="65">AB15+Y16</f>
+        <f t="shared" ref="AB16:AB17" si="65">AB15+Y16</f>
         <v>5125657</v>
       </c>
       <c r="AC16" s="9">
-        <f t="shared" ref="AC16" si="66">X16-AB16</f>
+        <f t="shared" ref="AC16:AC17" si="66">X16-AB16</f>
         <v>152043</v>
       </c>
       <c r="AD16" s="10">
@@ -9893,11 +9551,11 @@
         <v>0.159</v>
       </c>
       <c r="AH16" s="8">
-        <f t="shared" ref="AH16" si="67">AH15+AE16</f>
+        <f t="shared" ref="AH16:AH17" si="67">AH15+AE16</f>
         <v>7545525</v>
       </c>
       <c r="AI16" s="6">
-        <f t="shared" ref="AI16" si="68">AD16-AH16</f>
+        <f t="shared" ref="AI16:AI17" si="68">AD16-AH16</f>
         <v>38074475</v>
       </c>
       <c r="AJ16" s="7">
@@ -9913,11 +9571,11 @@
         <v>0.71709999999999996</v>
       </c>
       <c r="AN16" s="8">
-        <f t="shared" ref="AN16" si="69">AN15+AK16</f>
+        <f t="shared" ref="AN16:AN17" si="69">AN15+AK16</f>
         <v>19607929</v>
       </c>
       <c r="AO16" s="6">
-        <f t="shared" ref="AO16" si="70">AJ16-AN16</f>
+        <f t="shared" ref="AO16:AO17" si="70">AJ16-AN16</f>
         <v>24902071</v>
       </c>
       <c r="AP16" s="7">
@@ -9933,11 +9591,11 @@
         <v>0.99550000000000005</v>
       </c>
       <c r="AT16" s="5">
-        <f t="shared" ref="AT16" si="71">AT15+AQ16</f>
+        <f t="shared" ref="AT16:AT17" si="71">AT15+AQ16</f>
         <v>5315485</v>
       </c>
       <c r="AU16" s="6">
-        <f t="shared" ref="AU16" si="72">AP16-AT16</f>
+        <f t="shared" ref="AU16:AU17" si="72">AP16-AT16</f>
         <v>5924515</v>
       </c>
       <c r="AV16" s="7">
@@ -9953,17 +9611,376 @@
         <v>0.60070000000000001</v>
       </c>
       <c r="AZ16" s="5">
-        <f t="shared" ref="AZ16" si="73">AZ15+AW16</f>
+        <f t="shared" ref="AZ16:AZ17" si="73">AZ15+AW16</f>
         <v>6903041</v>
       </c>
       <c r="BA16" s="6">
-        <f t="shared" ref="BA16" si="74">AV16-AZ16</f>
+        <f t="shared" ref="BA16:BA17" si="74">AV16-AZ16</f>
         <v>14156959</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B17" s="46"/>
-      <c r="C17" s="40"/>
+    <row r="17" spans="1:53" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>43384</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="40">
+        <f t="shared" si="56"/>
+        <v>89527380</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" si="57"/>
+        <v>5644609</v>
+      </c>
+      <c r="E17" s="8">
+        <f t="shared" si="58"/>
+        <v>79807511</v>
+      </c>
+      <c r="F17" s="7">
+        <v>31391100</v>
+      </c>
+      <c r="G17">
+        <v>140509</v>
+      </c>
+      <c r="H17">
+        <v>1419</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0.17180000000000001</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="59"/>
+        <v>25950847</v>
+      </c>
+      <c r="K17" s="6">
+        <f t="shared" si="60"/>
+        <v>5440253</v>
+      </c>
+      <c r="L17" s="7">
+        <v>12522000</v>
+      </c>
+      <c r="M17" s="4">
+        <v>114940</v>
+      </c>
+      <c r="N17" s="4">
+        <v>1521</v>
+      </c>
+      <c r="O17" s="12">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="P17" s="5">
+        <f t="shared" si="61"/>
+        <v>12416068</v>
+      </c>
+      <c r="Q17" s="6">
+        <f t="shared" si="62"/>
+        <v>105932</v>
+      </c>
+      <c r="R17" s="7">
+        <v>3358700</v>
+      </c>
+      <c r="S17">
+        <v>15780</v>
+      </c>
+      <c r="T17">
+        <v>1566</v>
+      </c>
+      <c r="U17" s="12">
+        <v>1</v>
+      </c>
+      <c r="V17" s="5">
+        <f t="shared" si="63"/>
+        <v>3316390</v>
+      </c>
+      <c r="W17" s="6">
+        <f t="shared" si="64"/>
+        <v>42310</v>
+      </c>
+      <c r="X17" s="7">
+        <v>5277700</v>
+      </c>
+      <c r="Y17">
+        <v>95929</v>
+      </c>
+      <c r="Z17">
+        <v>1507</v>
+      </c>
+      <c r="AA17" s="12">
+        <v>0.6744</v>
+      </c>
+      <c r="AB17" s="5">
+        <f t="shared" si="65"/>
+        <v>5221586</v>
+      </c>
+      <c r="AC17" s="9">
+        <f t="shared" si="66"/>
+        <v>56114</v>
+      </c>
+      <c r="AD17" s="10">
+        <v>45620000</v>
+      </c>
+      <c r="AE17">
+        <v>516336</v>
+      </c>
+      <c r="AF17">
+        <v>1449</v>
+      </c>
+      <c r="AG17" s="12">
+        <v>0.16220000000000001</v>
+      </c>
+      <c r="AH17" s="8">
+        <f t="shared" si="67"/>
+        <v>8061861</v>
+      </c>
+      <c r="AI17" s="6">
+        <f t="shared" si="68"/>
+        <v>37558139</v>
+      </c>
+      <c r="AJ17" s="7">
+        <v>44510000</v>
+      </c>
+      <c r="AK17" s="4">
+        <v>1766380</v>
+      </c>
+      <c r="AL17" s="4">
+        <v>1521</v>
+      </c>
+      <c r="AM17" s="12">
+        <v>0.74060000000000004</v>
+      </c>
+      <c r="AN17" s="8">
+        <f t="shared" si="69"/>
+        <v>21374309</v>
+      </c>
+      <c r="AO17" s="6">
+        <f t="shared" si="70"/>
+        <v>23135691</v>
+      </c>
+      <c r="AP17" s="7">
+        <v>11240000</v>
+      </c>
+      <c r="AQ17" s="4">
+        <v>463544</v>
+      </c>
+      <c r="AR17" s="4">
+        <v>1598</v>
+      </c>
+      <c r="AS17" s="12">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="AT17" s="5">
+        <f t="shared" si="71"/>
+        <v>5779029</v>
+      </c>
+      <c r="AU17" s="6">
+        <f t="shared" si="72"/>
+        <v>5460971</v>
+      </c>
+      <c r="AV17" s="7">
+        <v>21060000</v>
+      </c>
+      <c r="AW17" s="4">
+        <v>504249</v>
+      </c>
+      <c r="AX17" s="4">
+        <v>1560</v>
+      </c>
+      <c r="AY17" s="12">
+        <v>0.59940000000000004</v>
+      </c>
+      <c r="AZ17" s="5">
+        <f t="shared" si="73"/>
+        <v>7407290</v>
+      </c>
+      <c r="BA17" s="6">
+        <f t="shared" si="74"/>
+        <v>13652710</v>
+      </c>
+    </row>
+    <row r="18" spans="1:53" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>43391</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="40">
+        <f t="shared" ref="C18" si="75">J18+P18+V18+AB18+AH18+AN18+AT18+AZ18</f>
+        <v>93951546</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" ref="D18" si="76">+K18+Q18+W18+AC18</f>
+        <v>4820568</v>
+      </c>
+      <c r="E18" s="8">
+        <f t="shared" ref="E18" si="77">AI18+AO18+AU18+BA18</f>
+        <v>76207386</v>
+      </c>
+      <c r="F18" s="7">
+        <v>31391100</v>
+      </c>
+      <c r="G18">
+        <v>658619</v>
+      </c>
+      <c r="H18">
+        <v>1424</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0.47410000000000002</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" ref="J18" si="78">J17+G18</f>
+        <v>26609466</v>
+      </c>
+      <c r="K18" s="6">
+        <f t="shared" ref="K18" si="79">F18-J18</f>
+        <v>4781634</v>
+      </c>
+      <c r="L18" s="7">
+        <v>12522000</v>
+      </c>
+      <c r="M18" s="8">
+        <v>103384</v>
+      </c>
+      <c r="N18" s="8">
+        <v>1559</v>
+      </c>
+      <c r="O18" s="12">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="P18" s="5">
+        <f t="shared" ref="P18" si="80">P17+M18</f>
+        <v>12519452</v>
+      </c>
+      <c r="Q18" s="6">
+        <f t="shared" ref="Q18" si="81">L18-P18</f>
+        <v>2548</v>
+      </c>
+      <c r="R18" s="7">
+        <v>3358700</v>
+      </c>
+      <c r="S18" s="8">
+        <v>25000</v>
+      </c>
+      <c r="T18" s="8">
+        <v>1606</v>
+      </c>
+      <c r="U18" s="12">
+        <v>1</v>
+      </c>
+      <c r="V18" s="5">
+        <f t="shared" ref="V18" si="82">V17+S18</f>
+        <v>3341390</v>
+      </c>
+      <c r="W18" s="6">
+        <f t="shared" ref="W18" si="83">R18-V18</f>
+        <v>17310</v>
+      </c>
+      <c r="X18" s="7">
+        <v>5277700</v>
+      </c>
+      <c r="Y18" s="8">
+        <v>37038</v>
+      </c>
+      <c r="Z18" s="8">
+        <v>1422</v>
+      </c>
+      <c r="AA18" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="5">
+        <f t="shared" ref="AB18" si="84">AB17+Y18</f>
+        <v>5258624</v>
+      </c>
+      <c r="AC18" s="9">
+        <f t="shared" ref="AC18" si="85">X18-AB18</f>
+        <v>19076</v>
+      </c>
+      <c r="AD18" s="10">
+        <v>45620000</v>
+      </c>
+      <c r="AE18" s="8">
+        <v>544343</v>
+      </c>
+      <c r="AF18" s="8">
+        <v>1461</v>
+      </c>
+      <c r="AG18" s="12">
+        <v>0.20760000000000001</v>
+      </c>
+      <c r="AH18" s="8">
+        <f t="shared" ref="AH18" si="86">AH17+AE18</f>
+        <v>8606204</v>
+      </c>
+      <c r="AI18" s="6">
+        <f t="shared" ref="AI18" si="87">AD18-AH18</f>
+        <v>37013796</v>
+      </c>
+      <c r="AJ18" s="7">
+        <v>44510000</v>
+      </c>
+      <c r="AK18" s="8">
+        <v>1942502</v>
+      </c>
+      <c r="AL18" s="8">
+        <v>1542</v>
+      </c>
+      <c r="AM18" s="12">
+        <v>0.81259999999999999</v>
+      </c>
+      <c r="AN18" s="8">
+        <f t="shared" ref="AN18:AN19" si="88">AN17+AK18</f>
+        <v>23316811</v>
+      </c>
+      <c r="AO18" s="6">
+        <f t="shared" ref="AO18:AO19" si="89">AJ18-AN18</f>
+        <v>21193189</v>
+      </c>
+      <c r="AP18" s="7">
+        <v>11240000</v>
+      </c>
+      <c r="AQ18" s="8">
+        <v>463673</v>
+      </c>
+      <c r="AR18" s="8">
+        <v>1617</v>
+      </c>
+      <c r="AS18" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT18" s="5">
+        <f t="shared" ref="AT18" si="90">AT17+AQ18</f>
+        <v>6242702</v>
+      </c>
+      <c r="AU18" s="6">
+        <f t="shared" ref="AU18" si="91">AP18-AT18</f>
+        <v>4997298</v>
+      </c>
+      <c r="AV18" s="7">
+        <v>21060000</v>
+      </c>
+      <c r="AW18" s="8">
+        <v>649607</v>
+      </c>
+      <c r="AX18" s="8">
+        <v>1564</v>
+      </c>
+      <c r="AY18" s="12">
+        <v>0.68279999999999996</v>
+      </c>
+      <c r="AZ18" s="5">
+        <f t="shared" ref="AZ18" si="92">AZ17+AW18</f>
+        <v>8056897</v>
+      </c>
+      <c r="BA18" s="6">
+        <f t="shared" ref="BA18" si="93">AV18-AZ18</f>
+        <v>13003103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:53" x14ac:dyDescent="0.15">
+      <c r="AN19" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -10236,7 +10253,7 @@
   <dimension ref="E10:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F11" sqref="F11:M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10255,11 +10272,11 @@
     <row r="11" spans="5:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F11" s="14">
         <f>INDEX(detail!A4:A99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>43370</v>
+        <v>43391</v>
       </c>
       <c r="G11" s="15" t="str">
         <f>INDEX(detail!B4:B99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>第25周</v>
+        <v>第27周</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>17</v>
@@ -10283,9 +10300,9 @@
     <row r="12" spans="5:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E12">
         <f>I12+I17</f>
-        <v>575469</v>
-      </c>
-      <c r="F12" s="61">
+        <v>1202962</v>
+      </c>
+      <c r="F12" s="63">
         <v>2014</v>
       </c>
       <c r="G12" s="18" t="s">
@@ -10297,99 +10314,99 @@
       </c>
       <c r="I12" s="18">
         <f>INDEX(detail!G4:G99999,COUNTA(detail!$B4:$B99999))</f>
-        <v>87010</v>
+        <v>658619</v>
       </c>
       <c r="J12" s="18">
         <f>INDEX(detail!H4:H99999,COUNTA(detail!$B4:$B99999))</f>
-        <v>1405</v>
+        <v>1424</v>
       </c>
       <c r="K12" s="20">
         <f>INDEX(detail!I4:I99999,COUNTA(detail!$B4:$B99999))</f>
-        <v>9.4299999999999995E-2</v>
+        <v>0.47410000000000002</v>
       </c>
       <c r="L12" s="19">
         <f>INDEX(detail!J4:J99999,COUNTA(detail!$B4:$B99999))/10000</f>
-        <v>2581.0338000000002</v>
+        <v>2660.9466000000002</v>
       </c>
       <c r="M12" s="21">
         <f>INDEX(detail!K4:K99999,COUNTA(detail!$B4:$B99999))/10000</f>
-        <v>558.07619999999997</v>
+        <v>478.16340000000002</v>
       </c>
     </row>
     <row r="13" spans="5:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E13">
         <f>I13+I18</f>
-        <v>1842006</v>
-      </c>
-      <c r="F13" s="61"/>
+        <v>2045886</v>
+      </c>
+      <c r="F13" s="63"/>
       <c r="G13" s="18" t="s">
         <v>2</v>
       </c>
       <c r="H13" s="19">
         <f>INDEX(detail!L4:L99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>1238.2</v>
+        <v>1252.2</v>
       </c>
       <c r="I13" s="18">
         <f>INDEX(detail!M4:M99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>236861</v>
+        <v>103384</v>
       </c>
       <c r="J13" s="18">
         <f>INDEX(detail!N4:N99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1538</v>
+        <v>1559</v>
       </c>
       <c r="K13" s="20">
         <f>INDEX(detail!O4:O99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>0.99119999999999997</v>
+        <v>0.99990000000000001</v>
       </c>
       <c r="L13" s="19">
         <f>INDEX(detail!P4:P99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>1230.1128000000001</v>
+        <v>1251.9452000000001</v>
       </c>
       <c r="M13" s="21">
         <f>INDEX(detail!Q4:Q99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>8.0871999999999993</v>
+        <v>0.25480000000000003</v>
       </c>
     </row>
     <row r="14" spans="5:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E14">
         <f>I14+I19</f>
-        <v>481394</v>
-      </c>
-      <c r="F14" s="61"/>
+        <v>488673</v>
+      </c>
+      <c r="F14" s="63"/>
       <c r="G14" s="18" t="s">
         <v>3</v>
       </c>
       <c r="H14" s="19">
         <f>INDEX(detail!R4:R99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>331.87</v>
+        <v>335.87</v>
       </c>
       <c r="I14" s="18">
         <f>INDEX(detail!S4:S99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="J14" s="18">
         <f>INDEX(detail!T4:T99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>0</v>
+        <v>1606</v>
       </c>
       <c r="K14" s="20">
         <f>INDEX(detail!U4:U99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="19">
         <f>INDEX(detail!V4:V99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>330.06099999999998</v>
+        <v>334.13900000000001</v>
       </c>
       <c r="M14" s="21">
         <f>INDEX(detail!W4:W99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>1.8089999999999999</v>
+        <v>1.7310000000000001</v>
       </c>
     </row>
     <row r="15" spans="5:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E15">
         <f>I15+I20</f>
-        <v>580408</v>
-      </c>
-      <c r="F15" s="61"/>
+        <v>686645</v>
+      </c>
+      <c r="F15" s="63"/>
       <c r="G15" s="18" t="s">
         <v>16</v>
       </c>
@@ -10399,51 +10416,51 @@
       </c>
       <c r="I15" s="18">
         <f>INDEX(detail!Y4:Y99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>5573</v>
+        <v>37038</v>
       </c>
       <c r="J15" s="18">
         <f>INDEX(detail!Z4:Z99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1350</v>
+        <v>1422</v>
       </c>
       <c r="K15" s="20">
         <f>INDEX(detail!AA4:AA99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>0.1673</v>
+        <v>1</v>
       </c>
       <c r="L15" s="19">
         <f>INDEX(detail!AB4:AB99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>512.56569999999999</v>
+        <v>525.86239999999998</v>
       </c>
       <c r="M15" s="21">
         <f>INDEX(detail!AC4:AC99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>15.2043</v>
+        <v>1.9076</v>
       </c>
     </row>
     <row r="16" spans="5:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F16" s="57" t="s">
+      <c r="F16" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="58"/>
+      <c r="G16" s="60"/>
       <c r="H16" s="22">
         <f>SUM(H12:H15)</f>
-        <v>5236.9500000000007</v>
+        <v>5254.9500000000007</v>
       </c>
       <c r="I16" s="23">
         <f t="shared" ref="I16:M16" si="0">SUM(I12:I15)</f>
-        <v>329444</v>
+        <v>824041</v>
       </c>
       <c r="J16" s="23"/>
       <c r="K16" s="24"/>
       <c r="L16" s="22">
         <f t="shared" si="0"/>
-        <v>4653.7732999999998</v>
+        <v>4772.8932000000004</v>
       </c>
       <c r="M16" s="25">
         <f t="shared" si="0"/>
-        <v>583.17669999999998</v>
+        <v>482.05680000000001</v>
       </c>
     </row>
     <row r="17" spans="6:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F17" s="61">
+      <c r="F17" s="63">
         <v>2015</v>
       </c>
       <c r="G17" s="18" t="s">
@@ -10455,27 +10472,27 @@
       </c>
       <c r="I17" s="18">
         <f>INDEX(detail!AE4:AE99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>488459</v>
+        <v>544343</v>
       </c>
       <c r="J17" s="18">
         <f>INDEX(detail!AF4:AF99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1454</v>
+        <v>1461</v>
       </c>
       <c r="K17" s="20">
         <f>INDEX(detail!AG4:AG99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>0.159</v>
+        <v>0.20760000000000001</v>
       </c>
       <c r="L17" s="19">
         <f>INDEX(detail!AH4:AH99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>754.55250000000001</v>
+        <v>860.62040000000002</v>
       </c>
       <c r="M17" s="21">
         <f>INDEX(detail!AI4:AI99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>3807.4475000000002</v>
+        <v>3701.3796000000002</v>
       </c>
     </row>
     <row r="18" spans="6:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F18" s="61"/>
+      <c r="F18" s="63"/>
       <c r="G18" s="18" t="s">
         <v>2</v>
       </c>
@@ -10485,27 +10502,27 @@
       </c>
       <c r="I18" s="18">
         <f>INDEX(detail!AK4:AK99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1605145</v>
+        <v>1942502</v>
       </c>
       <c r="J18" s="18">
         <f>INDEX(detail!AL4:AL99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1528</v>
+        <v>1542</v>
       </c>
       <c r="K18" s="20">
         <f>INDEX(detail!AM4:AM99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>0.71709999999999996</v>
+        <v>0.81259999999999999</v>
       </c>
       <c r="L18" s="19">
         <f>INDEX(detail!AN4:AN99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>1960.7928999999999</v>
+        <v>2331.6810999999998</v>
       </c>
       <c r="M18" s="21">
         <f>INDEX(detail!AO4:AO99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>2490.2071000000001</v>
+        <v>2119.3189000000002</v>
       </c>
     </row>
     <row r="19" spans="6:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F19" s="61"/>
+      <c r="F19" s="63"/>
       <c r="G19" s="18" t="s">
         <v>3</v>
       </c>
@@ -10515,27 +10532,27 @@
       </c>
       <c r="I19" s="18">
         <f>INDEX(detail!AQ4:AQ99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>481394</v>
+        <v>463673</v>
       </c>
       <c r="J19" s="18">
         <f>INDEX(detail!AR4:AR99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1602</v>
+        <v>1617</v>
       </c>
       <c r="K19" s="20">
         <f>INDEX(detail!AS4:AS99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>0.99550000000000005</v>
+        <v>1</v>
       </c>
       <c r="L19" s="19">
         <f>INDEX(detail!AT4:AT99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>531.54849999999999</v>
+        <v>624.27020000000005</v>
       </c>
       <c r="M19" s="21">
         <f>INDEX(detail!AU4:AU99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>592.45150000000001</v>
+        <v>499.72980000000001</v>
       </c>
     </row>
     <row r="20" spans="6:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F20" s="61"/>
+      <c r="F20" s="63"/>
       <c r="G20" s="18" t="s">
         <v>16</v>
       </c>
@@ -10545,71 +10562,71 @@
       </c>
       <c r="I20" s="18">
         <f>INDEX(detail!AW4:AW99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>574835</v>
+        <v>649607</v>
       </c>
       <c r="J20" s="18">
         <f>INDEX(detail!AX4:AX99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1575</v>
+        <v>1564</v>
       </c>
       <c r="K20" s="20">
         <f>INDEX(detail!AY4:AY99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>0.60070000000000001</v>
+        <v>0.68279999999999996</v>
       </c>
       <c r="L20" s="19">
         <f>INDEX(detail!AZ4:AZ99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>690.30409999999995</v>
+        <v>805.68970000000002</v>
       </c>
       <c r="M20" s="21">
         <f>INDEX(detail!BA4:BA99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>1415.6958999999999</v>
+        <v>1300.3103000000001</v>
       </c>
     </row>
     <row r="21" spans="6:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="58"/>
+      <c r="G21" s="60"/>
       <c r="H21" s="22">
         <f>SUM(H17:H20)</f>
         <v>12243</v>
       </c>
       <c r="I21" s="23">
         <f t="shared" ref="I21:M21" si="1">SUM(I17:I20)</f>
-        <v>3149833</v>
+        <v>3600125</v>
       </c>
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
       <c r="L21" s="22">
         <f t="shared" si="1"/>
-        <v>3937.1979999999999</v>
+        <v>4622.2613999999994</v>
       </c>
       <c r="M21" s="25">
         <f t="shared" si="1"/>
-        <v>8305.8019999999997</v>
+        <v>7620.7386000000006</v>
       </c>
     </row>
     <row r="22" spans="6:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="59" t="s">
+      <c r="F22" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="60"/>
+      <c r="G22" s="62"/>
       <c r="H22" s="26">
         <f>H16+H21</f>
-        <v>17479.95</v>
+        <v>17497.95</v>
       </c>
       <c r="I22" s="27">
         <f t="shared" ref="I22:M22" si="2">I16+I21</f>
-        <v>3479277</v>
+        <v>4424166</v>
       </c>
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
       <c r="L22" s="26">
-        <f t="shared" si="2"/>
-        <v>8590.9712999999992</v>
+        <f>L16+L21+56</f>
+        <v>9451.1545999999998</v>
       </c>
       <c r="M22" s="28">
         <f t="shared" si="2"/>
-        <v>8888.9786999999997</v>
+        <v>8102.7954000000009</v>
       </c>
     </row>
   </sheetData>

--- a/report/CornTempRes.xlsx
+++ b/report/CornTempRes.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="61">
   <si>
     <t>拍卖周</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>第27周</t>
+  </si>
+  <si>
+    <t>第28周</t>
   </si>
 </sst>
 </file>
@@ -500,7 +503,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -605,6 +608,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -806,16 +812,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43363</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43370</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43384</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43391</c:v>
+                  <c:v>43398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -827,16 +833,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.9829</c:v>
+                  <c:v>0.99119999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99119999999999997</c:v>
+                  <c:v>0.99990000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.99990000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99990000000000001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -896,16 +902,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43363</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43370</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43384</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43391</c:v>
+                  <c:v>43398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -917,16 +923,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.77280000000000004</c:v>
+                  <c:v>0.71709999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.71709999999999996</c:v>
+                  <c:v>0.74060000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74060000000000004</c:v>
+                  <c:v>0.81259999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81259999999999999</c:v>
+                  <c:v>0.98340000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -941,8 +947,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="144270496"/>
-        <c:axId val="144269952"/>
+        <c:axId val="1427224000"/>
+        <c:axId val="1427219104"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1063,16 +1069,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43363</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43370</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43384</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43391</c:v>
+                  <c:v>43398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1084,16 +1090,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1525</c:v>
+                  <c:v>1538</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1538</c:v>
+                  <c:v>1521</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1521</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1559</c:v>
+                  <c:v>1607</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1216,16 +1222,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43363</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43370</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43384</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43391</c:v>
+                  <c:v>43398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1237,16 +1243,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1538</c:v>
+                  <c:v>1528</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1528</c:v>
+                  <c:v>1521</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1521</c:v>
+                  <c:v>1542</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1542</c:v>
+                  <c:v>1568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1263,11 +1269,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="144273216"/>
-        <c:axId val="144273760"/>
+        <c:axId val="1427218016"/>
+        <c:axId val="1427228352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="144273216"/>
+        <c:axId val="1427218016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1307,7 +1313,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144273760"/>
+        <c:crossAx val="1427228352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1315,7 +1321,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144273760"/>
+        <c:axId val="1427228352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1363,12 +1369,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144273216"/>
+        <c:crossAx val="1427218016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="144269952"/>
+        <c:axId val="1427219104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1402,12 +1408,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144270496"/>
+        <c:crossAx val="1427224000"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="144270496"/>
+        <c:axId val="1427224000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1417,7 +1423,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144269952"/>
+        <c:crossAx val="1427219104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1626,16 +1632,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43363</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43370</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43384</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43391</c:v>
+                  <c:v>43398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1646,13 +1652,10 @@
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1713,16 +1716,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43363</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43370</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43384</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43391</c:v>
+                  <c:v>43398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1734,13 +1737,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.98480000000000001</c:v>
+                  <c:v>0.99550000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99550000000000005</c:v>
+                  <c:v>0.98699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98699999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -1758,8 +1761,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="144261248"/>
-        <c:axId val="144260704"/>
+        <c:axId val="1427229984"/>
+        <c:axId val="1427229440"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1880,16 +1883,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43363</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43370</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43384</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43391</c:v>
+                  <c:v>43398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1900,13 +1903,10 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1646</c:v>
+                <c:pt idx="1">
+                  <c:v>1566</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1566</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>1606</c:v>
                 </c:pt>
               </c:numCache>
@@ -2030,16 +2030,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43363</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43370</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43384</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43391</c:v>
+                  <c:v>43398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2051,16 +2051,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1631</c:v>
+                  <c:v>1602</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1602</c:v>
+                  <c:v>1598</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1598</c:v>
+                  <c:v>1617</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1617</c:v>
+                  <c:v>1679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2077,11 +2077,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="144274848"/>
-        <c:axId val="144275936"/>
+        <c:axId val="1427228896"/>
+        <c:axId val="1427220192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="144274848"/>
+        <c:axId val="1427228896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2121,7 +2121,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144275936"/>
+        <c:crossAx val="1427220192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2129,7 +2129,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144275936"/>
+        <c:axId val="1427220192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2177,12 +2177,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144274848"/>
+        <c:crossAx val="1427228896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="144260704"/>
+        <c:axId val="1427229440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2216,12 +2216,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144261248"/>
+        <c:crossAx val="1427229984"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="144261248"/>
+        <c:axId val="1427229984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2231,7 +2231,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144260704"/>
+        <c:crossAx val="1427229440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2441,16 +2441,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43363</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43370</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43384</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43391</c:v>
+                  <c:v>43398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2462,13 +2462,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.52729999999999999</c:v>
+                  <c:v>0.1673</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1673</c:v>
+                  <c:v>0.6744</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6744</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -2531,16 +2531,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43363</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43370</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43384</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43391</c:v>
+                  <c:v>43398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2552,16 +2552,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.55320000000000003</c:v>
+                  <c:v>0.60070000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60070000000000001</c:v>
+                  <c:v>0.59940000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59940000000000004</c:v>
+                  <c:v>0.68279999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.68279999999999996</c:v>
+                  <c:v>0.96560000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2576,8 +2576,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="144268320"/>
-        <c:axId val="144267776"/>
+        <c:axId val="1427220736"/>
+        <c:axId val="1427217472"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2698,16 +2698,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43363</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43370</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43384</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43391</c:v>
+                  <c:v>43398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2719,16 +2719,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1589</c:v>
+                  <c:v>1350</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1350</c:v>
+                  <c:v>1507</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1507</c:v>
+                  <c:v>1422</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1422</c:v>
+                  <c:v>1393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2851,16 +2851,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43363</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43370</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43384</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43391</c:v>
+                  <c:v>43398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2872,16 +2872,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1569</c:v>
+                  <c:v>1575</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1575</c:v>
+                  <c:v>1560</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1560</c:v>
+                  <c:v>1564</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1564</c:v>
+                  <c:v>1571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2898,11 +2898,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="144262880"/>
-        <c:axId val="144263968"/>
+        <c:axId val="1427224544"/>
+        <c:axId val="1427216928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="144262880"/>
+        <c:axId val="1427224544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2942,7 +2942,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144263968"/>
+        <c:crossAx val="1427216928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2950,7 +2950,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144263968"/>
+        <c:axId val="1427216928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2998,12 +2998,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144262880"/>
+        <c:crossAx val="1427224544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="144267776"/>
+        <c:axId val="1427217472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3037,12 +3037,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144268320"/>
+        <c:crossAx val="1427220736"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="144268320"/>
+        <c:axId val="1427220736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3052,7 +3052,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144267776"/>
+        <c:crossAx val="1427217472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3261,16 +3261,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43363</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43370</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43384</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43391</c:v>
+                  <c:v>43398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3282,16 +3282,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.2019</c:v>
+                  <c:v>9.4299999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.4299999999999995E-2</c:v>
+                  <c:v>0.17180000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17180000000000001</c:v>
+                  <c:v>0.47410000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47410000000000002</c:v>
+                  <c:v>0.50680000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3351,16 +3351,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43363</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43370</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43384</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43391</c:v>
+                  <c:v>43398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3372,16 +3372,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.1918</c:v>
+                  <c:v>0.159</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.159</c:v>
+                  <c:v>0.16220000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16220000000000001</c:v>
+                  <c:v>0.20760000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20760000000000001</c:v>
+                  <c:v>0.38950000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3396,8 +3396,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="325148576"/>
-        <c:axId val="325145312"/>
+        <c:axId val="1509462592"/>
+        <c:axId val="1509458784"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3518,16 +3518,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43363</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43370</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43384</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43391</c:v>
+                  <c:v>43398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3539,16 +3539,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1447</c:v>
+                  <c:v>1405</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1405</c:v>
+                  <c:v>1419</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1419</c:v>
+                  <c:v>1424</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1424</c:v>
+                  <c:v>1436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3671,16 +3671,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43363</c:v>
+                  <c:v>43370</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43370</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43384</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43391</c:v>
+                  <c:v>43398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3692,16 +3692,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1466</c:v>
+                  <c:v>1454</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1454</c:v>
+                  <c:v>1449</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1449</c:v>
+                  <c:v>1461</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1461</c:v>
+                  <c:v>1477</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3718,11 +3718,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="325145856"/>
-        <c:axId val="325146400"/>
+        <c:axId val="1324020016"/>
+        <c:axId val="1509450624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="325145856"/>
+        <c:axId val="1324020016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3762,7 +3762,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325146400"/>
+        <c:crossAx val="1509450624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -3770,7 +3770,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="325146400"/>
+        <c:axId val="1509450624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3818,12 +3818,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325145856"/>
+        <c:crossAx val="1324020016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="325145312"/>
+        <c:axId val="1509458784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3857,12 +3857,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325148576"/>
+        <c:crossAx val="1509462592"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="325148576"/>
+        <c:axId val="1509462592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3872,7 +3872,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="325145312"/>
+        <c:crossAx val="1509458784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -6992,8 +6992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB19"/>
   <sheetViews>
-    <sheetView topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AZ17" sqref="AZ17:BA18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7047,144 +7047,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="51" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="40"/>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54">
+      <c r="E1" s="54"/>
+      <c r="F1" s="55">
         <v>2014</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="49">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="50">
         <v>2015</v>
       </c>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="49"/>
-      <c r="AU1" s="49"/>
-      <c r="AV1" s="49"/>
-      <c r="AW1" s="49"/>
-      <c r="AX1" s="49"/>
-      <c r="AY1" s="49"/>
-      <c r="AZ1" s="49"/>
-      <c r="BA1" s="49"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="50"/>
+      <c r="AQ1" s="50"/>
+      <c r="AR1" s="50"/>
+      <c r="AS1" s="50"/>
+      <c r="AT1" s="50"/>
+      <c r="AU1" s="50"/>
+      <c r="AV1" s="50"/>
+      <c r="AW1" s="50"/>
+      <c r="AX1" s="50"/>
+      <c r="AY1" s="50"/>
+      <c r="AZ1" s="50"/>
+      <c r="BA1" s="50"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="A2" s="51"/>
-      <c r="B2" s="50"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="40"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="55" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="56" t="s">
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="57" t="s">
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="58" t="s">
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="55" t="s">
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="56" t="s">
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="56"/>
-      <c r="AP2" s="57" t="s">
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="57"/>
-      <c r="AT2" s="57"/>
-      <c r="AU2" s="57"/>
-      <c r="AV2" s="58" t="s">
+      <c r="AQ2" s="58"/>
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="58"/>
+      <c r="AT2" s="58"/>
+      <c r="AU2" s="58"/>
+      <c r="AV2" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AW2" s="58"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="58"/>
-      <c r="AZ2" s="58"/>
-      <c r="BA2" s="58"/>
+      <c r="AW2" s="59"/>
+      <c r="AX2" s="59"/>
+      <c r="AY2" s="59"/>
+      <c r="AZ2" s="59"/>
+      <c r="BA2" s="59"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="A3" s="51"/>
-      <c r="B3" s="50"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="40" t="s">
         <v>50</v>
       </c>
@@ -7352,7 +7352,7 @@
       </c>
       <c r="D4" s="8">
         <f t="shared" ref="D4:D9" si="0">+K4+Q4+W4+AC4</f>
-        <v>12316990</v>
+        <v>12386990</v>
       </c>
       <c r="E4" s="8">
         <f t="shared" ref="E4:E9" si="1">AI4+AO4+AU4+BA4</f>
@@ -7378,7 +7378,7 @@
         <v>10559384</v>
       </c>
       <c r="L4" s="7">
-        <v>12522000</v>
+        <v>12562000</v>
       </c>
       <c r="M4" s="4">
         <v>143967</v>
@@ -7394,7 +7394,7 @@
       </c>
       <c r="Q4" s="6">
         <f t="shared" ref="Q4:Q9" si="3">L4-P4</f>
-        <v>1201432</v>
+        <v>1241432</v>
       </c>
       <c r="R4" s="7">
         <v>3358700</v>
@@ -7416,7 +7416,7 @@
         <v>174869</v>
       </c>
       <c r="X4" s="7">
-        <v>5277700</v>
+        <v>5307700</v>
       </c>
       <c r="Y4" s="4">
         <v>94396</v>
@@ -7432,7 +7432,7 @@
       </c>
       <c r="AC4" s="9">
         <f t="shared" ref="AC4:AC9" si="5">X4-AB4</f>
-        <v>381305</v>
+        <v>411305</v>
       </c>
       <c r="AD4" s="10">
         <v>45620000</v>
@@ -7524,7 +7524,7 @@
       </c>
       <c r="D5" s="8">
         <f t="shared" si="0"/>
-        <v>11418035</v>
+        <v>11488035</v>
       </c>
       <c r="E5" s="8">
         <f t="shared" si="1"/>
@@ -7551,7 +7551,7 @@
         <v>9819754</v>
       </c>
       <c r="L5" s="7">
-        <v>12522000</v>
+        <v>12562000</v>
       </c>
       <c r="M5" s="4">
         <v>119793</v>
@@ -7568,7 +7568,7 @@
       </c>
       <c r="Q5" s="6">
         <f t="shared" si="3"/>
-        <v>1081639</v>
+        <v>1121639</v>
       </c>
       <c r="R5" s="7">
         <v>3358700</v>
@@ -7591,7 +7591,7 @@
         <v>168589</v>
       </c>
       <c r="X5" s="7">
-        <v>5277700</v>
+        <v>5307700</v>
       </c>
       <c r="Y5" s="4">
         <v>33252</v>
@@ -7608,7 +7608,7 @@
       </c>
       <c r="AC5" s="9">
         <f t="shared" si="5"/>
-        <v>348053</v>
+        <v>378053</v>
       </c>
       <c r="AD5" s="10">
         <v>45620000</v>
@@ -7704,7 +7704,7 @@
       </c>
       <c r="D6" s="8">
         <f t="shared" si="0"/>
-        <v>10703120</v>
+        <v>10773120</v>
       </c>
       <c r="E6" s="8">
         <f t="shared" si="1"/>
@@ -7731,7 +7731,7 @@
         <v>9159512</v>
       </c>
       <c r="L6" s="7">
-        <v>12522000</v>
+        <v>12562000</v>
       </c>
       <c r="M6" s="4">
         <v>27000</v>
@@ -7748,7 +7748,7 @@
       </c>
       <c r="Q6" s="6">
         <f t="shared" si="3"/>
-        <v>1054639</v>
+        <v>1094639</v>
       </c>
       <c r="R6" s="7">
         <v>3358700</v>
@@ -7771,7 +7771,7 @@
         <v>151024</v>
       </c>
       <c r="X6" s="7">
-        <v>5277700</v>
+        <v>5307700</v>
       </c>
       <c r="Y6" s="4">
         <v>10108</v>
@@ -7788,7 +7788,7 @@
       </c>
       <c r="AC6" s="9">
         <f t="shared" si="5"/>
-        <v>337945</v>
+        <v>367945</v>
       </c>
       <c r="AD6" s="10">
         <v>45620000</v>
@@ -7884,7 +7884,7 @@
       </c>
       <c r="D7" s="8">
         <f t="shared" si="0"/>
-        <v>10043021</v>
+        <v>10113021</v>
       </c>
       <c r="E7" s="8">
         <f t="shared" si="1"/>
@@ -7911,7 +7911,7 @@
         <v>8549850</v>
       </c>
       <c r="L7" s="7">
-        <v>12522000</v>
+        <v>12562000</v>
       </c>
       <c r="M7" s="4">
         <v>26786</v>
@@ -7928,7 +7928,7 @@
       </c>
       <c r="Q7" s="6">
         <f t="shared" si="3"/>
-        <v>1027853</v>
+        <v>1067853</v>
       </c>
       <c r="R7" s="7">
         <v>3358700</v>
@@ -7951,7 +7951,7 @@
         <v>136316</v>
       </c>
       <c r="X7" s="7">
-        <v>5277700</v>
+        <v>5307700</v>
       </c>
       <c r="Y7" s="4">
         <v>8943</v>
@@ -7968,7 +7968,7 @@
       </c>
       <c r="AC7" s="9">
         <f t="shared" si="5"/>
-        <v>329002</v>
+        <v>359002</v>
       </c>
       <c r="AD7" s="10">
         <v>45620000</v>
@@ -8064,7 +8064,7 @@
       </c>
       <c r="D8" s="8">
         <f t="shared" si="0"/>
-        <v>9433211</v>
+        <v>9503211</v>
       </c>
       <c r="E8" s="8">
         <f t="shared" si="1"/>
@@ -8091,7 +8091,7 @@
         <v>7966234</v>
       </c>
       <c r="L8" s="7">
-        <v>12522000</v>
+        <v>12562000</v>
       </c>
       <c r="M8" s="4">
         <v>4001</v>
@@ -8108,7 +8108,7 @@
       </c>
       <c r="Q8" s="6">
         <f t="shared" si="3"/>
-        <v>1023852</v>
+        <v>1063852</v>
       </c>
       <c r="R8" s="7">
         <v>3358700</v>
@@ -8131,7 +8131,7 @@
         <v>125865</v>
       </c>
       <c r="X8" s="7">
-        <v>5277700</v>
+        <v>5307700</v>
       </c>
       <c r="Y8" s="4">
         <v>11742</v>
@@ -8148,7 +8148,7 @@
       </c>
       <c r="AC8" s="9">
         <f t="shared" si="5"/>
-        <v>317260</v>
+        <v>347260</v>
       </c>
       <c r="AD8" s="10">
         <v>45620000</v>
@@ -8244,7 +8244,7 @@
       </c>
       <c r="D9" s="8">
         <f t="shared" si="0"/>
-        <v>8976443</v>
+        <v>9046443</v>
       </c>
       <c r="E9" s="8">
         <f t="shared" si="1"/>
@@ -8271,7 +8271,7 @@
         <v>7539006</v>
       </c>
       <c r="L9" s="7">
-        <v>12522000</v>
+        <v>12562000</v>
       </c>
       <c r="M9" s="4">
         <v>22623</v>
@@ -8288,7 +8288,7 @@
       </c>
       <c r="Q9" s="6">
         <f t="shared" si="3"/>
-        <v>1001229</v>
+        <v>1041229</v>
       </c>
       <c r="R9" s="7">
         <v>3358700</v>
@@ -8304,7 +8304,7 @@
         <v>125865</v>
       </c>
       <c r="X9" s="7">
-        <v>5277700</v>
+        <v>5307700</v>
       </c>
       <c r="Y9" s="4">
         <v>6917</v>
@@ -8321,7 +8321,7 @@
       </c>
       <c r="AC9" s="9">
         <f t="shared" si="5"/>
-        <v>310343</v>
+        <v>340343</v>
       </c>
       <c r="AD9" s="10">
         <v>45620000</v>
@@ -8417,7 +8417,7 @@
       </c>
       <c r="D10" s="8">
         <f t="shared" ref="D10:D12" si="19">+K10+Q10+W10+AC10</f>
-        <v>8559431</v>
+        <v>8629431</v>
       </c>
       <c r="E10" s="8">
         <f t="shared" ref="E10:E12" si="20">AI10+AO10+AU10+BA10</f>
@@ -8444,7 +8444,7 @@
         <v>7177503</v>
       </c>
       <c r="L10" s="7">
-        <v>12522000</v>
+        <v>12562000</v>
       </c>
       <c r="M10" s="4">
         <v>35094</v>
@@ -8461,7 +8461,7 @@
       </c>
       <c r="Q10" s="6">
         <f t="shared" ref="Q10:Q12" si="22">L10-P10</f>
-        <v>966135</v>
+        <v>1006135</v>
       </c>
       <c r="R10" s="7">
         <v>3358700</v>
@@ -8484,7 +8484,7 @@
         <v>116459</v>
       </c>
       <c r="X10" s="7">
-        <v>5277700</v>
+        <v>5307700</v>
       </c>
       <c r="Y10" s="4">
         <v>11009</v>
@@ -8501,7 +8501,7 @@
       </c>
       <c r="AC10" s="9">
         <f t="shared" ref="AC10:AC12" si="24">X10-AB10</f>
-        <v>299334</v>
+        <v>329334</v>
       </c>
       <c r="AD10" s="10">
         <v>45620000</v>
@@ -8597,7 +8597,7 @@
       </c>
       <c r="D11" s="8">
         <f t="shared" si="19"/>
-        <v>8225366</v>
+        <v>8295366</v>
       </c>
       <c r="E11" s="8">
         <f t="shared" si="20"/>
@@ -8624,7 +8624,7 @@
         <v>6898396</v>
       </c>
       <c r="L11" s="7">
-        <v>12522000</v>
+        <v>12562000</v>
       </c>
       <c r="M11" s="4">
         <v>54958</v>
@@ -8641,7 +8641,7 @@
       </c>
       <c r="Q11" s="6">
         <f t="shared" si="22"/>
-        <v>911177</v>
+        <v>951177</v>
       </c>
       <c r="R11" s="7">
         <v>3358700</v>
@@ -8655,7 +8655,7 @@
         <v>116459</v>
       </c>
       <c r="X11" s="7">
-        <v>5277700</v>
+        <v>5307700</v>
       </c>
       <c r="AB11" s="5">
         <f t="shared" ref="AB11:AB12" si="36">AB10+Y11</f>
@@ -8663,7 +8663,7 @@
       </c>
       <c r="AC11" s="9">
         <f t="shared" si="24"/>
-        <v>299334</v>
+        <v>329334</v>
       </c>
       <c r="AD11" s="10">
         <v>45620000</v>
@@ -8759,7 +8759,7 @@
       </c>
       <c r="D12" s="8">
         <f t="shared" si="19"/>
-        <v>7759372</v>
+        <v>7829372</v>
       </c>
       <c r="E12" s="8">
         <f t="shared" si="20"/>
@@ -8786,7 +8786,7 @@
         <v>6477852</v>
       </c>
       <c r="L12" s="7">
-        <v>12522000</v>
+        <v>12562000</v>
       </c>
       <c r="M12" s="4">
         <v>40648</v>
@@ -8803,7 +8803,7 @@
       </c>
       <c r="Q12" s="6">
         <f t="shared" si="22"/>
-        <v>870529</v>
+        <v>910529</v>
       </c>
       <c r="R12" s="7">
         <v>3358700</v>
@@ -8817,7 +8817,7 @@
         <v>116459</v>
       </c>
       <c r="X12" s="7">
-        <v>5277700</v>
+        <v>5307700</v>
       </c>
       <c r="Y12">
         <v>4802</v>
@@ -8834,7 +8834,7 @@
       </c>
       <c r="AC12" s="9">
         <f t="shared" si="24"/>
-        <v>294532</v>
+        <v>324532</v>
       </c>
       <c r="AD12" s="10">
         <v>45620000</v>
@@ -8930,7 +8930,7 @@
       </c>
       <c r="D13" s="8">
         <f t="shared" ref="D13:D15" si="38">+K13+Q13+W13+AC13</f>
-        <v>7297193</v>
+        <v>7367193</v>
       </c>
       <c r="E13" s="8">
         <f t="shared" ref="E13:E15" si="39">AI13+AO13+AU13+BA13</f>
@@ -8957,7 +8957,7 @@
         <v>6132452</v>
       </c>
       <c r="L13" s="7">
-        <v>12522000</v>
+        <v>12562000</v>
       </c>
       <c r="M13" s="4">
         <v>107935</v>
@@ -8974,7 +8974,7 @@
       </c>
       <c r="Q13" s="6">
         <f t="shared" ref="Q13:Q15" si="43">L13-P13</f>
-        <v>762594</v>
+        <v>802594</v>
       </c>
       <c r="R13" s="7">
         <v>3358700</v>
@@ -8988,7 +8988,7 @@
         <v>116459</v>
       </c>
       <c r="X13" s="7">
-        <v>5277700</v>
+        <v>5307700</v>
       </c>
       <c r="Y13">
         <v>8844</v>
@@ -9005,7 +9005,7 @@
       </c>
       <c r="AC13" s="9">
         <f t="shared" ref="AC13:AC15" si="47">X13-AB13</f>
-        <v>285688</v>
+        <v>315688</v>
       </c>
       <c r="AD13" s="10">
         <v>45620000</v>
@@ -9101,7 +9101,7 @@
       </c>
       <c r="D14" s="8">
         <f t="shared" si="38"/>
-        <v>6916970</v>
+        <v>6986970</v>
       </c>
       <c r="E14" s="8">
         <f t="shared" si="39"/>
@@ -9128,7 +9128,7 @@
         <v>5902520</v>
       </c>
       <c r="L14" s="7">
-        <v>12522000</v>
+        <v>12562000</v>
       </c>
       <c r="M14" s="4">
         <v>102490</v>
@@ -9145,7 +9145,7 @@
       </c>
       <c r="Q14" s="6">
         <f t="shared" si="43"/>
-        <v>660104</v>
+        <v>700104</v>
       </c>
       <c r="R14" s="7">
         <v>3358700</v>
@@ -9168,7 +9168,7 @@
         <v>106459</v>
       </c>
       <c r="X14" s="7">
-        <v>5277700</v>
+        <v>5307700</v>
       </c>
       <c r="Y14">
         <v>37801</v>
@@ -9185,7 +9185,7 @@
       </c>
       <c r="AC14" s="9">
         <f t="shared" si="47"/>
-        <v>247887</v>
+        <v>277887</v>
       </c>
       <c r="AD14" s="10">
         <v>45620000</v>
@@ -9281,7 +9281,7 @@
       </c>
       <c r="D15" s="8">
         <f t="shared" si="38"/>
-        <v>6341211</v>
+        <v>6411211</v>
       </c>
       <c r="E15" s="8">
         <f t="shared" si="39"/>
@@ -9308,7 +9308,7 @@
         <v>5667772</v>
       </c>
       <c r="L15" s="7">
-        <v>12522000</v>
+        <v>12562000</v>
       </c>
       <c r="M15" s="4">
         <v>202371</v>
@@ -9325,7 +9325,7 @@
       </c>
       <c r="Q15" s="6">
         <f t="shared" si="43"/>
-        <v>457733</v>
+        <v>497733</v>
       </c>
       <c r="R15" s="7">
         <v>3358700</v>
@@ -9348,7 +9348,7 @@
         <v>58090</v>
       </c>
       <c r="X15" s="7">
-        <v>5277700</v>
+        <v>5307700</v>
       </c>
       <c r="Y15">
         <v>90271</v>
@@ -9365,7 +9365,7 @@
       </c>
       <c r="AC15" s="9">
         <f t="shared" si="47"/>
-        <v>157616</v>
+        <v>187616</v>
       </c>
       <c r="AD15" s="10">
         <v>45620000</v>
@@ -9461,7 +9461,7 @@
       </c>
       <c r="D16" s="8">
         <f t="shared" ref="D16:D17" si="57">+K16+Q16+W16+AC16</f>
-        <v>6011767</v>
+        <v>6081767</v>
       </c>
       <c r="E16" s="8">
         <f t="shared" ref="E16:E17" si="58">AI16+AO16+AU16+BA16</f>
@@ -9488,7 +9488,7 @@
         <v>5580762</v>
       </c>
       <c r="L16" s="7">
-        <v>12522000</v>
+        <v>12562000</v>
       </c>
       <c r="M16" s="4">
         <v>236861</v>
@@ -9505,7 +9505,7 @@
       </c>
       <c r="Q16" s="6">
         <f t="shared" ref="Q16:Q17" si="62">L16-P16</f>
-        <v>220872</v>
+        <v>260872</v>
       </c>
       <c r="R16" s="7">
         <v>3358700</v>
@@ -9519,7 +9519,7 @@
         <v>58090</v>
       </c>
       <c r="X16" s="7">
-        <v>5277700</v>
+        <v>5307700</v>
       </c>
       <c r="Y16">
         <v>5573</v>
@@ -9536,7 +9536,7 @@
       </c>
       <c r="AC16" s="9">
         <f t="shared" ref="AC16:AC17" si="66">X16-AB16</f>
-        <v>152043</v>
+        <v>182043</v>
       </c>
       <c r="AD16" s="10">
         <v>45620000</v>
@@ -9632,7 +9632,7 @@
       </c>
       <c r="D17" s="8">
         <f t="shared" si="57"/>
-        <v>5644609</v>
+        <v>5714609</v>
       </c>
       <c r="E17" s="8">
         <f t="shared" si="58"/>
@@ -9659,7 +9659,7 @@
         <v>5440253</v>
       </c>
       <c r="L17" s="7">
-        <v>12522000</v>
+        <v>12562000</v>
       </c>
       <c r="M17" s="4">
         <v>114940</v>
@@ -9676,7 +9676,7 @@
       </c>
       <c r="Q17" s="6">
         <f t="shared" si="62"/>
-        <v>105932</v>
+        <v>145932</v>
       </c>
       <c r="R17" s="7">
         <v>3358700</v>
@@ -9699,7 +9699,7 @@
         <v>42310</v>
       </c>
       <c r="X17" s="7">
-        <v>5277700</v>
+        <v>5307700</v>
       </c>
       <c r="Y17">
         <v>95929</v>
@@ -9716,7 +9716,7 @@
       </c>
       <c r="AC17" s="9">
         <f t="shared" si="66"/>
-        <v>56114</v>
+        <v>86114</v>
       </c>
       <c r="AD17" s="10">
         <v>45620000</v>
@@ -9812,7 +9812,7 @@
       </c>
       <c r="D18" s="8">
         <f t="shared" ref="D18" si="76">+K18+Q18+W18+AC18</f>
-        <v>4820568</v>
+        <v>4890568</v>
       </c>
       <c r="E18" s="8">
         <f t="shared" ref="E18" si="77">AI18+AO18+AU18+BA18</f>
@@ -9839,7 +9839,7 @@
         <v>4781634</v>
       </c>
       <c r="L18" s="7">
-        <v>12522000</v>
+        <v>12562000</v>
       </c>
       <c r="M18" s="8">
         <v>103384</v>
@@ -9851,12 +9851,12 @@
         <v>0.99990000000000001</v>
       </c>
       <c r="P18" s="5">
-        <f t="shared" ref="P18" si="80">P17+M18</f>
+        <f t="shared" ref="P18:P19" si="80">P17+M18</f>
         <v>12519452</v>
       </c>
       <c r="Q18" s="6">
-        <f t="shared" ref="Q18" si="81">L18-P18</f>
-        <v>2548</v>
+        <f t="shared" ref="Q18:Q19" si="81">L18-P18</f>
+        <v>42548</v>
       </c>
       <c r="R18" s="7">
         <v>3358700</v>
@@ -9871,15 +9871,15 @@
         <v>1</v>
       </c>
       <c r="V18" s="5">
-        <f t="shared" ref="V18" si="82">V17+S18</f>
+        <f t="shared" ref="V18:V19" si="82">V17+S18</f>
         <v>3341390</v>
       </c>
       <c r="W18" s="6">
-        <f t="shared" ref="W18" si="83">R18-V18</f>
+        <f t="shared" ref="W18:W19" si="83">R18-V18</f>
         <v>17310</v>
       </c>
       <c r="X18" s="7">
-        <v>5277700</v>
+        <v>5307700</v>
       </c>
       <c r="Y18" s="8">
         <v>37038</v>
@@ -9891,12 +9891,12 @@
         <v>1</v>
       </c>
       <c r="AB18" s="5">
-        <f t="shared" ref="AB18" si="84">AB17+Y18</f>
+        <f t="shared" ref="AB18:AB19" si="84">AB17+Y18</f>
         <v>5258624</v>
       </c>
       <c r="AC18" s="9">
-        <f t="shared" ref="AC18" si="85">X18-AB18</f>
-        <v>19076</v>
+        <f t="shared" ref="AC18:AC19" si="85">X18-AB18</f>
+        <v>49076</v>
       </c>
       <c r="AD18" s="10">
         <v>45620000</v>
@@ -9911,11 +9911,11 @@
         <v>0.20760000000000001</v>
       </c>
       <c r="AH18" s="8">
-        <f t="shared" ref="AH18" si="86">AH17+AE18</f>
+        <f t="shared" ref="AH18:AH19" si="86">AH17+AE18</f>
         <v>8606204</v>
       </c>
       <c r="AI18" s="6">
-        <f t="shared" ref="AI18" si="87">AD18-AH18</f>
+        <f t="shared" ref="AI18:AI19" si="87">AD18-AH18</f>
         <v>37013796</v>
       </c>
       <c r="AJ18" s="7">
@@ -9951,11 +9951,11 @@
         <v>1</v>
       </c>
       <c r="AT18" s="5">
-        <f t="shared" ref="AT18" si="90">AT17+AQ18</f>
+        <f t="shared" ref="AT18:AT19" si="90">AT17+AQ18</f>
         <v>6242702</v>
       </c>
       <c r="AU18" s="6">
-        <f t="shared" ref="AU18" si="91">AP18-AT18</f>
+        <f t="shared" ref="AU18:AU19" si="91">AP18-AT18</f>
         <v>4997298</v>
       </c>
       <c r="AV18" s="7">
@@ -9971,16 +9971,184 @@
         <v>0.68279999999999996</v>
       </c>
       <c r="AZ18" s="5">
-        <f t="shared" ref="AZ18" si="92">AZ17+AW18</f>
+        <f t="shared" ref="AZ18:AZ19" si="92">AZ17+AW18</f>
         <v>8056897</v>
       </c>
       <c r="BA18" s="6">
-        <f t="shared" ref="BA18" si="93">AV18-AZ18</f>
+        <f t="shared" ref="BA18:BA19" si="93">AV18-AZ18</f>
         <v>13003103</v>
       </c>
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="AN19" s="8"/>
+      <c r="A19" s="1">
+        <v>43398</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="40">
+        <f t="shared" ref="C19" si="94">J19+P19+V19+AB19+AH19+AN19+AT19+AZ19</f>
+        <v>99564940</v>
+      </c>
+      <c r="D19" s="8">
+        <f t="shared" ref="D19" si="95">+K19+Q19+W19+AC19</f>
+        <v>4236089</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" ref="E19" si="96">AI19+AO19+AU19+BA19</f>
+        <v>71248472</v>
+      </c>
+      <c r="F19" s="7">
+        <v>31391101</v>
+      </c>
+      <c r="G19">
+        <v>572876</v>
+      </c>
+      <c r="H19">
+        <v>1436</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0.50680000000000003</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" ref="J19" si="97">J18+G19</f>
+        <v>27182342</v>
+      </c>
+      <c r="K19" s="6">
+        <f t="shared" ref="K19" si="98">F19-J19</f>
+        <v>4208759</v>
+      </c>
+      <c r="L19" s="7">
+        <v>12562000</v>
+      </c>
+      <c r="M19" s="8">
+        <v>35294</v>
+      </c>
+      <c r="N19" s="8">
+        <v>1607</v>
+      </c>
+      <c r="O19" s="12">
+        <v>1</v>
+      </c>
+      <c r="P19" s="5">
+        <f t="shared" si="80"/>
+        <v>12554746</v>
+      </c>
+      <c r="Q19" s="6">
+        <f t="shared" si="81"/>
+        <v>7254</v>
+      </c>
+      <c r="R19" s="7">
+        <v>3358700</v>
+      </c>
+      <c r="V19" s="5">
+        <f t="shared" si="82"/>
+        <v>3341390</v>
+      </c>
+      <c r="W19" s="6">
+        <f t="shared" si="83"/>
+        <v>17310</v>
+      </c>
+      <c r="X19" s="7">
+        <v>5307700</v>
+      </c>
+      <c r="Y19">
+        <v>46310</v>
+      </c>
+      <c r="Z19">
+        <v>1393</v>
+      </c>
+      <c r="AA19" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="5">
+        <f t="shared" si="84"/>
+        <v>5304934</v>
+      </c>
+      <c r="AC19" s="9">
+        <f t="shared" si="85"/>
+        <v>2766</v>
+      </c>
+      <c r="AD19" s="10">
+        <v>45620000</v>
+      </c>
+      <c r="AE19" s="8">
+        <v>1119354</v>
+      </c>
+      <c r="AF19" s="8">
+        <v>1477</v>
+      </c>
+      <c r="AG19" s="12">
+        <v>0.38950000000000001</v>
+      </c>
+      <c r="AH19" s="8">
+        <f t="shared" si="86"/>
+        <v>9725558</v>
+      </c>
+      <c r="AI19" s="6">
+        <f t="shared" si="87"/>
+        <v>35894442</v>
+      </c>
+      <c r="AJ19" s="7">
+        <v>44510000</v>
+      </c>
+      <c r="AK19" s="8">
+        <v>2424081</v>
+      </c>
+      <c r="AL19" s="8">
+        <v>1568</v>
+      </c>
+      <c r="AM19" s="12">
+        <v>0.98340000000000005</v>
+      </c>
+      <c r="AN19" s="8">
+        <f t="shared" si="88"/>
+        <v>25740892</v>
+      </c>
+      <c r="AO19" s="6">
+        <f t="shared" si="89"/>
+        <v>18769108</v>
+      </c>
+      <c r="AP19" s="7">
+        <v>11240000</v>
+      </c>
+      <c r="AQ19" s="8">
+        <v>494698</v>
+      </c>
+      <c r="AR19" s="8">
+        <v>1679</v>
+      </c>
+      <c r="AS19" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT19" s="5">
+        <f t="shared" si="90"/>
+        <v>6737400</v>
+      </c>
+      <c r="AU19" s="6">
+        <f t="shared" si="91"/>
+        <v>4502600</v>
+      </c>
+      <c r="AV19" s="7">
+        <v>21060000</v>
+      </c>
+      <c r="AW19" s="8">
+        <v>920781</v>
+      </c>
+      <c r="AX19" s="8">
+        <v>1571</v>
+      </c>
+      <c r="AY19" s="12">
+        <v>0.96560000000000001</v>
+      </c>
+      <c r="AZ19" s="5">
+        <f t="shared" si="92"/>
+        <v>8977678</v>
+      </c>
+      <c r="BA19" s="6">
+        <f t="shared" si="93"/>
+        <v>12082322</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -10253,7 +10421,7 @@
   <dimension ref="E10:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:M22"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10272,11 +10440,11 @@
     <row r="11" spans="5:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F11" s="14">
         <f>INDEX(detail!A4:A99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>43391</v>
+        <v>43398</v>
       </c>
       <c r="G11" s="15" t="str">
         <f>INDEX(detail!B4:B99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>第27周</v>
+        <v>第28周</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>17</v>
@@ -10300,9 +10468,9 @@
     <row r="12" spans="5:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E12">
         <f>I12+I17</f>
-        <v>1202962</v>
-      </c>
-      <c r="F12" s="63">
+        <v>1692230</v>
+      </c>
+      <c r="F12" s="64">
         <v>2014</v>
       </c>
       <c r="G12" s="18" t="s">
@@ -10310,69 +10478,69 @@
       </c>
       <c r="H12" s="19">
         <f>INDEX(detail!F4:F99999,COUNTA(detail!$B4:$B99999))/10000</f>
-        <v>3139.11</v>
+        <v>3139.1100999999999</v>
       </c>
       <c r="I12" s="18">
         <f>INDEX(detail!G4:G99999,COUNTA(detail!$B4:$B99999))</f>
-        <v>658619</v>
+        <v>572876</v>
       </c>
       <c r="J12" s="18">
         <f>INDEX(detail!H4:H99999,COUNTA(detail!$B4:$B99999))</f>
-        <v>1424</v>
+        <v>1436</v>
       </c>
       <c r="K12" s="20">
         <f>INDEX(detail!I4:I99999,COUNTA(detail!$B4:$B99999))</f>
-        <v>0.47410000000000002</v>
+        <v>0.50680000000000003</v>
       </c>
       <c r="L12" s="19">
         <f>INDEX(detail!J4:J99999,COUNTA(detail!$B4:$B99999))/10000</f>
-        <v>2660.9466000000002</v>
+        <v>2718.2341999999999</v>
       </c>
       <c r="M12" s="21">
         <f>INDEX(detail!K4:K99999,COUNTA(detail!$B4:$B99999))/10000</f>
-        <v>478.16340000000002</v>
+        <v>420.8759</v>
       </c>
     </row>
     <row r="13" spans="5:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E13">
         <f>I13+I18</f>
-        <v>2045886</v>
-      </c>
-      <c r="F13" s="63"/>
+        <v>2459375</v>
+      </c>
+      <c r="F13" s="64"/>
       <c r="G13" s="18" t="s">
         <v>2</v>
       </c>
       <c r="H13" s="19">
         <f>INDEX(detail!L4:L99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>1252.2</v>
+        <v>1256.2</v>
       </c>
       <c r="I13" s="18">
         <f>INDEX(detail!M4:M99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>103384</v>
+        <v>35294</v>
       </c>
       <c r="J13" s="18">
         <f>INDEX(detail!N4:N99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1559</v>
+        <v>1607</v>
       </c>
       <c r="K13" s="20">
         <f>INDEX(detail!O4:O99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>0.99990000000000001</v>
+        <v>1</v>
       </c>
       <c r="L13" s="19">
         <f>INDEX(detail!P4:P99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>1251.9452000000001</v>
+        <v>1255.4746</v>
       </c>
       <c r="M13" s="21">
         <f>INDEX(detail!Q4:Q99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>0.25480000000000003</v>
+        <v>0.72540000000000004</v>
       </c>
     </row>
     <row r="14" spans="5:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E14">
         <f>I14+I19</f>
-        <v>488673</v>
-      </c>
-      <c r="F14" s="63"/>
+        <v>494698</v>
+      </c>
+      <c r="F14" s="64"/>
       <c r="G14" s="18" t="s">
         <v>3</v>
       </c>
@@ -10382,15 +10550,15 @@
       </c>
       <c r="I14" s="18">
         <f>INDEX(detail!S4:S99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="18">
         <f>INDEX(detail!T4:T99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1606</v>
+        <v>0</v>
       </c>
       <c r="K14" s="20">
         <f>INDEX(detail!U4:U99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="19">
         <f>INDEX(detail!V4:V99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
@@ -10404,23 +10572,23 @@
     <row r="15" spans="5:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E15">
         <f>I15+I20</f>
-        <v>686645</v>
-      </c>
-      <c r="F15" s="63"/>
+        <v>967091</v>
+      </c>
+      <c r="F15" s="64"/>
       <c r="G15" s="18" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="19">
         <f>INDEX(detail!X4:X99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>527.77</v>
+        <v>530.77</v>
       </c>
       <c r="I15" s="18">
         <f>INDEX(detail!Y4:Y99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>37038</v>
+        <v>46310</v>
       </c>
       <c r="J15" s="18">
         <f>INDEX(detail!Z4:Z99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1422</v>
+        <v>1393</v>
       </c>
       <c r="K15" s="20">
         <f>INDEX(detail!AA4:AA99999,COUNTA(detail!$B$4:$B$99999))</f>
@@ -10428,39 +10596,39 @@
       </c>
       <c r="L15" s="19">
         <f>INDEX(detail!AB4:AB99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>525.86239999999998</v>
+        <v>530.49339999999995</v>
       </c>
       <c r="M15" s="21">
         <f>INDEX(detail!AC4:AC99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>1.9076</v>
+        <v>0.27660000000000001</v>
       </c>
     </row>
     <row r="16" spans="5:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F16" s="59" t="s">
+      <c r="F16" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="60"/>
+      <c r="G16" s="61"/>
       <c r="H16" s="22">
         <f>SUM(H12:H15)</f>
-        <v>5254.9500000000007</v>
+        <v>5261.9501</v>
       </c>
       <c r="I16" s="23">
         <f t="shared" ref="I16:M16" si="0">SUM(I12:I15)</f>
-        <v>824041</v>
+        <v>654480</v>
       </c>
       <c r="J16" s="23"/>
       <c r="K16" s="24"/>
       <c r="L16" s="22">
         <f t="shared" si="0"/>
-        <v>4772.8932000000004</v>
+        <v>4838.3411999999998</v>
       </c>
       <c r="M16" s="25">
         <f t="shared" si="0"/>
-        <v>482.05680000000001</v>
+        <v>423.60889999999995</v>
       </c>
     </row>
     <row r="17" spans="6:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F17" s="63">
+      <c r="F17" s="64">
         <v>2015</v>
       </c>
       <c r="G17" s="18" t="s">
@@ -10472,27 +10640,27 @@
       </c>
       <c r="I17" s="18">
         <f>INDEX(detail!AE4:AE99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>544343</v>
+        <v>1119354</v>
       </c>
       <c r="J17" s="18">
         <f>INDEX(detail!AF4:AF99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1461</v>
+        <v>1477</v>
       </c>
       <c r="K17" s="20">
         <f>INDEX(detail!AG4:AG99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>0.20760000000000001</v>
+        <v>0.38950000000000001</v>
       </c>
       <c r="L17" s="19">
         <f>INDEX(detail!AH4:AH99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>860.62040000000002</v>
+        <v>972.55579999999998</v>
       </c>
       <c r="M17" s="21">
         <f>INDEX(detail!AI4:AI99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>3701.3796000000002</v>
+        <v>3589.4441999999999</v>
       </c>
     </row>
     <row r="18" spans="6:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F18" s="63"/>
+      <c r="F18" s="64"/>
       <c r="G18" s="18" t="s">
         <v>2</v>
       </c>
@@ -10502,27 +10670,27 @@
       </c>
       <c r="I18" s="18">
         <f>INDEX(detail!AK4:AK99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1942502</v>
+        <v>2424081</v>
       </c>
       <c r="J18" s="18">
         <f>INDEX(detail!AL4:AL99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1542</v>
+        <v>1568</v>
       </c>
       <c r="K18" s="20">
         <f>INDEX(detail!AM4:AM99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>0.81259999999999999</v>
+        <v>0.98340000000000005</v>
       </c>
       <c r="L18" s="19">
         <f>INDEX(detail!AN4:AN99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>2331.6810999999998</v>
+        <v>2574.0891999999999</v>
       </c>
       <c r="M18" s="21">
         <f>INDEX(detail!AO4:AO99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>2119.3189000000002</v>
+        <v>1876.9108000000001</v>
       </c>
     </row>
     <row r="19" spans="6:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F19" s="63"/>
+      <c r="F19" s="64"/>
       <c r="G19" s="18" t="s">
         <v>3</v>
       </c>
@@ -10532,11 +10700,11 @@
       </c>
       <c r="I19" s="18">
         <f>INDEX(detail!AQ4:AQ99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>463673</v>
+        <v>494698</v>
       </c>
       <c r="J19" s="18">
         <f>INDEX(detail!AR4:AR99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1617</v>
+        <v>1679</v>
       </c>
       <c r="K19" s="20">
         <f>INDEX(detail!AS4:AS99999,COUNTA(detail!$B$4:$B$99999))</f>
@@ -10544,15 +10712,15 @@
       </c>
       <c r="L19" s="19">
         <f>INDEX(detail!AT4:AT99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>624.27020000000005</v>
+        <v>673.74</v>
       </c>
       <c r="M19" s="21">
         <f>INDEX(detail!AU4:AU99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>499.72980000000001</v>
+        <v>450.26</v>
       </c>
     </row>
     <row r="20" spans="6:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F20" s="63"/>
+      <c r="F20" s="64"/>
       <c r="G20" s="18" t="s">
         <v>16</v>
       </c>
@@ -10562,71 +10730,71 @@
       </c>
       <c r="I20" s="18">
         <f>INDEX(detail!AW4:AW99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>649607</v>
+        <v>920781</v>
       </c>
       <c r="J20" s="18">
         <f>INDEX(detail!AX4:AX99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1564</v>
+        <v>1571</v>
       </c>
       <c r="K20" s="20">
         <f>INDEX(detail!AY4:AY99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>0.68279999999999996</v>
+        <v>0.96560000000000001</v>
       </c>
       <c r="L20" s="19">
         <f>INDEX(detail!AZ4:AZ99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>805.68970000000002</v>
+        <v>897.76779999999997</v>
       </c>
       <c r="M20" s="21">
         <f>INDEX(detail!BA4:BA99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>1300.3103000000001</v>
+        <v>1208.2321999999999</v>
       </c>
     </row>
     <row r="21" spans="6:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F21" s="59" t="s">
+      <c r="F21" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="60"/>
+      <c r="G21" s="61"/>
       <c r="H21" s="22">
         <f>SUM(H17:H20)</f>
         <v>12243</v>
       </c>
       <c r="I21" s="23">
         <f t="shared" ref="I21:M21" si="1">SUM(I17:I20)</f>
-        <v>3600125</v>
+        <v>4958914</v>
       </c>
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
       <c r="L21" s="22">
         <f t="shared" si="1"/>
-        <v>4622.2613999999994</v>
+        <v>5118.1527999999998</v>
       </c>
       <c r="M21" s="25">
         <f t="shared" si="1"/>
-        <v>7620.7386000000006</v>
+        <v>7124.8472000000002</v>
       </c>
     </row>
     <row r="22" spans="6:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="61" t="s">
+      <c r="F22" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="62"/>
+      <c r="G22" s="63"/>
       <c r="H22" s="26">
         <f>H16+H21</f>
-        <v>17497.95</v>
+        <v>17504.950100000002</v>
       </c>
       <c r="I22" s="27">
         <f t="shared" ref="I22:M22" si="2">I16+I21</f>
-        <v>4424166</v>
+        <v>5613394</v>
       </c>
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
       <c r="L22" s="26">
         <f>L16+L21+56</f>
-        <v>9451.1545999999998</v>
+        <v>10012.493999999999</v>
       </c>
       <c r="M22" s="28">
         <f t="shared" si="2"/>
-        <v>8102.7954000000009</v>
+        <v>7548.4561000000003</v>
       </c>
     </row>
   </sheetData>

--- a/report/CornTempRes.xlsx
+++ b/report/CornTempRes.xlsx
@@ -269,7 +269,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0&quot;万吨&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +315,14 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -503,7 +511,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -620,6 +628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -665,6 +674,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -947,8 +957,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1427224000"/>
-        <c:axId val="1427219104"/>
+        <c:axId val="-989290624"/>
+        <c:axId val="-989291168"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1269,11 +1279,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1427218016"/>
-        <c:axId val="1427228352"/>
+        <c:axId val="-1431074800"/>
+        <c:axId val="-989291712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1427218016"/>
+        <c:axId val="-1431074800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1313,7 +1323,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1427228352"/>
+        <c:crossAx val="-989291712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1321,7 +1331,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1427228352"/>
+        <c:axId val="-989291712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1369,12 +1379,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1427218016"/>
+        <c:crossAx val="-1431074800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1427219104"/>
+        <c:axId val="-989291168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1408,12 +1418,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1427224000"/>
+        <c:crossAx val="-989290624"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="1427224000"/>
+        <c:axId val="-989290624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1423,7 +1433,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1427219104"/>
+        <c:crossAx val="-989291168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1761,8 +1771,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1427229984"/>
-        <c:axId val="1427229440"/>
+        <c:axId val="-949150368"/>
+        <c:axId val="-949153088"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2077,11 +2087,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1427228896"/>
-        <c:axId val="1427220192"/>
+        <c:axId val="-949156352"/>
+        <c:axId val="-949146560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1427228896"/>
+        <c:axId val="-949156352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2121,7 +2131,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1427220192"/>
+        <c:crossAx val="-949146560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2129,7 +2139,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1427220192"/>
+        <c:axId val="-949146560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2177,12 +2187,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1427228896"/>
+        <c:crossAx val="-949156352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1427229440"/>
+        <c:axId val="-949153088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2216,12 +2226,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1427229984"/>
+        <c:crossAx val="-949150368"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1427229984"/>
+        <c:axId val="-949150368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2231,7 +2241,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1427229440"/>
+        <c:crossAx val="-949153088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2576,8 +2586,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1427220736"/>
-        <c:axId val="1427217472"/>
+        <c:axId val="-949157984"/>
+        <c:axId val="-949151456"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2898,11 +2908,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1427224544"/>
-        <c:axId val="1427216928"/>
+        <c:axId val="-949148736"/>
+        <c:axId val="-949152000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1427224544"/>
+        <c:axId val="-949148736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2942,7 +2952,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1427216928"/>
+        <c:crossAx val="-949152000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2950,7 +2960,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1427216928"/>
+        <c:axId val="-949152000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2998,12 +3008,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1427224544"/>
+        <c:crossAx val="-949148736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1427217472"/>
+        <c:axId val="-949151456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3037,12 +3047,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1427220736"/>
+        <c:crossAx val="-949157984"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="1427220736"/>
+        <c:axId val="-949157984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3052,7 +3062,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1427217472"/>
+        <c:crossAx val="-949151456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3396,8 +3406,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1509462592"/>
-        <c:axId val="1509458784"/>
+        <c:axId val="-949153632"/>
+        <c:axId val="-949161248"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3718,11 +3728,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1324020016"/>
-        <c:axId val="1509450624"/>
+        <c:axId val="-949152544"/>
+        <c:axId val="-949148192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1324020016"/>
+        <c:axId val="-949152544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3762,7 +3772,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1509450624"/>
+        <c:crossAx val="-949148192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -3770,7 +3780,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1509450624"/>
+        <c:axId val="-949148192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3818,12 +3828,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1324020016"/>
+        <c:crossAx val="-949152544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1509458784"/>
+        <c:axId val="-949161248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3857,12 +3867,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1509462592"/>
+        <c:crossAx val="-949153632"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1509462592"/>
+        <c:axId val="-949153632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3872,7 +3882,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1509458784"/>
+        <c:crossAx val="-949161248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -6228,7 +6238,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="3067050" y="4295775"/>
-          <a:ext cx="7200014" cy="4310476"/>
+          <a:ext cx="7285739" cy="4310476"/>
           <a:chOff x="3095625" y="4295775"/>
           <a:chExt cx="7209989" cy="5052012"/>
         </a:xfrm>
@@ -6992,8 +7002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AY21" sqref="AY21:BD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7047,144 +7057,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="40"/>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55">
+      <c r="E1" s="55"/>
+      <c r="F1" s="56">
         <v>2014</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="50">
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="51">
         <v>2015</v>
       </c>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="50"/>
-      <c r="AU1" s="50"/>
-      <c r="AV1" s="50"/>
-      <c r="AW1" s="50"/>
-      <c r="AX1" s="50"/>
-      <c r="AY1" s="50"/>
-      <c r="AZ1" s="50"/>
-      <c r="BA1" s="50"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
+      <c r="AP1" s="51"/>
+      <c r="AQ1" s="51"/>
+      <c r="AR1" s="51"/>
+      <c r="AS1" s="51"/>
+      <c r="AT1" s="51"/>
+      <c r="AU1" s="51"/>
+      <c r="AV1" s="51"/>
+      <c r="AW1" s="51"/>
+      <c r="AX1" s="51"/>
+      <c r="AY1" s="51"/>
+      <c r="AZ1" s="51"/>
+      <c r="BA1" s="51"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="A2" s="52"/>
-      <c r="B2" s="51"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="40"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="56" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="57" t="s">
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="58" t="s">
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="59" t="s">
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="56" t="s">
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="57" t="s">
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="57"/>
+      <c r="AJ2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="57"/>
-      <c r="AP2" s="58" t="s">
+      <c r="AK2" s="58"/>
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="58"/>
+      <c r="AN2" s="58"/>
+      <c r="AO2" s="58"/>
+      <c r="AP2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AQ2" s="58"/>
-      <c r="AR2" s="58"/>
-      <c r="AS2" s="58"/>
-      <c r="AT2" s="58"/>
-      <c r="AU2" s="58"/>
-      <c r="AV2" s="59" t="s">
+      <c r="AQ2" s="59"/>
+      <c r="AR2" s="59"/>
+      <c r="AS2" s="59"/>
+      <c r="AT2" s="59"/>
+      <c r="AU2" s="59"/>
+      <c r="AV2" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="AW2" s="59"/>
-      <c r="AX2" s="59"/>
-      <c r="AY2" s="59"/>
-      <c r="AZ2" s="59"/>
-      <c r="BA2" s="59"/>
+      <c r="AW2" s="60"/>
+      <c r="AX2" s="60"/>
+      <c r="AY2" s="60"/>
+      <c r="AZ2" s="60"/>
+      <c r="BA2" s="60"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="A3" s="52"/>
-      <c r="B3" s="51"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="40" t="s">
         <v>50</v>
       </c>
@@ -9701,10 +9711,10 @@
       <c r="X17" s="7">
         <v>5307700</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" s="50">
         <v>95929</v>
       </c>
-      <c r="Z17">
+      <c r="Z17" s="50">
         <v>1507</v>
       </c>
       <c r="AA17" s="12">
@@ -9841,10 +9851,10 @@
       <c r="L18" s="7">
         <v>12562000</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="4">
         <v>103384</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="4">
         <v>1559</v>
       </c>
       <c r="O18" s="12">
@@ -9861,10 +9871,10 @@
       <c r="R18" s="7">
         <v>3358700</v>
       </c>
-      <c r="S18" s="8">
+      <c r="S18">
         <v>25000</v>
       </c>
-      <c r="T18" s="8">
+      <c r="T18">
         <v>1606</v>
       </c>
       <c r="U18" s="12">
@@ -9881,10 +9891,10 @@
       <c r="X18" s="7">
         <v>5307700</v>
       </c>
-      <c r="Y18" s="8">
+      <c r="Y18" s="50">
         <v>37038</v>
       </c>
-      <c r="Z18" s="8">
+      <c r="Z18" s="50">
         <v>1422</v>
       </c>
       <c r="AA18" s="12">
@@ -9901,10 +9911,10 @@
       <c r="AD18" s="10">
         <v>45620000</v>
       </c>
-      <c r="AE18" s="8">
+      <c r="AE18">
         <v>544343</v>
       </c>
-      <c r="AF18" s="8">
+      <c r="AF18">
         <v>1461</v>
       </c>
       <c r="AG18" s="12">
@@ -9921,10 +9931,10 @@
       <c r="AJ18" s="7">
         <v>44510000</v>
       </c>
-      <c r="AK18" s="8">
+      <c r="AK18" s="4">
         <v>1942502</v>
       </c>
-      <c r="AL18" s="8">
+      <c r="AL18" s="4">
         <v>1542</v>
       </c>
       <c r="AM18" s="12">
@@ -9941,10 +9951,10 @@
       <c r="AP18" s="7">
         <v>11240000</v>
       </c>
-      <c r="AQ18" s="8">
+      <c r="AQ18" s="4">
         <v>463673</v>
       </c>
-      <c r="AR18" s="8">
+      <c r="AR18" s="4">
         <v>1617</v>
       </c>
       <c r="AS18" s="12">
@@ -9961,10 +9971,10 @@
       <c r="AV18" s="7">
         <v>21060000</v>
       </c>
-      <c r="AW18" s="8">
+      <c r="AW18" s="4">
         <v>649607</v>
       </c>
-      <c r="AX18" s="8">
+      <c r="AX18" s="4">
         <v>1564</v>
       </c>
       <c r="AY18" s="12">
@@ -10021,10 +10031,10 @@
       <c r="L19" s="7">
         <v>12562000</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="4">
         <v>35294</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="4">
         <v>1607</v>
       </c>
       <c r="O19" s="12">
@@ -10072,10 +10082,10 @@
       <c r="AD19" s="10">
         <v>45620000</v>
       </c>
-      <c r="AE19" s="8">
+      <c r="AE19">
         <v>1119354</v>
       </c>
-      <c r="AF19" s="8">
+      <c r="AF19">
         <v>1477</v>
       </c>
       <c r="AG19" s="12">
@@ -10092,10 +10102,10 @@
       <c r="AJ19" s="7">
         <v>44510000</v>
       </c>
-      <c r="AK19" s="8">
+      <c r="AK19" s="4">
         <v>2424081</v>
       </c>
-      <c r="AL19" s="8">
+      <c r="AL19" s="4">
         <v>1568</v>
       </c>
       <c r="AM19" s="12">
@@ -10112,10 +10122,10 @@
       <c r="AP19" s="7">
         <v>11240000</v>
       </c>
-      <c r="AQ19" s="8">
+      <c r="AQ19" s="4">
         <v>494698</v>
       </c>
-      <c r="AR19" s="8">
+      <c r="AR19" s="4">
         <v>1679</v>
       </c>
       <c r="AS19" s="12">
@@ -10132,10 +10142,10 @@
       <c r="AV19" s="7">
         <v>21060000</v>
       </c>
-      <c r="AW19" s="8">
+      <c r="AW19" s="4">
         <v>920781</v>
       </c>
-      <c r="AX19" s="8">
+      <c r="AX19" s="4">
         <v>1571</v>
       </c>
       <c r="AY19" s="12">
@@ -10418,10 +10428,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E10:M22"/>
+  <dimension ref="E10:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12:N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10432,12 +10442,13 @@
     <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="5:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="5:13" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="5:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F11" s="14">
         <f>INDEX(detail!A4:A99999,COUNTA(detail!$B$4:$B$99999))</f>
         <v>43398</v>
@@ -10465,12 +10476,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="5:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="5:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E12">
         <f>I12+I17</f>
         <v>1692230</v>
       </c>
-      <c r="F12" s="64">
+      <c r="F12" s="65">
         <v>2014</v>
       </c>
       <c r="G12" s="18" t="s">
@@ -10500,13 +10511,17 @@
         <f>INDEX(detail!K4:K99999,COUNTA(detail!$B4:$B99999))/10000</f>
         <v>420.8759</v>
       </c>
+      <c r="N12" s="66">
+        <f>L12+L17</f>
+        <v>3690.79</v>
+      </c>
     </row>
-    <row r="13" spans="5:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="5:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E13">
         <f>I13+I18</f>
         <v>2459375</v>
       </c>
-      <c r="F13" s="64"/>
+      <c r="F13" s="65"/>
       <c r="G13" s="18" t="s">
         <v>2</v>
       </c>
@@ -10534,13 +10549,17 @@
         <f>INDEX(detail!Q4:Q99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
         <v>0.72540000000000004</v>
       </c>
+      <c r="N13" s="66">
+        <f t="shared" ref="N13:N15" si="0">L13+L18</f>
+        <v>3829.5637999999999</v>
+      </c>
     </row>
-    <row r="14" spans="5:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="5:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E14">
         <f>I14+I19</f>
         <v>494698</v>
       </c>
-      <c r="F14" s="64"/>
+      <c r="F14" s="65"/>
       <c r="G14" s="18" t="s">
         <v>3</v>
       </c>
@@ -10568,13 +10587,17 @@
         <f>INDEX(detail!W4:W99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
         <v>1.7310000000000001</v>
       </c>
+      <c r="N14" s="66">
+        <f t="shared" si="0"/>
+        <v>1007.879</v>
+      </c>
     </row>
-    <row r="15" spans="5:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="5:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E15">
         <f>I15+I20</f>
         <v>967091</v>
       </c>
-      <c r="F15" s="64"/>
+      <c r="F15" s="65"/>
       <c r="G15" s="18" t="s">
         <v>16</v>
       </c>
@@ -10602,33 +10625,37 @@
         <f>INDEX(detail!AC4:AC99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
         <v>0.27660000000000001</v>
       </c>
+      <c r="N15" s="66">
+        <f t="shared" si="0"/>
+        <v>1428.2611999999999</v>
+      </c>
     </row>
-    <row r="16" spans="5:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F16" s="60" t="s">
+    <row r="16" spans="5:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F16" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="61"/>
+      <c r="G16" s="62"/>
       <c r="H16" s="22">
         <f>SUM(H12:H15)</f>
         <v>5261.9501</v>
       </c>
       <c r="I16" s="23">
-        <f t="shared" ref="I16:M16" si="0">SUM(I12:I15)</f>
+        <f t="shared" ref="I16:M16" si="1">SUM(I12:I15)</f>
         <v>654480</v>
       </c>
       <c r="J16" s="23"/>
       <c r="K16" s="24"/>
       <c r="L16" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4838.3411999999998</v>
       </c>
       <c r="M16" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>423.60889999999995</v>
       </c>
     </row>
     <row r="17" spans="6:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F17" s="64">
+      <c r="F17" s="65">
         <v>2015</v>
       </c>
       <c r="G17" s="18" t="s">
@@ -10660,7 +10687,7 @@
       </c>
     </row>
     <row r="18" spans="6:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F18" s="64"/>
+      <c r="F18" s="65"/>
       <c r="G18" s="18" t="s">
         <v>2</v>
       </c>
@@ -10690,7 +10717,7 @@
       </c>
     </row>
     <row r="19" spans="6:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F19" s="64"/>
+      <c r="F19" s="65"/>
       <c r="G19" s="18" t="s">
         <v>3</v>
       </c>
@@ -10720,7 +10747,7 @@
       </c>
     </row>
     <row r="20" spans="6:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F20" s="64"/>
+      <c r="F20" s="65"/>
       <c r="G20" s="18" t="s">
         <v>16</v>
       </c>
@@ -10750,50 +10777,50 @@
       </c>
     </row>
     <row r="21" spans="6:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F21" s="60" t="s">
+      <c r="F21" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="61"/>
+      <c r="G21" s="62"/>
       <c r="H21" s="22">
         <f>SUM(H17:H20)</f>
         <v>12243</v>
       </c>
       <c r="I21" s="23">
-        <f t="shared" ref="I21:M21" si="1">SUM(I17:I20)</f>
+        <f t="shared" ref="I21:M21" si="2">SUM(I17:I20)</f>
         <v>4958914</v>
       </c>
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
       <c r="L21" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5118.1527999999998</v>
       </c>
       <c r="M21" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7124.8472000000002</v>
       </c>
     </row>
     <row r="22" spans="6:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="62" t="s">
+      <c r="F22" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="63"/>
+      <c r="G22" s="64"/>
       <c r="H22" s="26">
         <f>H16+H21</f>
         <v>17504.950100000002</v>
       </c>
       <c r="I22" s="27">
-        <f t="shared" ref="I22:M22" si="2">I16+I21</f>
+        <f t="shared" ref="I22:M22" si="3">I16+I21</f>
         <v>5613394</v>
       </c>
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
       <c r="L22" s="26">
-        <f>L16+L21+56</f>
-        <v>10012.493999999999</v>
+        <f>L16+L21+58</f>
+        <v>10014.493999999999</v>
       </c>
       <c r="M22" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7548.4561000000003</v>
       </c>
     </row>

--- a/report/CornTempRes.xlsx
+++ b/report/CornTempRes.xlsx
@@ -629,6 +629,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -674,7 +675,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -957,8 +957,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-989290624"/>
-        <c:axId val="-989291168"/>
+        <c:axId val="-101447344"/>
+        <c:axId val="-101453872"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1279,11 +1279,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1431074800"/>
-        <c:axId val="-989291712"/>
+        <c:axId val="-101445168"/>
+        <c:axId val="-101450064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1431074800"/>
+        <c:axId val="-101445168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1323,7 +1323,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-989291712"/>
+        <c:crossAx val="-101450064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1331,7 +1331,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-989291712"/>
+        <c:axId val="-101450064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1379,12 +1379,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1431074800"/>
+        <c:crossAx val="-101445168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-989291168"/>
+        <c:axId val="-101453872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1418,12 +1418,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-989290624"/>
+        <c:crossAx val="-101447344"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-989290624"/>
+        <c:axId val="-101447344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1433,7 +1433,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-989291168"/>
+        <c:crossAx val="-101453872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1771,8 +1771,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-949150368"/>
-        <c:axId val="-949153088"/>
+        <c:axId val="-101452784"/>
+        <c:axId val="-101445712"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2087,11 +2087,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-949156352"/>
-        <c:axId val="-949146560"/>
+        <c:axId val="-101458224"/>
+        <c:axId val="-101446800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-949156352"/>
+        <c:axId val="-101458224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2131,7 +2131,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-949146560"/>
+        <c:crossAx val="-101446800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2139,7 +2139,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-949146560"/>
+        <c:axId val="-101446800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2187,12 +2187,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-949156352"/>
+        <c:crossAx val="-101458224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-949153088"/>
+        <c:axId val="-101445712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2226,12 +2226,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-949150368"/>
+        <c:crossAx val="-101452784"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-949150368"/>
+        <c:axId val="-101452784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2241,7 +2241,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-949153088"/>
+        <c:crossAx val="-101445712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2586,8 +2586,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-949157984"/>
-        <c:axId val="-949151456"/>
+        <c:axId val="-2077127312"/>
+        <c:axId val="-362979824"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2908,11 +2908,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-949148736"/>
-        <c:axId val="-949152000"/>
+        <c:axId val="-101457680"/>
+        <c:axId val="-101449520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-949148736"/>
+        <c:axId val="-101457680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2952,7 +2952,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-949152000"/>
+        <c:crossAx val="-101449520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2960,7 +2960,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-949152000"/>
+        <c:axId val="-101449520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3008,12 +3008,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-949148736"/>
+        <c:crossAx val="-101457680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-949151456"/>
+        <c:axId val="-362979824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3047,12 +3047,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-949157984"/>
+        <c:crossAx val="-2077127312"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-949157984"/>
+        <c:axId val="-2077127312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3062,7 +3062,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-949151456"/>
+        <c:crossAx val="-362979824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3406,8 +3406,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-949153632"/>
-        <c:axId val="-949161248"/>
+        <c:axId val="-2077119696"/>
+        <c:axId val="-2077116976"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3728,11 +3728,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-949152544"/>
-        <c:axId val="-949148192"/>
+        <c:axId val="-2077118064"/>
+        <c:axId val="-2077124592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-949152544"/>
+        <c:axId val="-2077118064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3772,7 +3772,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-949148192"/>
+        <c:crossAx val="-2077124592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -3780,7 +3780,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-949148192"/>
+        <c:axId val="-2077124592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3828,12 +3828,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-949152544"/>
+        <c:crossAx val="-2077118064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-949161248"/>
+        <c:axId val="-2077116976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3867,12 +3867,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-949153632"/>
+        <c:crossAx val="-2077119696"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-949153632"/>
+        <c:axId val="-2077119696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3882,7 +3882,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-949161248"/>
+        <c:crossAx val="-2077116976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -6379,7 +6379,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="43304.659507986114" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="32">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E33" sheet="Sheet3"/>
+    <worksheetSource ref="A1:E33" sheet="Sheet3" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="年份" numFmtId="0">
@@ -7002,8 +7002,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB19"/>
   <sheetViews>
-    <sheetView topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="AY21" sqref="AY21:BD22"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7057,144 +7060,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="53" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="40"/>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56">
+      <c r="E1" s="56"/>
+      <c r="F1" s="57">
         <v>2014</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="51">
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="52">
         <v>2015</v>
       </c>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="51"/>
-      <c r="AQ1" s="51"/>
-      <c r="AR1" s="51"/>
-      <c r="AS1" s="51"/>
-      <c r="AT1" s="51"/>
-      <c r="AU1" s="51"/>
-      <c r="AV1" s="51"/>
-      <c r="AW1" s="51"/>
-      <c r="AX1" s="51"/>
-      <c r="AY1" s="51"/>
-      <c r="AZ1" s="51"/>
-      <c r="BA1" s="51"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="52"/>
+      <c r="AP1" s="52"/>
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="52"/>
+      <c r="AT1" s="52"/>
+      <c r="AU1" s="52"/>
+      <c r="AV1" s="52"/>
+      <c r="AW1" s="52"/>
+      <c r="AX1" s="52"/>
+      <c r="AY1" s="52"/>
+      <c r="AZ1" s="52"/>
+      <c r="BA1" s="52"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="A2" s="53"/>
-      <c r="B2" s="52"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="40"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="57" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="58" t="s">
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="59" t="s">
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="60" t="s">
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="57" t="s">
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="58" t="s">
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="58"/>
+      <c r="AJ2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="58"/>
-      <c r="AO2" s="58"/>
-      <c r="AP2" s="59" t="s">
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="59"/>
+      <c r="AN2" s="59"/>
+      <c r="AO2" s="59"/>
+      <c r="AP2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="AQ2" s="59"/>
-      <c r="AR2" s="59"/>
-      <c r="AS2" s="59"/>
-      <c r="AT2" s="59"/>
-      <c r="AU2" s="59"/>
-      <c r="AV2" s="60" t="s">
+      <c r="AQ2" s="60"/>
+      <c r="AR2" s="60"/>
+      <c r="AS2" s="60"/>
+      <c r="AT2" s="60"/>
+      <c r="AU2" s="60"/>
+      <c r="AV2" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AW2" s="60"/>
-      <c r="AX2" s="60"/>
-      <c r="AY2" s="60"/>
-      <c r="AZ2" s="60"/>
-      <c r="BA2" s="60"/>
+      <c r="AW2" s="61"/>
+      <c r="AX2" s="61"/>
+      <c r="AY2" s="61"/>
+      <c r="AZ2" s="61"/>
+      <c r="BA2" s="61"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="A3" s="53"/>
-      <c r="B3" s="52"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="40" t="s">
         <v>50</v>
       </c>
@@ -10430,8 +10433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E10:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12:N15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10481,7 +10484,7 @@
         <f>I12+I17</f>
         <v>1692230</v>
       </c>
-      <c r="F12" s="65">
+      <c r="F12" s="66">
         <v>2014</v>
       </c>
       <c r="G12" s="18" t="s">
@@ -10511,7 +10514,7 @@
         <f>INDEX(detail!K4:K99999,COUNTA(detail!$B4:$B99999))/10000</f>
         <v>420.8759</v>
       </c>
-      <c r="N12" s="66">
+      <c r="N12" s="51">
         <f>L12+L17</f>
         <v>3690.79</v>
       </c>
@@ -10521,7 +10524,7 @@
         <f>I13+I18</f>
         <v>2459375</v>
       </c>
-      <c r="F13" s="65"/>
+      <c r="F13" s="66"/>
       <c r="G13" s="18" t="s">
         <v>2</v>
       </c>
@@ -10549,7 +10552,7 @@
         <f>INDEX(detail!Q4:Q99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
         <v>0.72540000000000004</v>
       </c>
-      <c r="N13" s="66">
+      <c r="N13" s="51">
         <f t="shared" ref="N13:N15" si="0">L13+L18</f>
         <v>3829.5637999999999</v>
       </c>
@@ -10559,7 +10562,7 @@
         <f>I14+I19</f>
         <v>494698</v>
       </c>
-      <c r="F14" s="65"/>
+      <c r="F14" s="66"/>
       <c r="G14" s="18" t="s">
         <v>3</v>
       </c>
@@ -10587,7 +10590,7 @@
         <f>INDEX(detail!W4:W99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
         <v>1.7310000000000001</v>
       </c>
-      <c r="N14" s="66">
+      <c r="N14" s="51">
         <f t="shared" si="0"/>
         <v>1007.879</v>
       </c>
@@ -10597,7 +10600,7 @@
         <f>I15+I20</f>
         <v>967091</v>
       </c>
-      <c r="F15" s="65"/>
+      <c r="F15" s="66"/>
       <c r="G15" s="18" t="s">
         <v>16</v>
       </c>
@@ -10625,16 +10628,16 @@
         <f>INDEX(detail!AC4:AC99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
         <v>0.27660000000000001</v>
       </c>
-      <c r="N15" s="66">
+      <c r="N15" s="51">
         <f t="shared" si="0"/>
         <v>1428.2611999999999</v>
       </c>
     </row>
     <row r="16" spans="5:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F16" s="61" t="s">
+      <c r="F16" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="62"/>
+      <c r="G16" s="63"/>
       <c r="H16" s="22">
         <f>SUM(H12:H15)</f>
         <v>5261.9501</v>
@@ -10655,7 +10658,7 @@
       </c>
     </row>
     <row r="17" spans="6:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F17" s="65">
+      <c r="F17" s="66">
         <v>2015</v>
       </c>
       <c r="G17" s="18" t="s">
@@ -10687,7 +10690,7 @@
       </c>
     </row>
     <row r="18" spans="6:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F18" s="65"/>
+      <c r="F18" s="66"/>
       <c r="G18" s="18" t="s">
         <v>2</v>
       </c>
@@ -10717,7 +10720,7 @@
       </c>
     </row>
     <row r="19" spans="6:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F19" s="65"/>
+      <c r="F19" s="66"/>
       <c r="G19" s="18" t="s">
         <v>3</v>
       </c>
@@ -10747,7 +10750,7 @@
       </c>
     </row>
     <row r="20" spans="6:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F20" s="65"/>
+      <c r="F20" s="66"/>
       <c r="G20" s="18" t="s">
         <v>16</v>
       </c>
@@ -10777,10 +10780,10 @@
       </c>
     </row>
     <row r="21" spans="6:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F21" s="61" t="s">
+      <c r="F21" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="62"/>
+      <c r="G21" s="63"/>
       <c r="H21" s="22">
         <f>SUM(H17:H20)</f>
         <v>12243</v>
@@ -10801,10 +10804,10 @@
       </c>
     </row>
     <row r="22" spans="6:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="63" t="s">
+      <c r="F22" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="64"/>
+      <c r="G22" s="65"/>
       <c r="H22" s="26">
         <f>H16+H21</f>
         <v>17504.950100000002</v>

--- a/report/CornTempRes.xlsx
+++ b/report/CornTempRes.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="62">
   <si>
     <t>拍卖周</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,6 +260,10 @@
   </si>
   <si>
     <t>第28周</t>
+  </si>
+  <si>
+    <t>第1周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -511,7 +515,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -630,6 +634,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -660,6 +670,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -671,9 +684,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -822,16 +832,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43370</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43384</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43391</c:v>
+                  <c:v>43398</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43398</c:v>
+                  <c:v>43608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -843,13 +853,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.99119999999999997</c:v>
+                  <c:v>0.99990000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.99990000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99990000000000001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -912,16 +922,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43370</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43384</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43391</c:v>
+                  <c:v>43398</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43398</c:v>
+                  <c:v>43608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -933,15 +943,12 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.71709999999999996</c:v>
+                  <c:v>0.74060000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.74060000000000004</c:v>
+                  <c:v>0.81259999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.81259999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>0.98340000000000005</c:v>
                 </c:pt>
               </c:numCache>
@@ -957,8 +964,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-101447344"/>
-        <c:axId val="-101453872"/>
+        <c:axId val="-2021931456"/>
+        <c:axId val="-2021924384"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1079,16 +1086,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43370</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43384</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43391</c:v>
+                  <c:v>43398</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43398</c:v>
+                  <c:v>43608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1100,16 +1107,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1538</c:v>
+                  <c:v>1521</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1521</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1559</c:v>
+                  <c:v>1607</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1607</c:v>
+                  <c:v>1795</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1232,16 +1239,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43370</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43384</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43391</c:v>
+                  <c:v>43398</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43398</c:v>
+                  <c:v>43608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1253,15 +1260,12 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1528</c:v>
+                  <c:v>1521</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1521</c:v>
+                  <c:v>1542</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1542</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>1568</c:v>
                 </c:pt>
               </c:numCache>
@@ -1279,11 +1283,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-101445168"/>
-        <c:axId val="-101450064"/>
+        <c:axId val="-2021926560"/>
+        <c:axId val="-2021932000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-101445168"/>
+        <c:axId val="-2021926560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1323,7 +1327,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-101450064"/>
+        <c:crossAx val="-2021932000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1331,7 +1335,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-101450064"/>
+        <c:axId val="-2021932000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1379,12 +1383,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-101445168"/>
+        <c:crossAx val="-2021926560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-101453872"/>
+        <c:axId val="-2021924384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1418,12 +1422,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-101447344"/>
+        <c:crossAx val="-2021931456"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-101447344"/>
+        <c:axId val="-2021931456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1433,7 +1437,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-101453872"/>
+        <c:crossAx val="-2021924384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1642,16 +1646,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43370</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43384</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43391</c:v>
+                  <c:v>43398</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43398</c:v>
+                  <c:v>43608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1662,10 +1666,10 @@
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="1">
+                <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1726,16 +1730,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43370</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43384</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43391</c:v>
+                  <c:v>43398</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43398</c:v>
+                  <c:v>43608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1747,15 +1751,12 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.99550000000000005</c:v>
+                  <c:v>0.98699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98699999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1771,8 +1772,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-101452784"/>
-        <c:axId val="-101445712"/>
+        <c:axId val="-2021927648"/>
+        <c:axId val="-2021928192"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1893,16 +1894,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43370</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43384</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43391</c:v>
+                  <c:v>43398</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43398</c:v>
+                  <c:v>43608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1913,10 +1914,10 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="1">
+                <c:pt idx="0">
                   <c:v>1566</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="1">
                   <c:v>1606</c:v>
                 </c:pt>
               </c:numCache>
@@ -2040,16 +2041,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43370</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43384</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43391</c:v>
+                  <c:v>43398</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43398</c:v>
+                  <c:v>43608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2061,15 +2062,12 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1602</c:v>
+                  <c:v>1598</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1598</c:v>
+                  <c:v>1617</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1617</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>1679</c:v>
                 </c:pt>
               </c:numCache>
@@ -2087,11 +2085,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-101458224"/>
-        <c:axId val="-101446800"/>
+        <c:axId val="-2021928736"/>
+        <c:axId val="-2021923840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-101458224"/>
+        <c:axId val="-2021928736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2131,7 +2129,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-101446800"/>
+        <c:crossAx val="-2021923840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2139,7 +2137,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-101446800"/>
+        <c:axId val="-2021923840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2187,12 +2185,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-101458224"/>
+        <c:crossAx val="-2021928736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-101445712"/>
+        <c:axId val="-2021928192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2226,12 +2224,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-101452784"/>
+        <c:crossAx val="-2021927648"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-101452784"/>
+        <c:axId val="-2021927648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2241,7 +2239,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-101445712"/>
+        <c:crossAx val="-2021928192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2451,16 +2449,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43370</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43384</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43391</c:v>
+                  <c:v>43398</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43398</c:v>
+                  <c:v>43608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2472,15 +2470,12 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.1673</c:v>
+                  <c:v>0.6744</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6744</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2541,16 +2536,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43370</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43384</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43391</c:v>
+                  <c:v>43398</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43398</c:v>
+                  <c:v>43608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2562,15 +2557,12 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.60070000000000001</c:v>
+                  <c:v>0.59940000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59940000000000004</c:v>
+                  <c:v>0.68279999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.68279999999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>0.96560000000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -2586,8 +2578,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2077127312"/>
-        <c:axId val="-362979824"/>
+        <c:axId val="-2021929280"/>
+        <c:axId val="-2021930912"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2708,16 +2700,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43370</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43384</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43391</c:v>
+                  <c:v>43398</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43398</c:v>
+                  <c:v>43608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2729,15 +2721,12 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1350</c:v>
+                  <c:v>1507</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1507</c:v>
+                  <c:v>1422</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1422</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>1393</c:v>
                 </c:pt>
               </c:numCache>
@@ -2861,16 +2850,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43370</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43384</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43391</c:v>
+                  <c:v>43398</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43398</c:v>
+                  <c:v>43608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2882,15 +2871,12 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1575</c:v>
+                  <c:v>1560</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1560</c:v>
+                  <c:v>1564</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1564</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>1571</c:v>
                 </c:pt>
               </c:numCache>
@@ -2908,11 +2894,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-101457680"/>
-        <c:axId val="-101449520"/>
+        <c:axId val="-2021926016"/>
+        <c:axId val="-2021921664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-101457680"/>
+        <c:axId val="-2021926016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2952,7 +2938,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-101449520"/>
+        <c:crossAx val="-2021921664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2960,7 +2946,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-101449520"/>
+        <c:axId val="-2021921664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3008,12 +2994,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-101457680"/>
+        <c:crossAx val="-2021926016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-362979824"/>
+        <c:axId val="-2021930912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3047,12 +3033,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2077127312"/>
+        <c:crossAx val="-2021929280"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-2077127312"/>
+        <c:axId val="-2021929280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3062,7 +3048,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-362979824"/>
+        <c:crossAx val="-2021930912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3271,16 +3257,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43370</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43384</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43391</c:v>
+                  <c:v>43398</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43398</c:v>
+                  <c:v>43608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3292,16 +3278,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.4299999999999995E-2</c:v>
+                  <c:v>0.17180000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17180000000000001</c:v>
+                  <c:v>0.47410000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47410000000000002</c:v>
+                  <c:v>0.50680000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.50680000000000003</c:v>
+                  <c:v>0.90629999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3361,16 +3347,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43370</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43384</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43391</c:v>
+                  <c:v>43398</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43398</c:v>
+                  <c:v>43608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3382,15 +3368,12 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.159</c:v>
+                  <c:v>0.16220000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16220000000000001</c:v>
+                  <c:v>0.20760000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20760000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>0.38950000000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -3406,8 +3389,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2077119696"/>
-        <c:axId val="-2077116976"/>
+        <c:axId val="-2021920576"/>
+        <c:axId val="-2021927104"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3528,16 +3511,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43370</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43384</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43391</c:v>
+                  <c:v>43398</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43398</c:v>
+                  <c:v>43608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3549,16 +3532,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1405</c:v>
+                  <c:v>1419</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1419</c:v>
+                  <c:v>1424</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1424</c:v>
+                  <c:v>1436</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1436</c:v>
+                  <c:v>1639</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3681,16 +3664,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43370</c:v>
+                  <c:v>43384</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43384</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43391</c:v>
+                  <c:v>43398</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43398</c:v>
+                  <c:v>43608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3702,15 +3685,12 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1454</c:v>
+                  <c:v>1449</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1449</c:v>
+                  <c:v>1461</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1461</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>1477</c:v>
                 </c:pt>
               </c:numCache>
@@ -3728,11 +3708,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2077118064"/>
-        <c:axId val="-2077124592"/>
+        <c:axId val="-2021934176"/>
+        <c:axId val="-2021921120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2077118064"/>
+        <c:axId val="-2021934176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3772,7 +3752,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2077124592"/>
+        <c:crossAx val="-2021921120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -3780,7 +3760,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2077124592"/>
+        <c:axId val="-2021921120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3828,12 +3808,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2077118064"/>
+        <c:crossAx val="-2021934176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2077116976"/>
+        <c:axId val="-2021927104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3867,12 +3847,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2077119696"/>
+        <c:crossAx val="-2021920576"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2077119696"/>
+        <c:axId val="-2021920576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3882,7 +3862,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2077116976"/>
+        <c:crossAx val="-2021927104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -6237,7 +6217,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3067050" y="4295775"/>
+          <a:off x="3067050" y="3933825"/>
           <a:ext cx="7285739" cy="4310476"/>
           <a:chOff x="3095625" y="4295775"/>
           <a:chExt cx="7209989" cy="5052012"/>
@@ -7000,13 +6980,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB19"/>
+  <dimension ref="A1:BB20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7060,144 +7040,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="55" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="40"/>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57">
+      <c r="E1" s="58"/>
+      <c r="F1" s="59">
         <v>2014</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="52">
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="54">
         <v>2015</v>
       </c>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="52"/>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="52"/>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52"/>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="52"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="54"/>
+      <c r="AP1" s="54"/>
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="54"/>
+      <c r="AS1" s="54"/>
+      <c r="AT1" s="54"/>
+      <c r="AU1" s="54"/>
+      <c r="AV1" s="54"/>
+      <c r="AW1" s="54"/>
+      <c r="AX1" s="54"/>
+      <c r="AY1" s="54"/>
+      <c r="AZ1" s="54"/>
+      <c r="BA1" s="54"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="A2" s="54"/>
-      <c r="B2" s="53"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="40"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="58" t="s">
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="59" t="s">
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="60" t="s">
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="61" t="s">
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="58" t="s">
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="59" t="s">
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="AK2" s="59"/>
-      <c r="AL2" s="59"/>
-      <c r="AM2" s="59"/>
-      <c r="AN2" s="59"/>
-      <c r="AO2" s="59"/>
-      <c r="AP2" s="60" t="s">
+      <c r="AK2" s="61"/>
+      <c r="AL2" s="61"/>
+      <c r="AM2" s="61"/>
+      <c r="AN2" s="61"/>
+      <c r="AO2" s="61"/>
+      <c r="AP2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="AQ2" s="60"/>
-      <c r="AR2" s="60"/>
-      <c r="AS2" s="60"/>
-      <c r="AT2" s="60"/>
-      <c r="AU2" s="60"/>
-      <c r="AV2" s="61" t="s">
+      <c r="AQ2" s="62"/>
+      <c r="AR2" s="62"/>
+      <c r="AS2" s="62"/>
+      <c r="AT2" s="62"/>
+      <c r="AU2" s="62"/>
+      <c r="AV2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="AW2" s="61"/>
-      <c r="AX2" s="61"/>
-      <c r="AY2" s="61"/>
-      <c r="AZ2" s="61"/>
-      <c r="BA2" s="61"/>
+      <c r="AW2" s="63"/>
+      <c r="AX2" s="63"/>
+      <c r="AY2" s="63"/>
+      <c r="AZ2" s="63"/>
+      <c r="BA2" s="63"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="A3" s="54"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="40" t="s">
         <v>50</v>
       </c>
@@ -9868,7 +9848,7 @@
         <v>12519452</v>
       </c>
       <c r="Q18" s="6">
-        <f t="shared" ref="Q18:Q19" si="81">L18-P18</f>
+        <f t="shared" ref="Q18:Q20" si="81">L18-P18</f>
         <v>42548</v>
       </c>
       <c r="R18" s="7">
@@ -9928,7 +9908,7 @@
         <v>8606204</v>
       </c>
       <c r="AI18" s="6">
-        <f t="shared" ref="AI18:AI19" si="87">AD18-AH18</f>
+        <f t="shared" ref="AI18:AI20" si="87">AD18-AH18</f>
         <v>37013796</v>
       </c>
       <c r="AJ18" s="7">
@@ -9948,7 +9928,7 @@
         <v>23316811</v>
       </c>
       <c r="AO18" s="6">
-        <f t="shared" ref="AO18:AO19" si="89">AJ18-AN18</f>
+        <f t="shared" ref="AO18:AO20" si="89">AJ18-AN18</f>
         <v>21193189</v>
       </c>
       <c r="AP18" s="7">
@@ -9968,7 +9948,7 @@
         <v>6242702</v>
       </c>
       <c r="AU18" s="6">
-        <f t="shared" ref="AU18:AU19" si="91">AP18-AT18</f>
+        <f t="shared" ref="AU18:AU20" si="91">AP18-AT18</f>
         <v>4997298</v>
       </c>
       <c r="AV18" s="7">
@@ -9988,7 +9968,7 @@
         <v>8056897</v>
       </c>
       <c r="BA18" s="6">
-        <f t="shared" ref="BA18:BA19" si="93">AV18-AZ18</f>
+        <f t="shared" ref="BA18:BA20" si="93">AV18-AZ18</f>
         <v>13003103</v>
       </c>
     </row>
@@ -10159,6 +10139,115 @@
         <v>8977678</v>
       </c>
       <c r="BA19" s="6">
+        <f t="shared" si="93"/>
+        <v>12082322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:53" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>43608</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="40">
+        <f t="shared" ref="C20" si="99">J20+P20+V20+AB20+AH20+AN20+AT20+AZ20</f>
+        <v>3619329</v>
+      </c>
+      <c r="D20" s="8">
+        <f t="shared" ref="D20" si="100">+K20+Q20+W20+AC20</f>
+        <v>599417</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" ref="E20" si="101">AI20+AO20+AU20+BA20</f>
+        <v>71248472</v>
+      </c>
+      <c r="F20" s="7">
+        <f>$K$19</f>
+        <v>4208759</v>
+      </c>
+      <c r="G20">
+        <v>3609342</v>
+      </c>
+      <c r="H20">
+        <v>1639</v>
+      </c>
+      <c r="I20" s="12">
+        <v>0.90629999999999999</v>
+      </c>
+      <c r="J20" s="5">
+        <f>G20</f>
+        <v>3609342</v>
+      </c>
+      <c r="K20" s="6">
+        <f t="shared" ref="K20" si="102">F20-J20</f>
+        <v>599417</v>
+      </c>
+      <c r="L20" s="7">
+        <v>9987</v>
+      </c>
+      <c r="M20" s="8">
+        <v>9987</v>
+      </c>
+      <c r="N20" s="8">
+        <v>1795</v>
+      </c>
+      <c r="O20" s="12">
+        <v>1</v>
+      </c>
+      <c r="P20" s="5">
+        <f>M20</f>
+        <v>9987</v>
+      </c>
+      <c r="Q20" s="6">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="10">
+        <f>$AI$19</f>
+        <v>35894442</v>
+      </c>
+      <c r="AH20" s="5">
+        <f>AE20</f>
+        <v>0</v>
+      </c>
+      <c r="AI20" s="6">
+        <f t="shared" si="87"/>
+        <v>35894442</v>
+      </c>
+      <c r="AJ20" s="7">
+        <f>$AO$19</f>
+        <v>18769108</v>
+      </c>
+      <c r="AN20" s="5">
+        <f>AK20</f>
+        <v>0</v>
+      </c>
+      <c r="AO20" s="6">
+        <f t="shared" si="89"/>
+        <v>18769108</v>
+      </c>
+      <c r="AP20" s="7">
+        <f>$AU$19</f>
+        <v>4502600</v>
+      </c>
+      <c r="AT20" s="5">
+        <f>AQ20</f>
+        <v>0</v>
+      </c>
+      <c r="AU20" s="6">
+        <f t="shared" si="91"/>
+        <v>4502600</v>
+      </c>
+      <c r="AV20" s="7">
+        <f>$BA$19</f>
+        <v>12082322</v>
+      </c>
+      <c r="AZ20" s="5">
+        <f>AW20</f>
+        <v>0</v>
+      </c>
+      <c r="BA20" s="6">
         <f t="shared" si="93"/>
         <v>12082322</v>
       </c>
@@ -10433,8 +10522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E10:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10454,11 +10543,11 @@
     <row r="11" spans="5:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F11" s="14">
         <f>INDEX(detail!A4:A99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>43398</v>
+        <v>43608</v>
       </c>
       <c r="G11" s="15" t="str">
         <f>INDEX(detail!B4:B99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>第28周</v>
+        <v>第1周</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>17</v>
@@ -10482,9 +10571,9 @@
     <row r="12" spans="5:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E12">
         <f>I12+I17</f>
-        <v>1692230</v>
-      </c>
-      <c r="F12" s="66">
+        <v>3609342</v>
+      </c>
+      <c r="F12" s="64">
         <v>2014</v>
       </c>
       <c r="G12" s="18" t="s">
@@ -10492,53 +10581,53 @@
       </c>
       <c r="H12" s="19">
         <f>INDEX(detail!F4:F99999,COUNTA(detail!$B4:$B99999))/10000</f>
-        <v>3139.1100999999999</v>
+        <v>420.8759</v>
       </c>
       <c r="I12" s="18">
         <f>INDEX(detail!G4:G99999,COUNTA(detail!$B4:$B99999))</f>
-        <v>572876</v>
+        <v>3609342</v>
       </c>
       <c r="J12" s="18">
         <f>INDEX(detail!H4:H99999,COUNTA(detail!$B4:$B99999))</f>
-        <v>1436</v>
+        <v>1639</v>
       </c>
       <c r="K12" s="20">
         <f>INDEX(detail!I4:I99999,COUNTA(detail!$B4:$B99999))</f>
-        <v>0.50680000000000003</v>
+        <v>0.90629999999999999</v>
       </c>
       <c r="L12" s="19">
         <f>INDEX(detail!J4:J99999,COUNTA(detail!$B4:$B99999))/10000</f>
-        <v>2718.2341999999999</v>
+        <v>360.93419999999998</v>
       </c>
       <c r="M12" s="21">
         <f>INDEX(detail!K4:K99999,COUNTA(detail!$B4:$B99999))/10000</f>
-        <v>420.8759</v>
+        <v>59.941699999999997</v>
       </c>
       <c r="N12" s="51">
         <f>L12+L17</f>
-        <v>3690.79</v>
+        <v>360.93419999999998</v>
       </c>
     </row>
     <row r="13" spans="5:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E13">
         <f>I13+I18</f>
-        <v>2459375</v>
-      </c>
-      <c r="F13" s="66"/>
+        <v>9987</v>
+      </c>
+      <c r="F13" s="64"/>
       <c r="G13" s="18" t="s">
         <v>2</v>
       </c>
       <c r="H13" s="19">
         <f>INDEX(detail!L4:L99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>1256.2</v>
+        <v>0.99870000000000003</v>
       </c>
       <c r="I13" s="18">
         <f>INDEX(detail!M4:M99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>35294</v>
+        <v>9987</v>
       </c>
       <c r="J13" s="18">
         <f>INDEX(detail!N4:N99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1607</v>
+        <v>1795</v>
       </c>
       <c r="K13" s="20">
         <f>INDEX(detail!O4:O99999,COUNTA(detail!$B$4:$B$99999))</f>
@@ -10546,29 +10635,29 @@
       </c>
       <c r="L13" s="19">
         <f>INDEX(detail!P4:P99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>1255.4746</v>
+        <v>0.99870000000000003</v>
       </c>
       <c r="M13" s="21">
         <f>INDEX(detail!Q4:Q99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>0.72540000000000004</v>
+        <v>0</v>
       </c>
       <c r="N13" s="51">
-        <f t="shared" ref="N13:N15" si="0">L13+L18</f>
-        <v>3829.5637999999999</v>
+        <f>L13+L18</f>
+        <v>0.99870000000000003</v>
       </c>
     </row>
-    <row r="14" spans="5:14" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="5:14" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="E14">
         <f>I14+I19</f>
-        <v>494698</v>
-      </c>
-      <c r="F14" s="66"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="53"/>
       <c r="G14" s="18" t="s">
         <v>3</v>
       </c>
       <c r="H14" s="19">
         <f>INDEX(detail!R4:R99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>335.87</v>
+        <v>0</v>
       </c>
       <c r="I14" s="18">
         <f>INDEX(detail!S4:S99999,COUNTA(detail!$B$4:$B$99999))</f>
@@ -10584,81 +10673,81 @@
       </c>
       <c r="L14" s="19">
         <f>INDEX(detail!V4:V99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>334.13900000000001</v>
+        <v>0</v>
       </c>
       <c r="M14" s="21">
         <f>INDEX(detail!W4:W99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>1.7310000000000001</v>
+        <v>0</v>
       </c>
       <c r="N14" s="51">
-        <f t="shared" si="0"/>
-        <v>1007.879</v>
+        <f t="shared" ref="N14:N15" si="0">L14+L19</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:14" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="5:14" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="E15">
         <f>I15+I20</f>
-        <v>967091</v>
-      </c>
-      <c r="F15" s="66"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="53"/>
       <c r="G15" s="18" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="19">
         <f>INDEX(detail!X4:X99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>530.77</v>
+        <v>0</v>
       </c>
       <c r="I15" s="18">
         <f>INDEX(detail!Y4:Y99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>46310</v>
+        <v>0</v>
       </c>
       <c r="J15" s="18">
         <f>INDEX(detail!Z4:Z99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1393</v>
+        <v>0</v>
       </c>
       <c r="K15" s="20">
         <f>INDEX(detail!AA4:AA99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="19">
         <f>INDEX(detail!AB4:AB99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>530.49339999999995</v>
+        <v>0</v>
       </c>
       <c r="M15" s="21">
         <f>INDEX(detail!AC4:AC99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>0.27660000000000001</v>
+        <v>0</v>
       </c>
       <c r="N15" s="51">
         <f t="shared" si="0"/>
-        <v>1428.2611999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="5:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F16" s="62" t="s">
+      <c r="F16" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="63"/>
+      <c r="G16" s="66"/>
       <c r="H16" s="22">
         <f>SUM(H12:H15)</f>
-        <v>5261.9501</v>
+        <v>421.87459999999999</v>
       </c>
       <c r="I16" s="23">
-        <f t="shared" ref="I16:M16" si="1">SUM(I12:I15)</f>
-        <v>654480</v>
+        <f>SUM(I12:I15)</f>
+        <v>3619329</v>
       </c>
       <c r="J16" s="23"/>
       <c r="K16" s="24"/>
       <c r="L16" s="22">
-        <f t="shared" si="1"/>
-        <v>4838.3411999999998</v>
+        <f>SUM(L12:L15)</f>
+        <v>361.93289999999996</v>
       </c>
       <c r="M16" s="25">
-        <f t="shared" si="1"/>
-        <v>423.60889999999995</v>
+        <f>SUM(M12:M15)</f>
+        <v>59.941699999999997</v>
       </c>
     </row>
     <row r="17" spans="6:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F17" s="66">
+      <c r="F17" s="64">
         <v>2015</v>
       </c>
       <c r="G17" s="18" t="s">
@@ -10666,23 +10755,23 @@
       </c>
       <c r="H17" s="19">
         <f>INDEX(detail!AD4:AD99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>4562</v>
+        <v>3589.4441999999999</v>
       </c>
       <c r="I17" s="18">
         <f>INDEX(detail!AE4:AE99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1119354</v>
+        <v>0</v>
       </c>
       <c r="J17" s="18">
         <f>INDEX(detail!AF4:AF99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1477</v>
+        <v>0</v>
       </c>
       <c r="K17" s="20">
         <f>INDEX(detail!AG4:AG99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>0.38950000000000001</v>
+        <v>0</v>
       </c>
       <c r="L17" s="19">
         <f>INDEX(detail!AH4:AH99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>972.55579999999998</v>
+        <v>0</v>
       </c>
       <c r="M17" s="21">
         <f>INDEX(detail!AI4:AI99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
@@ -10690,29 +10779,29 @@
       </c>
     </row>
     <row r="18" spans="6:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F18" s="66"/>
+      <c r="F18" s="64"/>
       <c r="G18" s="18" t="s">
         <v>2</v>
       </c>
       <c r="H18" s="19">
         <f>INDEX(detail!AJ4:AJ99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>4451</v>
+        <v>1876.9108000000001</v>
       </c>
       <c r="I18" s="18">
         <f>INDEX(detail!AK4:AK99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>2424081</v>
+        <v>0</v>
       </c>
       <c r="J18" s="18">
         <f>INDEX(detail!AL4:AL99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1568</v>
+        <v>0</v>
       </c>
       <c r="K18" s="20">
         <f>INDEX(detail!AM4:AM99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>0.98340000000000005</v>
+        <v>0</v>
       </c>
       <c r="L18" s="19">
         <f>INDEX(detail!AN4:AN99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>2574.0891999999999</v>
+        <v>0</v>
       </c>
       <c r="M18" s="21">
         <f>INDEX(detail!AO4:AO99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
@@ -10720,29 +10809,29 @@
       </c>
     </row>
     <row r="19" spans="6:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F19" s="66"/>
+      <c r="F19" s="64"/>
       <c r="G19" s="18" t="s">
         <v>3</v>
       </c>
       <c r="H19" s="19">
         <f>INDEX(detail!AP4:AP99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>1124</v>
+        <v>450.26</v>
       </c>
       <c r="I19" s="18">
         <f>INDEX(detail!AQ4:AQ99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>494698</v>
+        <v>0</v>
       </c>
       <c r="J19" s="18">
         <f>INDEX(detail!AR4:AR99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1679</v>
+        <v>0</v>
       </c>
       <c r="K19" s="20">
         <f>INDEX(detail!AS4:AS99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="19">
         <f>INDEX(detail!AT4:AT99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>673.74</v>
+        <v>0</v>
       </c>
       <c r="M19" s="21">
         <f>INDEX(detail!AU4:AU99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
@@ -10750,29 +10839,29 @@
       </c>
     </row>
     <row r="20" spans="6:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F20" s="66"/>
+      <c r="F20" s="64"/>
       <c r="G20" s="18" t="s">
         <v>16</v>
       </c>
       <c r="H20" s="19">
         <f>INDEX(detail!AV4:AV99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>2106</v>
+        <v>1208.2321999999999</v>
       </c>
       <c r="I20" s="18">
         <f>INDEX(detail!AW4:AW99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>920781</v>
+        <v>0</v>
       </c>
       <c r="J20" s="18">
         <f>INDEX(detail!AX4:AX99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1571</v>
+        <v>0</v>
       </c>
       <c r="K20" s="20">
         <f>INDEX(detail!AY4:AY99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>0.96560000000000001</v>
+        <v>0</v>
       </c>
       <c r="L20" s="19">
         <f>INDEX(detail!AZ4:AZ99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>897.76779999999997</v>
+        <v>0</v>
       </c>
       <c r="M20" s="21">
         <f>INDEX(detail!BA4:BA99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
@@ -10780,59 +10869,59 @@
       </c>
     </row>
     <row r="21" spans="6:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F21" s="62" t="s">
+      <c r="F21" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="63"/>
+      <c r="G21" s="66"/>
       <c r="H21" s="22">
         <f>SUM(H17:H20)</f>
-        <v>12243</v>
+        <v>7124.8472000000002</v>
       </c>
       <c r="I21" s="23">
-        <f t="shared" ref="I21:M21" si="2">SUM(I17:I20)</f>
-        <v>4958914</v>
+        <f t="shared" ref="I21:M21" si="1">SUM(I17:I20)</f>
+        <v>0</v>
       </c>
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
       <c r="L21" s="22">
-        <f t="shared" si="2"/>
-        <v>5118.1527999999998</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M21" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7124.8472000000002</v>
       </c>
     </row>
     <row r="22" spans="6:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="64" t="s">
+      <c r="F22" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="65"/>
+      <c r="G22" s="68"/>
       <c r="H22" s="26">
         <f>H16+H21</f>
-        <v>17504.950100000002</v>
+        <v>7546.7218000000003</v>
       </c>
       <c r="I22" s="27">
-        <f t="shared" ref="I22:M22" si="3">I16+I21</f>
-        <v>5613394</v>
+        <f t="shared" ref="I22:M22" si="2">I16+I21</f>
+        <v>3619329</v>
       </c>
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
       <c r="L22" s="26">
-        <f>L16+L21+58</f>
-        <v>10014.493999999999</v>
+        <f>L16+L21</f>
+        <v>361.93289999999996</v>
       </c>
       <c r="M22" s="28">
-        <f t="shared" si="3"/>
-        <v>7548.4561000000003</v>
+        <f t="shared" si="2"/>
+        <v>7184.7889000000005</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F12:F15"/>
     <mergeCell ref="F17:F20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
